--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94F9574-E6F0-4AAB-B156-C817CCE57C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9509FC-A8EC-4B43-B698-E12EC98B0AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fakers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>Фейкер</t>
   </si>
@@ -67,13 +67,145 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/jiangsu-lihua-190415/</t>
+  </si>
+  <si>
+    <t>ИП Заевская Е.А.</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/ip-zaevskaya-e-a-382750/</t>
+  </si>
+  <si>
+    <t>s-project</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/s-project-385262/</t>
+  </si>
+  <si>
+    <t>duan-yun-s-shop</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/duan-yun-s-shop-274125/</t>
+  </si>
+  <si>
+    <t>ip-vlasenkov</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/ip-vlasenkov-a-a-90847/</t>
+  </si>
+  <si>
+    <t>stilnyy-obraz</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/stilnyy-obraz-325252</t>
+  </si>
+  <si>
+    <t>zuiomfs</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/zuiomfs-215741/</t>
+  </si>
+  <si>
+    <t>Орхидея</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/orhideya-376450/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/torgovyy-dom-solveks-67730/</t>
+  </si>
+  <si>
+    <t>Торговый дом Солвэкс</t>
+  </si>
+  <si>
+    <t>Shopotam</t>
+  </si>
+  <si>
+    <t>wood-industry</t>
+  </si>
+  <si>
+    <t>yourbrand</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/yourbrand-251808/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/wood-industry-194873/</t>
+  </si>
+  <si>
+    <t>Clytze</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/clytze-285995/</t>
+  </si>
+  <si>
+    <t>excellence-studio</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/excellence-studio-116847/</t>
+  </si>
+  <si>
+    <t>southtrade</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/southtrade-25635/</t>
+  </si>
+  <si>
+    <t>Yanping's brand store</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/yanping-s-brand-store-273714/</t>
+  </si>
+  <si>
+    <t>ПиратОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ozon.ru/seller/ostrov-podarkov-piratos-22334/ </t>
+  </si>
+  <si>
+    <t>Ylinjhui</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/ylinjhui-223590/</t>
+  </si>
+  <si>
+    <t>nxqylw</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/nxqylw-202834/</t>
+  </si>
+  <si>
+    <t>Wredk</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/wredk-214047/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/htdlw-202906/</t>
+  </si>
+  <si>
+    <t>htdlw</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/bztywh-205894/</t>
+  </si>
+  <si>
+    <t>bztywh</t>
+  </si>
+  <si>
+    <t>nxgmyxgs</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/nxgmyxgs-202875/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +218,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -109,10 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,11 +265,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -185,52 +341,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -560,17 +670,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
-  <dimension ref="A1:E3"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +714,7 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -620,49 +731,509 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16305633</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16266065</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15874239</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16055380</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16050483</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15941226</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>15877873</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15877131</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15033292</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15030829</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14884659</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14497676</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14817973</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14775023</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14457214</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14457792</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14642147</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14499239</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>14538249</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2">
+        <v>14418192</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2">
+        <v>14421629</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14197911</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2">
+        <v>13201458</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2">
+        <v>13734033</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2">
+        <v>13720624</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2">
+        <v>13641976</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C100 E1:E100">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C100">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E100 D1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E100 D1:D1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 E3:E1048576 E1" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
       <formula1>"Да,Нет"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{2DC6172B-9DC2-47B8-BC43-5F97E80D42C2}">
-      <formula1>"Да,Нет,-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{9DFEA834-EB4A-4147-9C79-54A7B5F90EB0}">
       <formula1>"-,Да,Нет"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0710BD4D-FE21-4EA3-B9D8-12F13283A950}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5B9D045C-C083-4919-89D9-23AC47798825}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F0DD4C14-00CB-4C69-A237-D30705764425}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{16EFCE83-8001-4914-AF7E-3EC6FFAFB536}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{6CBBFC7B-8867-4306-A8EF-7268AB129C27}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{5230D35F-EFBD-4508-84EB-D55A447D17D2}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{5BD6C230-D5E5-45F9-8882-ACC1786E6FA2}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{61F42DA8-B366-4029-90A9-0BE180CEA4CF}"/>
+    <hyperlink ref="E25" r:id="rId9" xr:uid="{90354EA2-12AC-4438-900F-C4CCD957B431}"/>
+    <hyperlink ref="E27" r:id="rId10" xr:uid="{092B246D-06AA-4675-B0D3-E54500A9B9C7}"/>
+    <hyperlink ref="E28" r:id="rId11" xr:uid="{4C442B2B-E40B-4A0B-A386-44504031011A}"/>
+    <hyperlink ref="E29" r:id="rId12" xr:uid="{B6D9F1B9-1CB3-4F1E-96E7-331C32D93E52}"/>
+    <hyperlink ref="E5" r:id="rId13" xr:uid="{47A31B0D-312F-4C5C-9834-845FC5D5593F}"/>
+    <hyperlink ref="E6" r:id="rId14" xr:uid="{9411F367-1374-449E-BA0F-3270110030AC}"/>
+    <hyperlink ref="E7" r:id="rId15" xr:uid="{67836313-CC65-4ACA-BDD5-5746EF4ACCAF}"/>
+    <hyperlink ref="E8" r:id="rId16" xr:uid="{CA5C098F-9B0F-4417-BC07-0E1437479371}"/>
+    <hyperlink ref="E9" r:id="rId17" xr:uid="{26DB7678-E0DE-488C-808A-1087B8645FAD}"/>
+    <hyperlink ref="E10" r:id="rId18" xr:uid="{2A2F2563-1129-4E07-9984-0C0AC16C8DD2}"/>
+    <hyperlink ref="E11" r:id="rId19" xr:uid="{FC482803-4B28-4451-A3F9-41F8719522BE}"/>
+    <hyperlink ref="E12" r:id="rId20" xr:uid="{F3679709-BA46-48A5-81D2-2319ABC6A9C1}"/>
+    <hyperlink ref="E18" r:id="rId21" xr:uid="{640A3BD9-D368-4D71-8353-82ED6CF93940}"/>
+    <hyperlink ref="E21" r:id="rId22" display="https://www.ozon.ru/seller/ostrov-podarkov-piratos-22334/" xr:uid="{7252E0BC-73DF-4A91-AE05-691BC5591046}"/>
+    <hyperlink ref="E23" r:id="rId23" xr:uid="{0341BED8-1DBB-4F57-86DF-D21F450F325B}"/>
+    <hyperlink ref="E24" r:id="rId24" xr:uid="{4492551B-6C1A-45A7-877C-54DF9836B91C}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{CFC20FEF-23AF-46E4-B710-9596DC2830B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9509FC-A8EC-4B43-B698-E12EC98B0AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6AE6C-6EE4-477C-9989-2472DB3B69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>Фейкер</t>
   </si>
@@ -199,16 +202,30 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/nxgmyxgs-202875/</t>
+  </si>
+  <si>
+    <t>Повторная проверка</t>
+  </si>
+  <si>
+    <t>16308713 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -233,12 +250,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,11 +275,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,15 +288,197 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -671,20 +876,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,200 +908,226 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>16305184</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7">
+        <v>16266065</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15874239</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>16055380</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16050483</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15941226</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15877873</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15877131</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15033292</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>15030829</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14884659</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7">
+        <v>14497676</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>16266517</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16305633</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>16266065</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>15874239</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2">
-        <v>16055380</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2">
-        <v>16050483</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2">
-        <v>15941226</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2">
-        <v>15877873</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2">
-        <v>15877131</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>15033292</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>15030829</v>
+        <v>14817973</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -902,301 +1136,362 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14775023</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14457214</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="10">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14457792</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7">
+        <v>14642147</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="9">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14499239</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>14538249</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14418192</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14421629</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7">
+        <v>14197911</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="9">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2">
+        <v>13201458</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2">
-        <v>14884659</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="B24" s="2">
+        <v>13734033</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14497676</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="F24" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2">
+        <v>13720624</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2">
+        <v>13641976</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="5">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16305184</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2">
-        <v>14817973</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2">
-        <v>14775023</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16266517</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2">
+        <v>16305633</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2">
-        <v>14457214</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="B30" s="2">
+        <v>16308517</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2">
-        <v>14457792</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2">
-        <v>14642147</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2">
-        <v>14499239</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2">
-        <v>14538249</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="2">
-        <v>14418192</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2">
-        <v>14421629</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2">
-        <v>14197911</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2">
-        <v>13201458</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2">
-        <v>13734033</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2">
-        <v>13720624</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2">
-        <v>13641976</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>54</v>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C100 E1:E100">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
+  <conditionalFormatting sqref="A1:F100">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C100">
+  <conditionalFormatting sqref="A1:A100">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D100">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",C1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E100 D1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E100 D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Да">
-      <formula>NOT(ISERROR(SEARCH("Да",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Нет">
-      <formula>NOT(ISERROR(SEARCH("Нет",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
@@ -1207,33 +1502,35 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{0710BD4D-FE21-4EA3-B9D8-12F13283A950}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{5B9D045C-C083-4919-89D9-23AC47798825}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{F0DD4C14-00CB-4C69-A237-D30705764425}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{16EFCE83-8001-4914-AF7E-3EC6FFAFB536}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{6CBBFC7B-8867-4306-A8EF-7268AB129C27}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{5230D35F-EFBD-4508-84EB-D55A447D17D2}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{5BD6C230-D5E5-45F9-8882-ACC1786E6FA2}"/>
-    <hyperlink ref="E20" r:id="rId8" xr:uid="{61F42DA8-B366-4029-90A9-0BE180CEA4CF}"/>
-    <hyperlink ref="E25" r:id="rId9" xr:uid="{90354EA2-12AC-4438-900F-C4CCD957B431}"/>
-    <hyperlink ref="E27" r:id="rId10" xr:uid="{092B246D-06AA-4675-B0D3-E54500A9B9C7}"/>
-    <hyperlink ref="E28" r:id="rId11" xr:uid="{4C442B2B-E40B-4A0B-A386-44504031011A}"/>
-    <hyperlink ref="E29" r:id="rId12" xr:uid="{B6D9F1B9-1CB3-4F1E-96E7-331C32D93E52}"/>
-    <hyperlink ref="E5" r:id="rId13" xr:uid="{47A31B0D-312F-4C5C-9834-845FC5D5593F}"/>
-    <hyperlink ref="E6" r:id="rId14" xr:uid="{9411F367-1374-449E-BA0F-3270110030AC}"/>
-    <hyperlink ref="E7" r:id="rId15" xr:uid="{67836313-CC65-4ACA-BDD5-5746EF4ACCAF}"/>
-    <hyperlink ref="E8" r:id="rId16" xr:uid="{CA5C098F-9B0F-4417-BC07-0E1437479371}"/>
-    <hyperlink ref="E9" r:id="rId17" xr:uid="{26DB7678-E0DE-488C-808A-1087B8645FAD}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{2A2F2563-1129-4E07-9984-0C0AC16C8DD2}"/>
-    <hyperlink ref="E11" r:id="rId19" xr:uid="{FC482803-4B28-4451-A3F9-41F8719522BE}"/>
-    <hyperlink ref="E12" r:id="rId20" xr:uid="{F3679709-BA46-48A5-81D2-2319ABC6A9C1}"/>
-    <hyperlink ref="E18" r:id="rId21" xr:uid="{640A3BD9-D368-4D71-8353-82ED6CF93940}"/>
-    <hyperlink ref="E21" r:id="rId22" display="https://www.ozon.ru/seller/ostrov-podarkov-piratos-22334/" xr:uid="{7252E0BC-73DF-4A91-AE05-691BC5591046}"/>
-    <hyperlink ref="E23" r:id="rId23" xr:uid="{0341BED8-1DBB-4F57-86DF-D21F450F325B}"/>
-    <hyperlink ref="E24" r:id="rId24" xr:uid="{4492551B-6C1A-45A7-877C-54DF9836B91C}"/>
-    <hyperlink ref="E26" r:id="rId25" xr:uid="{CFC20FEF-23AF-46E4-B710-9596DC2830B3}"/>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{0710BD4D-FE21-4EA3-B9D8-12F13283A950}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{5B9D045C-C083-4919-89D9-23AC47798825}"/>
+    <hyperlink ref="E29" r:id="rId3" xr:uid="{F0DD4C14-00CB-4C69-A237-D30705764425}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{16EFCE83-8001-4914-AF7E-3EC6FFAFB536}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{6CBBFC7B-8867-4306-A8EF-7268AB129C27}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{5230D35F-EFBD-4508-84EB-D55A447D17D2}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{5BD6C230-D5E5-45F9-8882-ACC1786E6FA2}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{61F42DA8-B366-4029-90A9-0BE180CEA4CF}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{90354EA2-12AC-4438-900F-C4CCD957B431}"/>
+    <hyperlink ref="E24" r:id="rId10" xr:uid="{092B246D-06AA-4675-B0D3-E54500A9B9C7}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{4C442B2B-E40B-4A0B-A386-44504031011A}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{B6D9F1B9-1CB3-4F1E-96E7-331C32D93E52}"/>
+    <hyperlink ref="E2" r:id="rId13" xr:uid="{47A31B0D-312F-4C5C-9834-845FC5D5593F}"/>
+    <hyperlink ref="E3" r:id="rId14" xr:uid="{9411F367-1374-449E-BA0F-3270110030AC}"/>
+    <hyperlink ref="E4" r:id="rId15" xr:uid="{67836313-CC65-4ACA-BDD5-5746EF4ACCAF}"/>
+    <hyperlink ref="E5" r:id="rId16" xr:uid="{CA5C098F-9B0F-4417-BC07-0E1437479371}"/>
+    <hyperlink ref="E6" r:id="rId17" xr:uid="{26DB7678-E0DE-488C-808A-1087B8645FAD}"/>
+    <hyperlink ref="E7" r:id="rId18" xr:uid="{2A2F2563-1129-4E07-9984-0C0AC16C8DD2}"/>
+    <hyperlink ref="E8" r:id="rId19" xr:uid="{FC482803-4B28-4451-A3F9-41F8719522BE}"/>
+    <hyperlink ref="E9" r:id="rId20" xr:uid="{F3679709-BA46-48A5-81D2-2319ABC6A9C1}"/>
+    <hyperlink ref="E15" r:id="rId21" xr:uid="{640A3BD9-D368-4D71-8353-82ED6CF93940}"/>
+    <hyperlink ref="E18" r:id="rId22" display="https://www.ozon.ru/seller/ostrov-podarkov-piratos-22334/" xr:uid="{7252E0BC-73DF-4A91-AE05-691BC5591046}"/>
+    <hyperlink ref="E20" r:id="rId23" xr:uid="{0341BED8-1DBB-4F57-86DF-D21F450F325B}"/>
+    <hyperlink ref="E21" r:id="rId24" xr:uid="{4492551B-6C1A-45A7-877C-54DF9836B91C}"/>
+    <hyperlink ref="E23" r:id="rId25" xr:uid="{CFC20FEF-23AF-46E4-B710-9596DC2830B3}"/>
+    <hyperlink ref="E30" r:id="rId26" xr:uid="{F8D2D24D-820F-4E47-9F7D-1F8ADBD79E53}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{87CA6537-60B7-4D49-BA60-46991FF5F8A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6AE6C-6EE4-477C-9989-2472DB3B69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C823D066-AD5D-4CD0-B847-0C12F0C3D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>Фейкер</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>16308713 </t>
+  </si>
+  <si>
+    <t>Disha</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/disha-167928/</t>
   </si>
 </sst>
 </file>
@@ -314,7 +320,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -342,208 +348,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -876,10 +680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>36</v>
@@ -1475,21 +1279,38 @@
         <v>26</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2">
+        <v>16331083</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
   <conditionalFormatting sqref="A1:F100">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A100">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D100">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1529,8 +1350,9 @@
     <hyperlink ref="E23" r:id="rId25" xr:uid="{CFC20FEF-23AF-46E4-B710-9596DC2830B3}"/>
     <hyperlink ref="E30" r:id="rId26" xr:uid="{F8D2D24D-820F-4E47-9F7D-1F8ADBD79E53}"/>
     <hyperlink ref="E31" r:id="rId27" xr:uid="{87CA6537-60B7-4D49-BA60-46991FF5F8A1}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{EE7E7258-F53D-4229-916A-15318C729345}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C823D066-AD5D-4CD0-B847-0C12F0C3D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF17597-3084-440D-A53F-D9850CCDDCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>Фейкер</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Блок</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>https://www.ozon.ru/seller/chenkun-286866/</t>
@@ -683,7 +680,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,60 +710,60 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7">
         <v>16266065</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7">
         <v>15874239</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>16055380</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5">
         <v>44636</v>
@@ -774,19 +771,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>16050483</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5">
         <v>44636</v>
@@ -794,19 +791,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>15941226</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>44636</v>
@@ -814,19 +811,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>15877873</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5">
         <v>44636</v>
@@ -834,19 +831,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>15877131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="10">
         <v>44636</v>
@@ -854,19 +851,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7">
         <v>15033292</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="9">
         <v>44636</v>
@@ -874,33 +871,33 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>15030829</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>14884659</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5">
         <v>44636</v>
@@ -908,19 +905,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7">
         <v>14497676</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="9">
         <v>44636</v>
@@ -928,33 +925,33 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>14817973</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>14775023</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5">
         <v>44636</v>
@@ -962,19 +959,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>14457214</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="10">
         <v>44636</v>
@@ -982,19 +979,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>14457792</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="5">
         <v>44636</v>
@@ -1002,19 +999,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7">
         <v>14642147</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="9">
         <v>44636</v>
@@ -1022,19 +1019,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>14499239</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="5">
         <v>44636</v>
@@ -1042,33 +1039,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>14538249</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>14418192</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="5">
         <v>44636</v>
@@ -1076,19 +1073,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>14421629</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5">
         <v>44636</v>
@@ -1096,19 +1093,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="7">
         <v>14197911</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="9">
         <v>44636</v>
@@ -1116,19 +1113,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2">
         <v>13201458</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="5">
         <v>44636</v>
@@ -1136,19 +1133,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
         <v>13734033</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="5">
         <v>44636</v>
@@ -1156,19 +1153,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>13720624</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="5">
         <v>44636</v>
@@ -1176,19 +1173,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2">
         <v>13641976</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="5">
         <v>44636</v>
@@ -1202,98 +1199,98 @@
         <v>16305184</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>16266517</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2">
         <v>16305633</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
         <v>16308517</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2">
         <v>16331083</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF17597-3084-440D-A53F-D9850CCDDCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B88CF8-2B75-4D53-8776-94D936F36519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>Фейкер</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/disha-167928/</t>
+  </si>
+  <si>
+    <t>ShopShop</t>
+  </si>
+  <si>
+    <t>FoxShop</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/shopshop-126942/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/foxshop-150482/</t>
   </si>
 </sst>
 </file>
@@ -677,10 +689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,6 +1303,22 @@
       </c>
       <c r="E32" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1348,8 +1376,10 @@
     <hyperlink ref="E30" r:id="rId26" xr:uid="{F8D2D24D-820F-4E47-9F7D-1F8ADBD79E53}"/>
     <hyperlink ref="E31" r:id="rId27" xr:uid="{87CA6537-60B7-4D49-BA60-46991FF5F8A1}"/>
     <hyperlink ref="E32" r:id="rId28" xr:uid="{EE7E7258-F53D-4229-916A-15318C729345}"/>
+    <hyperlink ref="E33" r:id="rId29" xr:uid="{5D7A0D7C-2063-4285-917C-A7BBB6D6E62B}"/>
+    <hyperlink ref="E34" r:id="rId30" xr:uid="{D5C68FF4-A996-4A82-BE5D-8F71148730E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B88CF8-2B75-4D53-8776-94D936F36519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF82088E-E807-42A6-AB5C-F105BE718831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Фейкер</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/foxshop-150482/</t>
+  </si>
+  <si>
+    <t>Shop.top</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/shop-top-149281/</t>
   </si>
 </sst>
 </file>
@@ -689,10 +695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1315,15 @@
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="B33" s="2">
+        <v>16739622</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>60</v>
       </c>
@@ -1317,8 +1332,25 @@
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="B34" s="2">
+        <v>16739717</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E34" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1378,8 +1410,9 @@
     <hyperlink ref="E32" r:id="rId28" xr:uid="{EE7E7258-F53D-4229-916A-15318C729345}"/>
     <hyperlink ref="E33" r:id="rId29" xr:uid="{5D7A0D7C-2063-4285-917C-A7BBB6D6E62B}"/>
     <hyperlink ref="E34" r:id="rId30" xr:uid="{D5C68FF4-A996-4A82-BE5D-8F71148730E8}"/>
+    <hyperlink ref="E35" r:id="rId31" xr:uid="{9FEC6F4B-1C77-481D-B1BB-E5D9CB1DEE41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF82088E-E807-42A6-AB5C-F105BE718831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2F77BC-6BAC-459F-96BC-2F74167B394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>Фейкер</t>
   </si>
@@ -229,6 +251,45 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/shop-top-149281/</t>
+  </si>
+  <si>
+    <t>amioppanjuan</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/amioppanjuan-224084/</t>
+  </si>
+  <si>
+    <t>The Fix Sale</t>
+  </si>
+  <si>
+    <t>Good Run</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/good-run-335669/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/the-fix-sale-254320/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/context/detail/id/</t>
+  </si>
+  <si>
+    <t>Создать ссылку</t>
+  </si>
+  <si>
+    <t>Артикулы</t>
+  </si>
+  <si>
+    <t>Essentials</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/essentials-176351/</t>
+  </si>
+  <si>
+    <t>Advanced Store</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/advanced-store-400874/</t>
   </si>
 </sst>
 </file>
@@ -285,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -293,12 +354,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +418,24 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,10 +802,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,9 +816,13 @@
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,8 +841,21 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="15" t="str" cm="1">
+        <f t="array" ref="I1:I14">_xlfn.UNIQUE(J:J)</f>
+        <v>Артикулы</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -747,9 +871,21 @@
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="9">
+        <v>44671</v>
+      </c>
+      <c r="H2" s="13" t="str">
+        <f>IF(I2&gt;0,$L$1&amp;I2,"")</f>
+        <v>https://www.ozon.ru/context/detail/id/550992126</v>
+      </c>
+      <c r="I2">
+        <v>550992126</v>
+      </c>
+      <c r="J2" s="16">
+        <v>550992126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -766,8 +902,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="13" t="str">
+        <f t="shared" ref="H3:H31" si="0">IF(I3&gt;0,$L$1&amp;I3,"")</f>
+        <v>https://www.ozon.ru/context/detail/id/550981646</v>
+      </c>
+      <c r="I3" s="15">
+        <v>550981646</v>
+      </c>
+      <c r="J3" s="16">
+        <v>550981646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -786,8 +932,18 @@
       <c r="F4" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550995764</v>
+      </c>
+      <c r="I4" s="15">
+        <v>550995764</v>
+      </c>
+      <c r="J4" s="16">
+        <v>550995764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -806,8 +962,18 @@
       <c r="F5" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/551000588</v>
+      </c>
+      <c r="I5" s="15">
+        <v>551000588</v>
+      </c>
+      <c r="J5" s="16">
+        <v>551000588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -826,8 +992,18 @@
       <c r="F6" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550993978</v>
+      </c>
+      <c r="I6" s="15">
+        <v>550993978</v>
+      </c>
+      <c r="J6" s="16">
+        <v>550993978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -846,8 +1022,18 @@
       <c r="F7" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550988728</v>
+      </c>
+      <c r="I7" s="15">
+        <v>550988728</v>
+      </c>
+      <c r="J7" s="16">
+        <v>550988728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -866,8 +1052,18 @@
       <c r="F8" s="10">
         <v>44636</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550988817</v>
+      </c>
+      <c r="I8" s="15">
+        <v>550988817</v>
+      </c>
+      <c r="J8" s="16">
+        <v>550988817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -886,8 +1082,18 @@
       <c r="F9" s="9">
         <v>44636</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550987804</v>
+      </c>
+      <c r="I9" s="15">
+        <v>550987804</v>
+      </c>
+      <c r="J9" s="16">
+        <v>550987804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -900,8 +1106,18 @@
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550994570</v>
+      </c>
+      <c r="I10" s="15">
+        <v>550994570</v>
+      </c>
+      <c r="J10" s="16">
+        <v>550994570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -920,8 +1136,18 @@
       <c r="F11" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550991408</v>
+      </c>
+      <c r="I11" s="15">
+        <v>550991408</v>
+      </c>
+      <c r="J11" s="16">
+        <v>550991408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -940,8 +1166,18 @@
       <c r="F12" s="9">
         <v>44636</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550992054</v>
+      </c>
+      <c r="I12" s="15">
+        <v>550992054</v>
+      </c>
+      <c r="J12" s="16">
+        <v>550992054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -954,8 +1190,18 @@
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.ozon.ru/context/detail/id/550993147</v>
+      </c>
+      <c r="I13" s="15">
+        <v>550993147</v>
+      </c>
+      <c r="J13" s="16">
+        <v>550993147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,8 +1220,16 @@
       <c r="F14" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -994,8 +1248,14 @@
       <c r="F15" s="10">
         <v>44636</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1014,8 +1274,14 @@
       <c r="F16" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -1034,8 +1300,14 @@
       <c r="F17" s="9">
         <v>44636</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -1054,8 +1326,14 @@
       <c r="F18" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1068,8 +1346,14 @@
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1088,8 +1372,14 @@
       <c r="F20" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
@@ -1108,8 +1398,14 @@
       <c r="F21" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1128,8 +1424,14 @@
       <c r="F22" s="9">
         <v>44636</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1148,8 +1450,14 @@
       <c r="F23" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1168,8 +1476,14 @@
       <c r="F24" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1188,8 +1502,14 @@
       <c r="F25" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1208,8 +1528,14 @@
       <c r="F26" s="5">
         <v>44636</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1225,8 +1551,14 @@
       <c r="E27" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1242,8 +1574,14 @@
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1259,8 +1597,14 @@
       <c r="E29" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1276,8 +1620,14 @@
       <c r="E30" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -1293,8 +1643,14 @@
       <c r="E31" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -1349,13 +1705,109 @@
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="B35" s="2">
+        <v>16779335</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E35" s="4" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2">
+        <v>16895869</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2">
+        <v>17008127</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>17009679</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2">
+        <v>17011122</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2">
+        <v>17011403</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2">
+        <v>17012106</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
-  <conditionalFormatting sqref="A1:F100">
+  <conditionalFormatting sqref="H1 J1 A1:F100">
     <cfRule type="expression" dxfId="3" priority="7">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -1372,10 +1824,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C40 C41:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
       <formula1>"Да,Нет"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{9DFEA834-EB4A-4147-9C79-54A7B5F90EB0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D40 D41:D1048576" xr:uid="{9DFEA834-EB4A-4147-9C79-54A7B5F90EB0}">
       <formula1>"-,Да,Нет"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1411,8 +1863,14 @@
     <hyperlink ref="E33" r:id="rId29" xr:uid="{5D7A0D7C-2063-4285-917C-A7BBB6D6E62B}"/>
     <hyperlink ref="E34" r:id="rId30" xr:uid="{D5C68FF4-A996-4A82-BE5D-8F71148730E8}"/>
     <hyperlink ref="E35" r:id="rId31" xr:uid="{9FEC6F4B-1C77-481D-B1BB-E5D9CB1DEE41}"/>
+    <hyperlink ref="E37" r:id="rId32" xr:uid="{81FBE922-B7D7-47F2-85DF-4D6538D28ADD}"/>
+    <hyperlink ref="E38" r:id="rId33" xr:uid="{B79AD8F5-EC29-4DA2-9C1A-DD2F2CD25086}"/>
+    <hyperlink ref="E36" r:id="rId34" xr:uid="{A7E6FD22-8CE9-442B-BABC-615E9740BD80}"/>
+    <hyperlink ref="E39" r:id="rId35" xr:uid="{02A3AA4A-D9A1-4FD5-A879-2DFBEBF2B2FD}"/>
+    <hyperlink ref="E40" r:id="rId36" xr:uid="{BEE6F171-99C3-4DF6-BDE8-4996E3DB6523}"/>
+    <hyperlink ref="E41" r:id="rId37" xr:uid="{487A0245-397E-493D-94E5-BC9571A0D760}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2F77BC-6BAC-459F-96BC-2F74167B394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447466A-77B7-40F0-8C98-3C997046ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>Фейкер</t>
   </si>
@@ -290,6 +290,18 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/advanced-store-400874/</t>
+  </si>
+  <si>
+    <t>17032776 </t>
+  </si>
+  <si>
+    <t>wuyinjiaoyuzixun</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/wuyinjiaoyuzixun-288239/</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1755,10 @@
         <v>17008127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>65</v>
@@ -1757,7 +1772,10 @@
         <v>17009679</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -1773,6 +1791,9 @@
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" s="4" t="s">
         <v>68</v>
       </c>
@@ -1785,7 +1806,10 @@
         <v>17011403</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>74</v>
@@ -1799,10 +1823,27 @@
         <v>17012106</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1869,8 +1910,9 @@
     <hyperlink ref="E39" r:id="rId35" xr:uid="{02A3AA4A-D9A1-4FD5-A879-2DFBEBF2B2FD}"/>
     <hyperlink ref="E40" r:id="rId36" xr:uid="{BEE6F171-99C3-4DF6-BDE8-4996E3DB6523}"/>
     <hyperlink ref="E41" r:id="rId37" xr:uid="{487A0245-397E-493D-94E5-BC9571A0D760}"/>
+    <hyperlink ref="E42" r:id="rId38" xr:uid="{DA96B1C0-22D4-48CB-AD7E-C28D3F2278BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447466A-77B7-40F0-8C98-3C997046ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357F6CD-0416-4D8F-98C5-23C395A43FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>Фейкер</t>
   </si>
@@ -302,6 +302,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Guangzhou Hanou E-Commerce Co., Ltd.</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/guangzhou-hanou-e-commerce-co-ltd-236352/</t>
+  </si>
+  <si>
+    <t>flyfeng</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/flyfeng-151605/</t>
+  </si>
+  <si>
+    <t>Favorit Club</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/favorit-club-16074/</t>
   </si>
 </sst>
 </file>
@@ -454,7 +472,65 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -814,10 +890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +907,7 @@
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -857,7 +933,7 @@
         <v>71</v>
       </c>
       <c r="I1" s="15" t="str" cm="1">
-        <f t="array" ref="I1:I14">_xlfn.UNIQUE(J:J)</f>
+        <f t="array" ref="I1:I30">_xlfn.UNIQUE(J:J)</f>
         <v>Артикулы</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -888,13 +964,13 @@
       </c>
       <c r="H2" s="13" t="str">
         <f>IF(I2&gt;0,$L$1&amp;I2,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/550992126</v>
+        <v>https://www.ozon.ru/context/detail/id/566242135</v>
       </c>
       <c r="I2">
-        <v>550992126</v>
+        <v>566242135</v>
       </c>
       <c r="J2" s="16">
-        <v>550992126</v>
+        <v>566242135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -916,13 +992,13 @@
       <c r="F3" s="7"/>
       <c r="H3" s="13" t="str">
         <f t="shared" ref="H3:H31" si="0">IF(I3&gt;0,$L$1&amp;I3,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/550981646</v>
+        <v>https://www.ozon.ru/context/detail/id/536590174</v>
       </c>
       <c r="I3" s="15">
-        <v>550981646</v>
+        <v>536590174</v>
       </c>
       <c r="J3" s="16">
-        <v>550981646</v>
+        <v>536590174</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -946,13 +1022,13 @@
       </c>
       <c r="H4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550995764</v>
+        <v>https://www.ozon.ru/context/detail/id/536586743</v>
       </c>
       <c r="I4" s="15">
-        <v>550995764</v>
+        <v>536586743</v>
       </c>
       <c r="J4" s="16">
-        <v>550995764</v>
+        <v>536586743</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -976,13 +1052,13 @@
       </c>
       <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/551000588</v>
+        <v>https://www.ozon.ru/context/detail/id/536589218</v>
       </c>
       <c r="I5" s="15">
-        <v>551000588</v>
+        <v>536589218</v>
       </c>
       <c r="J5" s="16">
-        <v>551000588</v>
+        <v>536589218</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1006,13 +1082,13 @@
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550993978</v>
+        <v>https://www.ozon.ru/context/detail/id/536590223</v>
       </c>
       <c r="I6" s="15">
-        <v>550993978</v>
+        <v>536590223</v>
       </c>
       <c r="J6" s="16">
-        <v>550993978</v>
+        <v>536590223</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1036,13 +1112,13 @@
       </c>
       <c r="H7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550988728</v>
+        <v>https://www.ozon.ru/context/detail/id/566239383</v>
       </c>
       <c r="I7" s="15">
-        <v>550988728</v>
+        <v>566239383</v>
       </c>
       <c r="J7" s="16">
-        <v>550988728</v>
+        <v>566239383</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,13 +1142,13 @@
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550988817</v>
+        <v>https://www.ozon.ru/context/detail/id/566242433</v>
       </c>
       <c r="I8" s="15">
-        <v>550988817</v>
+        <v>566242433</v>
       </c>
       <c r="J8" s="16">
-        <v>550988817</v>
+        <v>566242433</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1096,13 +1172,13 @@
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550987804</v>
+        <v>https://www.ozon.ru/context/detail/id/566245383</v>
       </c>
       <c r="I9" s="15">
-        <v>550987804</v>
+        <v>566245383</v>
       </c>
       <c r="J9" s="16">
-        <v>550987804</v>
+        <v>566245383</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1120,13 +1196,13 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550994570</v>
+        <v>https://www.ozon.ru/context/detail/id/566243176</v>
       </c>
       <c r="I10" s="15">
-        <v>550994570</v>
+        <v>566243176</v>
       </c>
       <c r="J10" s="16">
-        <v>550994570</v>
+        <v>566243176</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1150,13 +1226,13 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550991408</v>
+        <v>https://www.ozon.ru/context/detail/id/566240289</v>
       </c>
       <c r="I11" s="15">
-        <v>550991408</v>
+        <v>566240289</v>
       </c>
       <c r="J11" s="16">
-        <v>550991408</v>
+        <v>566240289</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1180,13 +1256,13 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550992054</v>
+        <v>https://www.ozon.ru/context/detail/id/566240668</v>
       </c>
       <c r="I12" s="15">
-        <v>550992054</v>
+        <v>566240668</v>
       </c>
       <c r="J12" s="16">
-        <v>550992054</v>
+        <v>566240668</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1204,13 +1280,13 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/550993147</v>
+        <v>https://www.ozon.ru/context/detail/id/566238958</v>
       </c>
       <c r="I13" s="15">
-        <v>550993147</v>
+        <v>566238958</v>
       </c>
       <c r="J13" s="16">
-        <v>550993147</v>
+        <v>566238958</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1234,12 +1310,14 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>https://www.ozon.ru/context/detail/id/566240891</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16"/>
+        <v>566240891</v>
+      </c>
+      <c r="J14" s="16">
+        <v>566240891</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1262,10 +1340,14 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566239776</v>
+      </c>
+      <c r="I15" s="15">
+        <v>566239776</v>
+      </c>
+      <c r="J15" s="16">
+        <v>566239776</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1288,10 +1370,14 @@
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566240019</v>
+      </c>
+      <c r="I16" s="15">
+        <v>566240019</v>
+      </c>
+      <c r="J16" s="16">
+        <v>566240019</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -1314,10 +1400,14 @@
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566243552</v>
+      </c>
+      <c r="I17" s="15">
+        <v>566243552</v>
+      </c>
+      <c r="J17" s="16">
+        <v>566243552</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1340,10 +1430,14 @@
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566238885</v>
+      </c>
+      <c r="I18" s="15">
+        <v>566238885</v>
+      </c>
+      <c r="J18" s="16">
+        <v>566238885</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1359,11 +1453,15 @@
         <v>13</v>
       </c>
       <c r="H19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+        <f>IF(I19&gt;0,$L$1&amp;I19,"")</f>
+        <v>https://www.ozon.ru/context/detail/id/536587315</v>
+      </c>
+      <c r="I19" s="15">
+        <v>536587315</v>
+      </c>
+      <c r="J19" s="16">
+        <v>536587315</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1385,11 +1483,15 @@
         <v>44636</v>
       </c>
       <c r="H20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+        <f>IF(I20&gt;0,$L$1&amp;I20,"")</f>
+        <v>https://www.ozon.ru/context/detail/id/566240557</v>
+      </c>
+      <c r="I20" s="15">
+        <v>566240557</v>
+      </c>
+      <c r="J20" s="16">
+        <v>566240557</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1412,10 +1514,14 @@
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566239377</v>
+      </c>
+      <c r="I21" s="15">
+        <v>566239377</v>
+      </c>
+      <c r="J21" s="16">
+        <v>566239377</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -1438,10 +1544,14 @@
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566239794</v>
+      </c>
+      <c r="I22" s="15">
+        <v>566239794</v>
+      </c>
+      <c r="J22" s="16">
+        <v>566239794</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1464,10 +1574,14 @@
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566240413</v>
+      </c>
+      <c r="I23" s="15">
+        <v>566240413</v>
+      </c>
+      <c r="J23" s="16">
+        <v>566240413</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1490,10 +1604,14 @@
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566240487</v>
+      </c>
+      <c r="I24" s="15">
+        <v>566240487</v>
+      </c>
+      <c r="J24" s="16">
+        <v>566240487</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1516,10 +1634,14 @@
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566240981</v>
+      </c>
+      <c r="I25" s="15">
+        <v>566240981</v>
+      </c>
+      <c r="J25" s="16">
+        <v>566240981</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1542,10 +1664,14 @@
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566243350</v>
+      </c>
+      <c r="I26" s="15">
+        <v>566243350</v>
+      </c>
+      <c r="J26" s="16">
+        <v>566243350</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1565,10 +1691,14 @@
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566241942</v>
+      </c>
+      <c r="I27" s="15">
+        <v>566241942</v>
+      </c>
+      <c r="J27" s="16">
+        <v>566241942</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1588,10 +1718,14 @@
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566240077</v>
+      </c>
+      <c r="I28" s="15">
+        <v>566240077</v>
+      </c>
+      <c r="J28" s="16">
+        <v>566240077</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1611,10 +1745,14 @@
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
+        <v>https://www.ozon.ru/context/detail/id/566239388</v>
+      </c>
+      <c r="I29" s="15">
+        <v>566239388</v>
+      </c>
+      <c r="J29" s="16">
+        <v>566239388</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1636,7 +1774,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1775,7 +1915,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -1789,7 +1929,7 @@
         <v>17011122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
@@ -1826,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>76</v>
@@ -1840,35 +1980,89 @@
         <v>77</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="2">
+        <v>17187851</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="2">
+        <v>17188626</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
   <conditionalFormatting sqref="H1 J1 A1:F100">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A100">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D100">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C40 C41:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
       <formula1>"Да,Нет"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D40 D41:D1048576" xr:uid="{9DFEA834-EB4A-4147-9C79-54A7B5F90EB0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{9DFEA834-EB4A-4147-9C79-54A7B5F90EB0}">
       <formula1>"-,Да,Нет"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1911,8 +2105,10 @@
     <hyperlink ref="E40" r:id="rId36" xr:uid="{BEE6F171-99C3-4DF6-BDE8-4996E3DB6523}"/>
     <hyperlink ref="E41" r:id="rId37" xr:uid="{487A0245-397E-493D-94E5-BC9571A0D760}"/>
     <hyperlink ref="E42" r:id="rId38" xr:uid="{DA96B1C0-22D4-48CB-AD7E-C28D3F2278BB}"/>
+    <hyperlink ref="E43" r:id="rId39" xr:uid="{7CFFDDD6-21FF-4549-BB12-7E293E259583}"/>
+    <hyperlink ref="E45" r:id="rId40" xr:uid="{BE498C9F-95CF-47E8-8603-DF95B4299D88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B357F6CD-0416-4D8F-98C5-23C395A43FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93C9C7-CF33-4E40-A590-446D1794E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -892,8 +892,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +933,7 @@
         <v>71</v>
       </c>
       <c r="I1" s="15" t="str" cm="1">
-        <f t="array" ref="I1:I30">_xlfn.UNIQUE(J:J)</f>
+        <f t="array" ref="I1:I26">_xlfn.UNIQUE(J:J)</f>
         <v>Артикулы</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -964,13 +964,13 @@
       </c>
       <c r="H2" s="13" t="str">
         <f>IF(I2&gt;0,$L$1&amp;I2,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/566242135</v>
+        <v>https://www.ozon.ru/context/detail/id/563976020</v>
       </c>
       <c r="I2">
-        <v>566242135</v>
+        <v>563976020</v>
       </c>
       <c r="J2" s="16">
-        <v>566242135</v>
+        <v>563976020</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -992,13 +992,13 @@
       <c r="F3" s="7"/>
       <c r="H3" s="13" t="str">
         <f t="shared" ref="H3:H31" si="0">IF(I3&gt;0,$L$1&amp;I3,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/536590174</v>
+        <v>https://www.ozon.ru/context/detail/id/563981977</v>
       </c>
       <c r="I3" s="15">
-        <v>536590174</v>
+        <v>563981977</v>
       </c>
       <c r="J3" s="16">
-        <v>536590174</v>
+        <v>563981977</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1022,13 +1022,13 @@
       </c>
       <c r="H4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/536586743</v>
+        <v>https://www.ozon.ru/context/detail/id/563978159</v>
       </c>
       <c r="I4" s="15">
-        <v>536586743</v>
+        <v>563978159</v>
       </c>
       <c r="J4" s="16">
-        <v>536586743</v>
+        <v>563978159</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1052,13 +1052,13 @@
       </c>
       <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/536589218</v>
+        <v>https://www.ozon.ru/context/detail/id/563975539</v>
       </c>
       <c r="I5" s="15">
-        <v>536589218</v>
+        <v>563975539</v>
       </c>
       <c r="J5" s="16">
-        <v>536589218</v>
+        <v>563975539</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1082,13 +1082,13 @@
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/536590223</v>
+        <v>https://www.ozon.ru/context/detail/id/563978938</v>
       </c>
       <c r="I6" s="15">
-        <v>536590223</v>
+        <v>563978938</v>
       </c>
       <c r="J6" s="16">
-        <v>536590223</v>
+        <v>563978938</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1112,13 +1112,13 @@
       </c>
       <c r="H7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566239383</v>
+        <v>https://www.ozon.ru/context/detail/id/563980497</v>
       </c>
       <c r="I7" s="15">
-        <v>566239383</v>
+        <v>563980497</v>
       </c>
       <c r="J7" s="16">
-        <v>566239383</v>
+        <v>563980497</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,13 +1142,13 @@
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566242433</v>
+        <v>https://www.ozon.ru/context/detail/id/563976786</v>
       </c>
       <c r="I8" s="15">
-        <v>566242433</v>
+        <v>563976786</v>
       </c>
       <c r="J8" s="16">
-        <v>566242433</v>
+        <v>563976786</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1172,13 +1172,13 @@
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566245383</v>
+        <v>https://www.ozon.ru/context/detail/id/563977397</v>
       </c>
       <c r="I9" s="15">
-        <v>566245383</v>
+        <v>563977397</v>
       </c>
       <c r="J9" s="16">
-        <v>566245383</v>
+        <v>563977397</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1196,13 +1196,13 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566243176</v>
+        <v>https://www.ozon.ru/context/detail/id/563969671</v>
       </c>
       <c r="I10" s="15">
-        <v>566243176</v>
+        <v>563969671</v>
       </c>
       <c r="J10" s="16">
-        <v>566243176</v>
+        <v>563969671</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1226,13 +1226,13 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240289</v>
+        <v>https://www.ozon.ru/context/detail/id/563971627</v>
       </c>
       <c r="I11" s="15">
-        <v>566240289</v>
+        <v>563971627</v>
       </c>
       <c r="J11" s="16">
-        <v>566240289</v>
+        <v>563971627</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,13 +1256,13 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240668</v>
+        <v>https://www.ozon.ru/context/detail/id/563958635</v>
       </c>
       <c r="I12" s="15">
-        <v>566240668</v>
+        <v>563958635</v>
       </c>
       <c r="J12" s="16">
-        <v>566240668</v>
+        <v>563958635</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1280,13 +1280,13 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566238958</v>
+        <v>https://www.ozon.ru/context/detail/id/563967083</v>
       </c>
       <c r="I13" s="15">
-        <v>566238958</v>
+        <v>563967083</v>
       </c>
       <c r="J13" s="16">
-        <v>566238958</v>
+        <v>563967083</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,13 +1310,13 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240891</v>
+        <v>https://www.ozon.ru/context/detail/id/563968305</v>
       </c>
       <c r="I14" s="15">
-        <v>566240891</v>
+        <v>563968305</v>
       </c>
       <c r="J14" s="16">
-        <v>566240891</v>
+        <v>563968305</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1340,13 +1340,13 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566239776</v>
+        <v>https://www.ozon.ru/context/detail/id/563955826</v>
       </c>
       <c r="I15" s="15">
-        <v>566239776</v>
+        <v>563955826</v>
       </c>
       <c r="J15" s="16">
-        <v>566239776</v>
+        <v>563955826</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1370,13 +1370,13 @@
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240019</v>
+        <v>https://www.ozon.ru/context/detail/id/563968879</v>
       </c>
       <c r="I16" s="15">
-        <v>566240019</v>
+        <v>563968879</v>
       </c>
       <c r="J16" s="16">
-        <v>566240019</v>
+        <v>563968879</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1400,13 +1400,13 @@
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566243552</v>
+        <v>https://www.ozon.ru/context/detail/id/563958316</v>
       </c>
       <c r="I17" s="15">
-        <v>566243552</v>
+        <v>563958316</v>
       </c>
       <c r="J17" s="16">
-        <v>566243552</v>
+        <v>563958316</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566238885</v>
+        <v>https://www.ozon.ru/context/detail/id/563958127</v>
       </c>
       <c r="I18" s="15">
-        <v>566238885</v>
+        <v>563958127</v>
       </c>
       <c r="J18" s="16">
-        <v>566238885</v>
+        <v>563958127</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1454,13 +1454,13 @@
       </c>
       <c r="H19" s="13" t="str">
         <f>IF(I19&gt;0,$L$1&amp;I19,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/536587315</v>
+        <v>https://www.ozon.ru/context/detail/id/563973966</v>
       </c>
       <c r="I19" s="15">
-        <v>536587315</v>
+        <v>563973966</v>
       </c>
       <c r="J19" s="16">
-        <v>536587315</v>
+        <v>563973966</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1484,13 +1484,13 @@
       </c>
       <c r="H20" s="13" t="str">
         <f>IF(I20&gt;0,$L$1&amp;I20,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/566240557</v>
+        <v>https://www.ozon.ru/context/detail/id/563972777</v>
       </c>
       <c r="I20" s="15">
-        <v>566240557</v>
+        <v>563972777</v>
       </c>
       <c r="J20" s="16">
-        <v>566240557</v>
+        <v>563972777</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1514,13 +1514,13 @@
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566239377</v>
+        <v>https://www.ozon.ru/context/detail/id/563973567</v>
       </c>
       <c r="I21" s="15">
-        <v>566239377</v>
+        <v>563973567</v>
       </c>
       <c r="J21" s="16">
-        <v>566239377</v>
+        <v>563973567</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1544,13 +1544,13 @@
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566239794</v>
+        <v>https://www.ozon.ru/context/detail/id/563972425</v>
       </c>
       <c r="I22" s="15">
-        <v>566239794</v>
+        <v>563972425</v>
       </c>
       <c r="J22" s="16">
-        <v>566239794</v>
+        <v>563972425</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240413</v>
+        <v>https://www.ozon.ru/context/detail/id/563973301</v>
       </c>
       <c r="I23" s="15">
-        <v>566240413</v>
+        <v>563973301</v>
       </c>
       <c r="J23" s="16">
-        <v>566240413</v>
+        <v>563973301</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1604,13 +1604,13 @@
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240487</v>
+        <v>https://www.ozon.ru/context/detail/id/563972049</v>
       </c>
       <c r="I24" s="15">
-        <v>566240487</v>
+        <v>563972049</v>
       </c>
       <c r="J24" s="16">
-        <v>566240487</v>
+        <v>563972049</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,13 +1634,13 @@
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240981</v>
+        <v>https://www.ozon.ru/context/detail/id/563957433</v>
       </c>
       <c r="I25" s="15">
-        <v>566240981</v>
+        <v>563957433</v>
       </c>
       <c r="J25" s="16">
-        <v>566240981</v>
+        <v>563957433</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1664,14 +1664,12 @@
       </c>
       <c r="H26" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566243350</v>
+        <v/>
       </c>
       <c r="I26" s="15">
-        <v>566243350</v>
-      </c>
-      <c r="J26" s="16">
-        <v>566243350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1691,14 +1689,10 @@
       </c>
       <c r="H27" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566241942</v>
-      </c>
-      <c r="I27" s="15">
-        <v>566241942</v>
-      </c>
-      <c r="J27" s="16">
-        <v>566241942</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1718,14 +1712,10 @@
       </c>
       <c r="H28" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566240077</v>
-      </c>
-      <c r="I28" s="15">
-        <v>566240077</v>
-      </c>
-      <c r="J28" s="16">
-        <v>566240077</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1745,14 +1735,10 @@
       </c>
       <c r="H29" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/566239388</v>
-      </c>
-      <c r="I29" s="15">
-        <v>566239388</v>
-      </c>
-      <c r="J29" s="16">
-        <v>566239388</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1774,9 +1760,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
+      <c r="I30" s="15"/>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E93C9C7-CF33-4E40-A590-446D1794E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC83CCB-342D-4634-B83D-FD9E81737DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
   <si>
     <t>Фейкер</t>
   </si>
@@ -320,6 +320,24 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/favorit-club-16074/</t>
+  </si>
+  <si>
+    <t>Marinasha</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/marinasha-304806/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/orion-101544/</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/authentic-goods-370792/</t>
+  </si>
+  <si>
+    <t>AUTHENTIC GOODS</t>
   </si>
 </sst>
 </file>
@@ -472,7 +490,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -482,54 +500,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -890,10 +860,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +903,7 @@
         <v>71</v>
       </c>
       <c r="I1" s="15" t="str" cm="1">
-        <f t="array" ref="I1:I26">_xlfn.UNIQUE(J:J)</f>
+        <f t="array" ref="I1:I15">_xlfn.UNIQUE(J:J)</f>
         <v>Артикулы</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -964,13 +934,13 @@
       </c>
       <c r="H2" s="13" t="str">
         <f>IF(I2&gt;0,$L$1&amp;I2,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/563976020</v>
+        <v>https://www.ozon.ru/context/detail/id/572745754</v>
       </c>
       <c r="I2">
-        <v>563976020</v>
+        <v>572745754</v>
       </c>
       <c r="J2" s="16">
-        <v>563976020</v>
+        <v>572745754</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -992,13 +962,13 @@
       <c r="F3" s="7"/>
       <c r="H3" s="13" t="str">
         <f t="shared" ref="H3:H31" si="0">IF(I3&gt;0,$L$1&amp;I3,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/563981977</v>
+        <v>https://www.ozon.ru/context/detail/id/572766069</v>
       </c>
       <c r="I3" s="15">
-        <v>563981977</v>
+        <v>572766069</v>
       </c>
       <c r="J3" s="16">
-        <v>563981977</v>
+        <v>572766069</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1022,13 +992,13 @@
       </c>
       <c r="H4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563978159</v>
+        <v>https://www.ozon.ru/context/detail/id/572746984</v>
       </c>
       <c r="I4" s="15">
-        <v>563978159</v>
+        <v>572746984</v>
       </c>
       <c r="J4" s="16">
-        <v>563978159</v>
+        <v>572746984</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1052,13 +1022,13 @@
       </c>
       <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563975539</v>
+        <v>https://www.ozon.ru/context/detail/id/534232807</v>
       </c>
       <c r="I5" s="15">
-        <v>563975539</v>
+        <v>534232807</v>
       </c>
       <c r="J5" s="16">
-        <v>563975539</v>
+        <v>534232807</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1082,13 +1052,13 @@
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563978938</v>
+        <v>https://www.ozon.ru/context/detail/id/528136598</v>
       </c>
       <c r="I6" s="15">
-        <v>563978938</v>
+        <v>528136598</v>
       </c>
       <c r="J6" s="16">
-        <v>563978938</v>
+        <v>528136598</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1112,13 +1082,13 @@
       </c>
       <c r="H7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563980497</v>
+        <v>https://www.ozon.ru/context/detail/id/549929391</v>
       </c>
       <c r="I7" s="15">
-        <v>563980497</v>
+        <v>549929391</v>
       </c>
       <c r="J7" s="16">
-        <v>563980497</v>
+        <v>549929391</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,13 +1112,13 @@
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563976786</v>
+        <v>https://www.ozon.ru/context/detail/id/549921730</v>
       </c>
       <c r="I8" s="15">
-        <v>563976786</v>
+        <v>549921730</v>
       </c>
       <c r="J8" s="16">
-        <v>563976786</v>
+        <v>549921730</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1172,13 +1142,13 @@
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563977397</v>
+        <v>https://www.ozon.ru/context/detail/id/534225277</v>
       </c>
       <c r="I9" s="15">
-        <v>563977397</v>
+        <v>534225277</v>
       </c>
       <c r="J9" s="16">
-        <v>563977397</v>
+        <v>534225277</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1196,13 +1166,13 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563969671</v>
+        <v>https://www.ozon.ru/context/detail/id/549922986</v>
       </c>
       <c r="I10" s="15">
-        <v>563969671</v>
+        <v>549922986</v>
       </c>
       <c r="J10" s="16">
-        <v>563969671</v>
+        <v>549922986</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1226,13 +1196,13 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563971627</v>
+        <v>https://www.ozon.ru/context/detail/id/541765219</v>
       </c>
       <c r="I11" s="15">
-        <v>563971627</v>
+        <v>541765219</v>
       </c>
       <c r="J11" s="16">
-        <v>563971627</v>
+        <v>541765219</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,13 +1226,13 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563958635</v>
+        <v>https://www.ozon.ru/context/detail/id/572768950</v>
       </c>
       <c r="I12" s="15">
-        <v>563958635</v>
+        <v>572768950</v>
       </c>
       <c r="J12" s="16">
-        <v>563958635</v>
+        <v>572768950</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1280,13 +1250,13 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563967083</v>
+        <v>https://www.ozon.ru/context/detail/id/572873154</v>
       </c>
       <c r="I13" s="15">
-        <v>563967083</v>
+        <v>572873154</v>
       </c>
       <c r="J13" s="16">
-        <v>563967083</v>
+        <v>572873154</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,13 +1280,13 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563968305</v>
+        <v>https://www.ozon.ru/context/detail/id/528137726</v>
       </c>
       <c r="I14" s="15">
-        <v>563968305</v>
+        <v>528137726</v>
       </c>
       <c r="J14" s="16">
-        <v>563968305</v>
+        <v>528137726</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1340,14 +1310,12 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563955826</v>
+        <v/>
       </c>
       <c r="I15" s="15">
-        <v>563955826</v>
-      </c>
-      <c r="J15" s="16">
-        <v>563955826</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1370,14 +1338,10 @@
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563968879</v>
-      </c>
-      <c r="I16" s="15">
-        <v>563968879</v>
-      </c>
-      <c r="J16" s="16">
-        <v>563968879</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -1400,14 +1364,10 @@
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563958316</v>
-      </c>
-      <c r="I17" s="15">
-        <v>563958316</v>
-      </c>
-      <c r="J17" s="16">
-        <v>563958316</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1430,14 +1390,10 @@
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563958127</v>
-      </c>
-      <c r="I18" s="15">
-        <v>563958127</v>
-      </c>
-      <c r="J18" s="16">
-        <v>563958127</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1454,14 +1410,10 @@
       </c>
       <c r="H19" s="13" t="str">
         <f>IF(I19&gt;0,$L$1&amp;I19,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/563973966</v>
-      </c>
-      <c r="I19" s="15">
-        <v>563973966</v>
-      </c>
-      <c r="J19" s="16">
-        <v>563973966</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1484,14 +1436,10 @@
       </c>
       <c r="H20" s="13" t="str">
         <f>IF(I20&gt;0,$L$1&amp;I20,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/563972777</v>
-      </c>
-      <c r="I20" s="15">
-        <v>563972777</v>
-      </c>
-      <c r="J20" s="16">
-        <v>563972777</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1514,14 +1462,10 @@
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563973567</v>
-      </c>
-      <c r="I21" s="15">
-        <v>563973567</v>
-      </c>
-      <c r="J21" s="16">
-        <v>563973567</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -1544,14 +1488,10 @@
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563972425</v>
-      </c>
-      <c r="I22" s="15">
-        <v>563972425</v>
-      </c>
-      <c r="J22" s="16">
-        <v>563972425</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1574,14 +1514,10 @@
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563973301</v>
-      </c>
-      <c r="I23" s="15">
-        <v>563973301</v>
-      </c>
-      <c r="J23" s="16">
-        <v>563973301</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1604,14 +1540,10 @@
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563972049</v>
-      </c>
-      <c r="I24" s="15">
-        <v>563972049</v>
-      </c>
-      <c r="J24" s="16">
-        <v>563972049</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1634,14 +1566,10 @@
       </c>
       <c r="H25" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/563957433</v>
-      </c>
-      <c r="I25" s="15">
-        <v>563957433</v>
-      </c>
-      <c r="J25" s="16">
-        <v>563957433</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1666,9 +1594,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
+      <c r="I26" s="15"/>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1981,10 +1907,10 @@
         <v>17187851</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>82</v>
@@ -1998,12 +1924,12 @@
         <v>17188626</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2021,21 +1947,89 @@
         <v>86</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2">
+        <v>17294067</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2">
+        <v>17294214</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2">
+        <v>17294379</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2">
+        <v>17294596</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
   <conditionalFormatting sqref="H1 J1 A1:F100">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A100">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D100">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2091,8 +2085,13 @@
     <hyperlink ref="E42" r:id="rId38" xr:uid="{DA96B1C0-22D4-48CB-AD7E-C28D3F2278BB}"/>
     <hyperlink ref="E43" r:id="rId39" xr:uid="{7CFFDDD6-21FF-4549-BB12-7E293E259583}"/>
     <hyperlink ref="E45" r:id="rId40" xr:uid="{BE498C9F-95CF-47E8-8603-DF95B4299D88}"/>
+    <hyperlink ref="E46" r:id="rId41" xr:uid="{CB358DA4-C4DB-41A0-8622-8691ED1DCC93}"/>
+    <hyperlink ref="E44" r:id="rId42" xr:uid="{BD7EDA55-4E05-4B03-9E51-21D12E592884}"/>
+    <hyperlink ref="E47" r:id="rId43" xr:uid="{DE1BEF35-18CC-4029-8478-712FB0FB4757}"/>
+    <hyperlink ref="E48" r:id="rId44" xr:uid="{074E3EB6-0CA8-421F-9F18-DD653C2DA83F}"/>
+    <hyperlink ref="E49" r:id="rId45" xr:uid="{22045BB5-047B-4E4B-B846-C674293BE12B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC83CCB-342D-4634-B83D-FD9E81737DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5B1669-8875-4FEB-8597-7CD18267A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="102">
   <si>
     <t>Фейкер</t>
   </si>
@@ -338,6 +339,33 @@
   </si>
   <si>
     <t>AUTHENTIC GOODS</t>
+  </si>
+  <si>
+    <t>МонСИР</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/monsir-205281/</t>
+  </si>
+  <si>
+    <t>Arisha</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/arisha-365650/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-597183164</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-596930985</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-596976227</t>
+  </si>
+  <si>
+    <t>DELICACY</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/delicacy-484897/</t>
   </si>
 </sst>
 </file>
@@ -860,10 +888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,13 +962,13 @@
       </c>
       <c r="H2" s="13" t="str">
         <f>IF(I2&gt;0,$L$1&amp;I2,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/572745754</v>
+        <v>https://www.ozon.ru/context/detail/id/563515485</v>
       </c>
       <c r="I2">
-        <v>572745754</v>
+        <v>563515485</v>
       </c>
       <c r="J2" s="16">
-        <v>572745754</v>
+        <v>563515485</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -962,13 +990,13 @@
       <c r="F3" s="7"/>
       <c r="H3" s="13" t="str">
         <f t="shared" ref="H3:H31" si="0">IF(I3&gt;0,$L$1&amp;I3,"")</f>
-        <v>https://www.ozon.ru/context/detail/id/572766069</v>
+        <v>https://www.ozon.ru/context/detail/id/560866181</v>
       </c>
       <c r="I3" s="15">
-        <v>572766069</v>
+        <v>560866181</v>
       </c>
       <c r="J3" s="16">
-        <v>572766069</v>
+        <v>560866181</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -992,13 +1020,13 @@
       </c>
       <c r="H4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/572746984</v>
+        <v>https://www.ozon.ru/context/detail/id/562571505</v>
       </c>
       <c r="I4" s="15">
-        <v>572746984</v>
+        <v>562571505</v>
       </c>
       <c r="J4" s="16">
-        <v>572746984</v>
+        <v>562571505</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1022,13 +1050,13 @@
       </c>
       <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/534232807</v>
+        <v>https://www.ozon.ru/context/detail/id/563116649</v>
       </c>
       <c r="I5" s="15">
-        <v>534232807</v>
+        <v>563116649</v>
       </c>
       <c r="J5" s="16">
-        <v>534232807</v>
+        <v>563116649</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1052,13 +1080,13 @@
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/528136598</v>
+        <v>https://www.ozon.ru/context/detail/id/562768425</v>
       </c>
       <c r="I6" s="15">
-        <v>528136598</v>
+        <v>562768425</v>
       </c>
       <c r="J6" s="16">
-        <v>528136598</v>
+        <v>562768425</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1082,13 +1110,13 @@
       </c>
       <c r="H7" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/549929391</v>
+        <v>https://www.ozon.ru/context/detail/id/561849783</v>
       </c>
       <c r="I7" s="15">
-        <v>549929391</v>
+        <v>561849783</v>
       </c>
       <c r="J7" s="16">
-        <v>549929391</v>
+        <v>561849783</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1112,13 +1140,13 @@
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/549921730</v>
+        <v>https://www.ozon.ru/context/detail/id/563119527</v>
       </c>
       <c r="I8" s="15">
-        <v>549921730</v>
+        <v>563119527</v>
       </c>
       <c r="J8" s="16">
-        <v>549921730</v>
+        <v>563119527</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,13 +1170,13 @@
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/534225277</v>
+        <v>https://www.ozon.ru/context/detail/id/563524042</v>
       </c>
       <c r="I9" s="15">
-        <v>534225277</v>
+        <v>563524042</v>
       </c>
       <c r="J9" s="16">
-        <v>534225277</v>
+        <v>563524042</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1166,13 +1194,13 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/549922986</v>
+        <v>https://www.ozon.ru/context/detail/id/562546775</v>
       </c>
       <c r="I10" s="15">
-        <v>549922986</v>
+        <v>562546775</v>
       </c>
       <c r="J10" s="16">
-        <v>549922986</v>
+        <v>562546775</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1196,13 +1224,13 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/541765219</v>
+        <v>https://www.ozon.ru/context/detail/id/562682733</v>
       </c>
       <c r="I11" s="15">
-        <v>541765219</v>
+        <v>562682733</v>
       </c>
       <c r="J11" s="16">
-        <v>541765219</v>
+        <v>562682733</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1226,13 +1254,13 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/572768950</v>
+        <v>https://www.ozon.ru/context/detail/id/563123798</v>
       </c>
       <c r="I12" s="15">
-        <v>572768950</v>
+        <v>563123798</v>
       </c>
       <c r="J12" s="16">
-        <v>572768950</v>
+        <v>563123798</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1250,13 +1278,13 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/572873154</v>
+        <v>https://www.ozon.ru/context/detail/id/563493534</v>
       </c>
       <c r="I13" s="15">
-        <v>572873154</v>
+        <v>563493534</v>
       </c>
       <c r="J13" s="16">
-        <v>572873154</v>
+        <v>563493534</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1280,13 +1308,13 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/context/detail/id/528137726</v>
+        <v>https://www.ozon.ru/context/detail/id/560769120</v>
       </c>
       <c r="I14" s="15">
-        <v>528137726</v>
+        <v>560769120</v>
       </c>
       <c r="J14" s="16">
-        <v>528137726</v>
+        <v>560769120</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2013,6 +2041,57 @@
       </c>
       <c r="E49" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="2">
+        <v>17616688</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2">
+        <v>17616758</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2">
+        <v>17616832</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2090,8 +2169,45 @@
     <hyperlink ref="E47" r:id="rId43" xr:uid="{DE1BEF35-18CC-4029-8478-712FB0FB4757}"/>
     <hyperlink ref="E48" r:id="rId44" xr:uid="{074E3EB6-0CA8-421F-9F18-DD653C2DA83F}"/>
     <hyperlink ref="E49" r:id="rId45" xr:uid="{22045BB5-047B-4E4B-B846-C674293BE12B}"/>
+    <hyperlink ref="E50" r:id="rId46" xr:uid="{993F093F-D646-45D7-A330-039826CCAF73}"/>
+    <hyperlink ref="E51" r:id="rId47" xr:uid="{C4E5F0C4-AC38-4B20-8904-97E0E9F4327F}"/>
+    <hyperlink ref="E52" r:id="rId48" xr:uid="{6CA0703E-F753-489F-8472-556B16EE6195}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5B1669-8875-4FEB-8597-7CD18267A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D78539A-C279-4434-BE98-6163A1EAE8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$H$209</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="527">
   <si>
     <t>Фейкер</t>
   </si>
@@ -353,19 +355,1294 @@
     <t>https://www.ozon.ru/seller/arisha-365650/</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-597183164</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-596930985</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-596976227</t>
-  </si>
-  <si>
     <t>DELICACY</t>
   </si>
   <si>
     <t>https://www.ozon.ru/seller/delicacy-484897/</t>
+  </si>
+  <si>
+    <t>Item link</t>
+  </si>
+  <si>
+    <t>Item image</t>
+  </si>
+  <si>
+    <t>Fake</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>УЮТНЫЙ ДОМ</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/uyutnyy-dom-271916/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-524317597</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6273335150.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-541730895</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6323766465.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-524313532</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6329636863.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-542047913</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6284199131.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-561341920</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6301093816.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-477228981</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6243666137.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-541763618</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6284230690.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-549978552</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6302714222.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-561354611</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6301106087.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-plyazh-586525214</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6323791577.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-495309064</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6254856658.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586101719</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6329537480.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-524322247</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6273338457.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494776224</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6254388662.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-586101966</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6322256755.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-295060737</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6329637848.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514723015</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6267665347.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494804604</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6254397879.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580709818</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6318185442.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-528140693</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6275251139.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586496943</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6323769653.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586474548</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6323761412.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-580809995</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6275249034.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494781008</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6254392535.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-277388146</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6266984801.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586098501</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6322255111.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-586493006</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6323770784.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586498149</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6323772596.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-530186393</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6264539811.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-587206096</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-295585083</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6080088897.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-277416601</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6266964482.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-volk-580831227</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6273318524.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-ptitsa-v-polete-592268629</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6327547464.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-549913068</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6302716130.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shapka-disha-494855663</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6264539810.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-zolotye-100-dollarov-586528705</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6329519387.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-plyazh-586524133</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6323789883.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-550015821</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6302713747.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-new-york-yankees-580124107</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6316590018.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494792612</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6254378340.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-560738694</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6284113417.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494760622</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6260758414.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580750002</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6318202715.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-277417045</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6266961341.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-521417987</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6271707629.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-517029660</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6275219542.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-new-york-yankees-587202872</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6324256535.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-multfilmy-587544160</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6329514574.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-novinka-277391870</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6329655626.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-586498785</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6323773045.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-561328129</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6301056980.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-308643490</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6212295037.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shapka-disha-494858817</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6264539663.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-497632434</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6264538418.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592278454</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6327551319.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-295060763</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6323768609.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586492243</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6323770267.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-528249985</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6275304016.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514707235</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6267657025.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-494806140</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6254403723.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-421883319</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6202076556.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-421874412</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6199756898.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-421880975</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6202075867.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-517092898</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6275219467.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-517105168</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6275219061.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-multfilmy-587541515</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6329516554.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580713901</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6318187274.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-516970598</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6275219854.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586085906</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6329607729.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-304071747</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6127462586.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-sport-580061434</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6316587392.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-528139915</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6284112623.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-new-york-yankees-587287521</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6324265365.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-280710334</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6266979415.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-308633355</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6218637910.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-594883993</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6329685478.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586479701</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6323764563.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514700653</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6267654693.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580718801</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6318188773.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516882596</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6275165143.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-549982140</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6302714012.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-513174988</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6084370254.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580709633</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6318184325.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-akula-592255583</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6327541738.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-592280019</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6327553134.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-495302307</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6272028603.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-280706721</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6275217945.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580162660</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6316599897.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-308642656</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6218638394.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-580814054</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6275248355.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494880994</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6264539510.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-497634587</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6264537945.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586092942</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6322250199.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-549912483</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6302716224.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-530181377</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shapka-disha-327603259</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6243647787.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580167788</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6316603145.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586092004</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6329544997.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586482125</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6323765134.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586495340</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6323771395.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-plyazh-594872790</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6329683685.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586096805</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6322250460.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shapka-disha-327551261</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6214864879.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-tigr-580830306</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6332695932.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-277389014</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6077747070.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-586053808</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6322234401.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514702797</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6267652799.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-277386115</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6266992936.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586080078</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6329613872.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-494641091</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6254276445.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-586087753</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6322235386.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-485991970</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6253903452.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-549980265</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6302714117.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shapka-s-podogrevom-disha-375028277</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6226683261.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-586384874</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6322239136.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580740126</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6318200658.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-495276369</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6254822451.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-akula-592267642</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6327546719.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516937200</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6275220037.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494753841</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6254343091.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516261484</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6275223840.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516879307</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6275222051.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-549914420</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6302715484.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-571423726</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6256958283.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-586499813</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6323773665.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586498318</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6323772128.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-ptitsa-v-polete-592274284</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6327548897.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-587206785</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592274238</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6327547933.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-485983318</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6264542196.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514737483</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6267675724.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514676317</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6267648354.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-sport-586061568</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6322238356.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shlyapa-disha-plyazh-594933664</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6329692529.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516825675</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6275222223.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-588985947</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6264538898.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494756846</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6264541518.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-587206851</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6326263172.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-495281530</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6264538535.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-volk-580829651</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6310121586.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516815527</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6275222433.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-495252398</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6254793168.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-341666322</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6221034412.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-280710276</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6269101472.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-495261170</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6254799218.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-los-angeles-dodgers-580157826</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6316596985.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516814005</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6275222498.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516252965</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6275223650.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shapka-disha-419942477</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6226400166.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/solomennaya-shlyapa-disha-562625018</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6302925367.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-296431527</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6081574011.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-plyazh-277421408</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6329672992.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586099481</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6322248705.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586090626</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6329600121.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494881984</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6264539117.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592422927</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6327551116.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516247357</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6275230027.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-495301419</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6254831062.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-309503097</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6090874505.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516248458</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6275229449.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-549779101</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6302716311.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-485988598</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6253905644.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516257202</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6275223359.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-pitbul-594941302</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6329679074.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-580815525</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6318236157.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494747598</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6254354869.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-549778026</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6302716426.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516936949</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6275220212.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516247192</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6275229895.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516928722</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6275220502.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516288254</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6275222774.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-new-york-yankees-596763459</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6331980138.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-plyazh-594873138</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6329681338.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514705330</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6267656046.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-loshadi-580835187</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6278057380.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-akula-580836026</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6278057963.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494886532</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6264539009.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516287871</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6275223061.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592278972</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6327551710.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-296699223</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6081573190.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516289767</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6275223261.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-akula-592266762</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6327545794.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-516927453</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6275220997.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-296197260</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6081177708.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-574356964</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6256960178.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-494890272</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6264538743.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586073724</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6329617230.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-514742600</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6267678814.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-disha-299791251</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6084047464.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shlyapa-disha-337584192</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6129044487.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597277699</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6332252651.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597271871</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6332253038.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597271271</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6332252303.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597258890</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6332247684.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597253473</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6332250152.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597252979</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6332250821.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597249553</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6332249272.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597249271</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6332246289.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-596934402</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6332746277.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-novinka-597277029</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6332745976.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597263573</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6332752236.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-tigr-580828309</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6273330413.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598341468</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6332731353.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-novinka-597274890</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6332746120.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-597249627</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6332248638.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-596937218</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6332746666.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-596924874</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6332746843.jpg</t>
+  </si>
+  <si>
+    <t>Goorin</t>
+  </si>
+  <si>
+    <t>Caps</t>
+  </si>
+  <si>
+    <t>Item image Code</t>
+  </si>
+  <si>
+    <t>Parsed items variants</t>
+  </si>
+  <si>
+    <t>Already parsed</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586491214</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6323768295.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-disha-295060790</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/wc1200/6080086775.jpg</t>
   </si>
 </sst>
 </file>
@@ -408,7 +1685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +1695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,12 +1796,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -558,6 +1897,42 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -888,10 +2263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,7 +2275,7 @@
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
@@ -1983,10 +3358,10 @@
         <v>17294067</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>88</v>
@@ -2000,10 +3375,10 @@
         <v>17294214</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>89</v>
@@ -2017,10 +3392,10 @@
         <v>17294379</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>91</v>
@@ -2034,10 +3409,10 @@
         <v>17294596</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>57</v>
@@ -2079,7 +3454,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2">
         <v>17616832</v>
@@ -2091,29 +3466,80 @@
         <v>80</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2">
+        <v>17618913</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2">
+        <v>17619616</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17619641</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
   <conditionalFormatting sqref="H1 J1 A1:F100">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A100">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D100">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Да">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
@@ -2172,42 +3598,4182 @@
     <hyperlink ref="E50" r:id="rId46" xr:uid="{993F093F-D646-45D7-A330-039826CCAF73}"/>
     <hyperlink ref="E51" r:id="rId47" xr:uid="{C4E5F0C4-AC38-4B20-8904-97E0E9F4327F}"/>
     <hyperlink ref="E52" r:id="rId48" xr:uid="{6CA0703E-F753-489F-8472-556B16EE6195}"/>
+    <hyperlink ref="E53" r:id="rId49" xr:uid="{C6296369-7818-4FE9-8475-D9B47085C616}"/>
+    <hyperlink ref="E54" r:id="rId50" xr:uid="{546EA362-1CF0-450E-9C8F-FCDA9F907849}"/>
+    <hyperlink ref="E55" r:id="rId51" xr:uid="{4D274C36-886B-4160-A73A-6B80ACCF7A3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-  <dimension ref="A1:A3"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2">
+        <f>VALUE(MID(D2,39,10))</f>
+        <v>6302925367</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6329537480</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G2,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E66" si="0">VALUE(MID(D3,39,10))</f>
+        <v>6329692529</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6291050023</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G3,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>6129044487</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6323769468</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G4,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>6226683261</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6310121586</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G5,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>6264539663</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6302715298</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G6,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6264539810</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6322248705</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G7,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>6226400166</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6302715369</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G8,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6243647787</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6284199131</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G9,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>6214864879</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6323770267</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G10,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>6329519387</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6322249109</v>
+      </c>
+      <c r="H11" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G11,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>6316587392</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6329544997</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G12,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>6327551116</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6322249555</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G13,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>6327551710</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6322250460</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G14,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>6327551319</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6323773665</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G15,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>6327547933</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6323770784</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G16,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>6327548897</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6284204636</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G17,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>6327547464</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6310110947</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G18,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>6329681338</v>
+      </c>
+      <c r="G19" s="2">
+        <v>6322256755</v>
+      </c>
+      <c r="H19" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G19,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>6329683685</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6273318524</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G20,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>6323791577</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6273330413</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G21,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>6323789883</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6323765134</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G22,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>6329672992</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6323772128</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G23,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>6329679074</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6323771395</v>
+      </c>
+      <c r="H24" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G24,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>6329655626</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6284112623</v>
+      </c>
+      <c r="H25" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G25,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>6331980138</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6329636863</v>
+      </c>
+      <c r="H26" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G26,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>6329514574</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6332247684</v>
+      </c>
+      <c r="H27" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G27,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>6329516554</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6332248638</v>
+      </c>
+      <c r="H28" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G28,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>6327546719</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6284113417</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G29,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>6327545794</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6273338457</v>
+      </c>
+      <c r="H30" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G30,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>6327541738</v>
+      </c>
+      <c r="G31" s="2">
+        <v>6302715233</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G31,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>6302715484</v>
+      </c>
+      <c r="G32" s="2">
+        <v>6284230690</v>
+      </c>
+      <c r="H32" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G32,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>6302716130</v>
+      </c>
+      <c r="G33" s="2">
+        <v>6273335150</v>
+      </c>
+      <c r="H33" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G33,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>6302716224</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6332252651</v>
+      </c>
+      <c r="H34" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G34,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>6302716311</v>
+      </c>
+      <c r="G35" s="2">
+        <v>6332250152</v>
+      </c>
+      <c r="H35" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G35,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>6302716426</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6332249272</v>
+      </c>
+      <c r="H36" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G36,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>6275304016</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6332253038</v>
+      </c>
+      <c r="H37" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G37,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>6275220037</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6323764563</v>
+      </c>
+      <c r="H38" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G38,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>6275220212</v>
+      </c>
+      <c r="G39" s="2">
+        <v>6323761412</v>
+      </c>
+      <c r="H39" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G39,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>6275220502</v>
+      </c>
+      <c r="G40" s="2">
+        <v>6323772596</v>
+      </c>
+      <c r="H40" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G40,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>6275220997</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6323773045</v>
+      </c>
+      <c r="H41" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G41,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>6275165143</v>
+      </c>
+      <c r="G42" s="2">
+        <v>6323766465</v>
+      </c>
+      <c r="H42" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G42,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>6275222051</v>
+      </c>
+      <c r="G43" s="2">
+        <v>6332252303</v>
+      </c>
+      <c r="H43" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G43,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>6275222223</v>
+      </c>
+      <c r="G44" s="2">
+        <v>6332250821</v>
+      </c>
+      <c r="H44" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G44,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>6275222433</v>
+      </c>
+      <c r="G45" s="2">
+        <v>6332752236</v>
+      </c>
+      <c r="H45" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G45,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>6275222498</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6302719260</v>
+      </c>
+      <c r="H46" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G46,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>6275223261</v>
+      </c>
+      <c r="G47" s="2">
+        <v>6323769653</v>
+      </c>
+      <c r="H47" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G47,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>6275222774</v>
+      </c>
+      <c r="G48" s="2">
+        <v>6275249034</v>
+      </c>
+      <c r="H48" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G48,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>6275223061</v>
+      </c>
+      <c r="G49" s="2">
+        <v>6332246289</v>
+      </c>
+      <c r="H49" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G49,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>6275223840</v>
+      </c>
+      <c r="G50" s="2">
+        <v>6322255111</v>
+      </c>
+      <c r="H50" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G50,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="0"/>
+        <v>6275223359</v>
+      </c>
+      <c r="G51" s="2">
+        <v>6326263172</v>
+      </c>
+      <c r="H51" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G51,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>6275223650</v>
+      </c>
+      <c r="G52" s="2">
+        <v>6322250199</v>
+      </c>
+      <c r="H52" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G52,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="0"/>
+        <v>6275229449</v>
+      </c>
+      <c r="G53" s="2">
+        <v>6080086775</v>
+      </c>
+      <c r="H53" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G53,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="0"/>
+        <v>6275230027</v>
+      </c>
+      <c r="G54" s="2">
+        <v>6278057963</v>
+      </c>
+      <c r="H54" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G54,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="0"/>
+        <v>6275229895</v>
+      </c>
+      <c r="G55" s="2">
+        <v>6278057380</v>
+      </c>
+      <c r="H55" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G55,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="0"/>
+        <v>6267678814</v>
+      </c>
+      <c r="G56" s="2">
+        <v>6318236157</v>
+      </c>
+      <c r="H56" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G56,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="0"/>
+        <v>6267675724</v>
+      </c>
+      <c r="G57" s="2">
+        <v>6329637848</v>
+      </c>
+      <c r="H57" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G57,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="0"/>
+        <v>6267665347</v>
+      </c>
+      <c r="G58" s="2">
+        <v>6323768295</v>
+      </c>
+      <c r="H58" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G58,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="0"/>
+        <v>6267657025</v>
+      </c>
+      <c r="G59" s="2">
+        <v>6275248355</v>
+      </c>
+      <c r="H59" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G59,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="0"/>
+        <v>6267656046</v>
+      </c>
+      <c r="G60" s="2">
+        <v>6080088897</v>
+      </c>
+      <c r="H60" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G60,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="0"/>
+        <v>6267652799</v>
+      </c>
+      <c r="G61" s="2">
+        <v>6323768609</v>
+      </c>
+      <c r="H61" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G61,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="0"/>
+        <v>6267654693</v>
+      </c>
+      <c r="G62" s="2">
+        <v>6332695932</v>
+      </c>
+      <c r="H62" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G62,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="0"/>
+        <v>6267648354</v>
+      </c>
+      <c r="G63" s="2">
+        <v>6332721848</v>
+      </c>
+      <c r="H63" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G63,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="0"/>
+        <v>6254856658</v>
+      </c>
+      <c r="G64" s="2">
+        <v>6332712315</v>
+      </c>
+      <c r="H64" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G64,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="0"/>
+        <v>6272028603</v>
+      </c>
+      <c r="G65" s="2">
+        <v>6332722868</v>
+      </c>
+      <c r="H65" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G65,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="0"/>
+        <v>6254831062</v>
+      </c>
+      <c r="G66" s="2">
+        <v>6332717746</v>
+      </c>
+      <c r="H66" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G66,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E130" si="1">VALUE(MID(D67,39,10))</f>
+        <v>6264538535</v>
+      </c>
+      <c r="G67" s="2">
+        <v>6332720427</v>
+      </c>
+      <c r="H67" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G67,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="1"/>
+        <v>6254822451</v>
+      </c>
+      <c r="G68" s="2">
+        <v>6332731353</v>
+      </c>
+      <c r="H68" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G68,E:E,E:E,0,0)&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="1"/>
+        <v>6254799218</v>
+      </c>
+      <c r="G69" s="2">
+        <v>6332716375</v>
+      </c>
+      <c r="H69" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G69,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="1"/>
+        <v>6254793168</v>
+      </c>
+      <c r="G70" s="2">
+        <v>6332708614</v>
+      </c>
+      <c r="H70" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G70,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="1"/>
+        <v>6254276445</v>
+      </c>
+      <c r="G71" s="2">
+        <v>6332713506</v>
+      </c>
+      <c r="H71" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G71,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="1"/>
+        <v>6221034412</v>
+      </c>
+      <c r="G72" s="2">
+        <v>6332729825</v>
+      </c>
+      <c r="H72" s="2" t="b">
+        <f>_xlfn.XLOOKUP(G72,E:E,E:E,0,0)&gt;1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="1"/>
+        <v>6090874505</v>
+      </c>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="1"/>
+        <v>6212295037</v>
+      </c>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="1"/>
+        <v>6218638394</v>
+      </c>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="1"/>
+        <v>6218637910</v>
+      </c>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="1"/>
+        <v>6127462586</v>
+      </c>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="1"/>
+        <v>6084047464</v>
+      </c>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="1"/>
+        <v>6081573190</v>
+      </c>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="1"/>
+        <v>6081574011</v>
+      </c>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="1"/>
+        <v>6081177708</v>
+      </c>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="1"/>
+        <v>6266979415</v>
+      </c>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="1"/>
+        <v>6269101472</v>
+      </c>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="1"/>
+        <v>6275217945</v>
+      </c>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="1"/>
+        <v>6266961341</v>
+      </c>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="1"/>
+        <v>6266964482</v>
+      </c>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="1"/>
+        <v>6077747070</v>
+      </c>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="1"/>
+        <v>6266984801</v>
+      </c>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="1"/>
+        <v>6266992936</v>
+      </c>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="1"/>
+        <v>6322238356</v>
+      </c>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="1"/>
+        <v>6332746666</v>
+      </c>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="1"/>
+        <v>6332746277</v>
+      </c>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="1"/>
+        <v>6332746843</v>
+      </c>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="1"/>
+        <v>6329685478</v>
+      </c>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="1"/>
+        <v>6327553134</v>
+      </c>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="1"/>
+        <v>6322235386</v>
+      </c>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="1"/>
+        <v>6322234401</v>
+      </c>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="1"/>
+        <v>6318202715</v>
+      </c>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="1"/>
+        <v>6318200658</v>
+      </c>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="1"/>
+        <v>6318188773</v>
+      </c>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="1"/>
+        <v>6318187274</v>
+      </c>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="1"/>
+        <v>6318185442</v>
+      </c>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="1"/>
+        <v>6318184325</v>
+      </c>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="1"/>
+        <v>6316603145</v>
+      </c>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="1"/>
+        <v>6316599897</v>
+      </c>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="1"/>
+        <v>6316590018</v>
+      </c>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="1"/>
+        <v>6316596985</v>
+      </c>
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="1"/>
+        <v>6322239136</v>
+      </c>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="1"/>
+        <v>6301106087</v>
+      </c>
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="1"/>
+        <v>6301093816</v>
+      </c>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="1"/>
+        <v>6301056980</v>
+      </c>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="1"/>
+        <v>6254403723</v>
+      </c>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="1"/>
+        <v>6243666137</v>
+      </c>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="1"/>
+        <v>6273318524</v>
+      </c>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="1"/>
+        <v>6310121586</v>
+      </c>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="1"/>
+        <v>6332695932</v>
+      </c>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="1"/>
+        <v>6273330413</v>
+      </c>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="1"/>
+        <v>6329600121</v>
+      </c>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="1"/>
+        <v>6329607729</v>
+      </c>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="1"/>
+        <v>6329613872</v>
+      </c>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="1"/>
+        <v>6329617230</v>
+      </c>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C122" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="1"/>
+        <v>6332745976</v>
+      </c>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C123" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="1"/>
+        <v>6332746120</v>
+      </c>
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="1"/>
+        <v>6324265365</v>
+      </c>
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C125" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="1"/>
+        <v>6324256535</v>
+      </c>
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="1"/>
+        <v>6332731353</v>
+      </c>
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" si="1"/>
+        <v>6332252651</v>
+      </c>
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="2">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="1"/>
+        <v>6332253038</v>
+      </c>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="2">
+        <v>2</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="1"/>
+        <v>6332252303</v>
+      </c>
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="2">
+        <v>2</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="1"/>
+        <v>6332752236</v>
+      </c>
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="2">
+        <v>2</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" ref="E131:E194" si="2">VALUE(MID(D131,39,10))</f>
+        <v>6332247684</v>
+      </c>
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="2"/>
+        <v>6332250152</v>
+      </c>
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="2"/>
+        <v>6332250821</v>
+      </c>
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="2"/>
+        <v>6332248638</v>
+      </c>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="2"/>
+        <v>6332249272</v>
+      </c>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="2"/>
+        <v>6332246289</v>
+      </c>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" si="2"/>
+        <v>6326263172</v>
+      </c>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="2">
+        <v>2</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="2"/>
+        <v>6323765134</v>
+      </c>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="2"/>
+        <v>6322256755</v>
+      </c>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="2"/>
+        <v>6323772128</v>
+      </c>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="2"/>
+        <v>6323772596</v>
+      </c>
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="2"/>
+        <v>6323769653</v>
+      </c>
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" si="2"/>
+        <v>6323771395</v>
+      </c>
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" si="2"/>
+        <v>6323770267</v>
+      </c>
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" si="2"/>
+        <v>6323765134</v>
+      </c>
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E146" s="2">
+        <f t="shared" si="2"/>
+        <v>6323764563</v>
+      </c>
+      <c r="G146"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" si="2"/>
+        <v>6323761412</v>
+      </c>
+      <c r="G147"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
+        <v>2</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="2"/>
+        <v>6329537480</v>
+      </c>
+      <c r="G148"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="2">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E149" s="2">
+        <f t="shared" si="2"/>
+        <v>6322248705</v>
+      </c>
+      <c r="G149"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" si="2"/>
+        <v>6322255111</v>
+      </c>
+      <c r="G150"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
+        <v>2</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="2"/>
+        <v>6322250460</v>
+      </c>
+      <c r="G151"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
+        <v>2</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="2"/>
+        <v>6322250199</v>
+      </c>
+      <c r="G152"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>2</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="2"/>
+        <v>6329544997</v>
+      </c>
+      <c r="G153"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="2">
+        <v>2</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="2"/>
+        <v>6318236157</v>
+      </c>
+      <c r="G154"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="2">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="2"/>
+        <v>6275248355</v>
+      </c>
+      <c r="G155"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="2">
+        <v>2</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="2"/>
+        <v>6275249034</v>
+      </c>
+      <c r="G156"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="2">
+        <v>2</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="2"/>
+        <v>6278057380</v>
+      </c>
+      <c r="G157"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="2">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="2"/>
+        <v>6278057963</v>
+      </c>
+      <c r="G158"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C159" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="2"/>
+        <v>6264538898</v>
+      </c>
+      <c r="G159"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="2"/>
+        <v>6323773665</v>
+      </c>
+      <c r="G160"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="2">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E161" s="2">
+        <f t="shared" si="2"/>
+        <v>6323773045</v>
+      </c>
+      <c r="G161"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="2">
+        <v>2</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" si="2"/>
+        <v>6323770784</v>
+      </c>
+      <c r="G162"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="2">
+        <v>2</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" si="2"/>
+        <v>6322256755</v>
+      </c>
+      <c r="G163"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C164" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="2"/>
+        <v>6256960178</v>
+      </c>
+      <c r="G164"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C165" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="2"/>
+        <v>6256958283</v>
+      </c>
+      <c r="G165"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C166" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E166" s="2">
+        <f t="shared" si="2"/>
+        <v>6284113417</v>
+      </c>
+      <c r="G166"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C167" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E167" s="2">
+        <f t="shared" si="2"/>
+        <v>6302713747</v>
+      </c>
+      <c r="G167"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C168" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E168" s="2">
+        <f t="shared" si="2"/>
+        <v>6302714012</v>
+      </c>
+      <c r="G168"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C169" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E169" s="2">
+        <f t="shared" si="2"/>
+        <v>6302714117</v>
+      </c>
+      <c r="G169"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C170" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E170" s="2">
+        <f t="shared" si="2"/>
+        <v>6302714222</v>
+      </c>
+      <c r="G170"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="2">
+        <v>2</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E171" s="2">
+        <f t="shared" si="2"/>
+        <v>6284199131</v>
+      </c>
+      <c r="G171"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="2">
+        <v>2</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E172" s="2">
+        <f t="shared" si="2"/>
+        <v>6284230690</v>
+      </c>
+      <c r="G172"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="2">
+        <v>2</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E173" s="2">
+        <f t="shared" si="2"/>
+        <v>6323766465</v>
+      </c>
+      <c r="G173"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C174" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" s="2">
+        <f t="shared" si="2"/>
+        <v>6264539811</v>
+      </c>
+      <c r="G174"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C175" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E175" s="2">
+        <f t="shared" si="2"/>
+        <v>6264539663</v>
+      </c>
+      <c r="G175"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C176" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E176" s="2">
+        <f t="shared" si="2"/>
+        <v>6275251139</v>
+      </c>
+      <c r="G176"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C177" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E177" s="2">
+        <f t="shared" si="2"/>
+        <v>6284112623</v>
+      </c>
+      <c r="G177"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C178" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E178" s="2">
+        <f t="shared" si="2"/>
+        <v>6273338457</v>
+      </c>
+      <c r="G178"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C179" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E179" s="2">
+        <f t="shared" si="2"/>
+        <v>6273335150</v>
+      </c>
+      <c r="G179"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C180" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E180" s="2">
+        <f t="shared" si="2"/>
+        <v>6329636863</v>
+      </c>
+      <c r="G180"/>
+    </row>
+    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C181" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E181" s="2">
+        <f t="shared" si="2"/>
+        <v>6271707629</v>
+      </c>
+      <c r="G181"/>
+    </row>
+    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C182" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E182" s="2">
+        <f t="shared" si="2"/>
+        <v>6275219061</v>
+      </c>
+      <c r="G182"/>
+    </row>
+    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C183" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E183" s="2">
+        <f t="shared" si="2"/>
+        <v>6275219467</v>
+      </c>
+      <c r="G183"/>
+    </row>
+    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C184" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E184" s="2">
+        <f t="shared" si="2"/>
+        <v>6275219542</v>
+      </c>
+      <c r="G184"/>
+    </row>
+    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C185" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E185" s="2">
+        <f t="shared" si="2"/>
+        <v>6275219854</v>
+      </c>
+      <c r="G185"/>
+    </row>
+    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C186" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E186" s="2">
+        <f t="shared" si="2"/>
+        <v>6084370254</v>
+      </c>
+      <c r="G186"/>
+    </row>
+    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C187" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E187" s="2">
+        <f t="shared" si="2"/>
+        <v>6264537945</v>
+      </c>
+      <c r="G187"/>
+    </row>
+    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C188" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E188" s="2">
+        <f t="shared" si="2"/>
+        <v>6264538418</v>
+      </c>
+      <c r="G188"/>
+    </row>
+    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C189" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E189" s="2">
+        <f t="shared" si="2"/>
+        <v>6264538743</v>
+      </c>
+      <c r="G189"/>
+    </row>
+    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C190" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E190" s="2">
+        <f t="shared" si="2"/>
+        <v>6264539009</v>
+      </c>
+      <c r="G190"/>
+    </row>
+    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C191" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E191" s="2">
+        <f t="shared" si="2"/>
+        <v>6264539117</v>
+      </c>
+      <c r="G191"/>
+    </row>
+    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C192" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E192" s="2">
+        <f t="shared" si="2"/>
+        <v>6264539510</v>
+      </c>
+      <c r="G192"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C193" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E193" s="2">
+        <f t="shared" si="2"/>
+        <v>6254397879</v>
+      </c>
+      <c r="G193"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" si="2"/>
+        <v>6254378340</v>
+      </c>
+      <c r="G194"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C195" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E195" s="2">
+        <f t="shared" ref="E195:E210" si="3">VALUE(MID(D195,39,10))</f>
+        <v>6254392535</v>
+      </c>
+      <c r="G195"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C196" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E196" s="2">
+        <f t="shared" si="3"/>
+        <v>6254388662</v>
+      </c>
+      <c r="G196"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C197" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" si="3"/>
+        <v>6260758414</v>
+      </c>
+      <c r="G197"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C198" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E198" s="2">
+        <f t="shared" si="3"/>
+        <v>6264541518</v>
+      </c>
+      <c r="G198"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C199" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E199" s="2">
+        <f t="shared" si="3"/>
+        <v>6254343091</v>
+      </c>
+      <c r="G199"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C200" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E200" s="2">
+        <f t="shared" si="3"/>
+        <v>6254354869</v>
+      </c>
+      <c r="G200"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C201" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E201" s="2">
+        <f t="shared" si="3"/>
+        <v>6253903452</v>
+      </c>
+      <c r="G201"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C202" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E202" s="2">
+        <f t="shared" si="3"/>
+        <v>6253905644</v>
+      </c>
+      <c r="G202"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C203" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E203" s="2">
+        <f t="shared" si="3"/>
+        <v>6264542196</v>
+      </c>
+      <c r="G203"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C204" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E204" s="2">
+        <f t="shared" si="3"/>
+        <v>6202076556</v>
+      </c>
+      <c r="G204"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C205" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E205" s="2">
+        <f t="shared" si="3"/>
+        <v>6202075867</v>
+      </c>
+      <c r="G205"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C206" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E206" s="2">
+        <f t="shared" si="3"/>
+        <v>6199756898</v>
+      </c>
+      <c r="G206"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="2">
+        <v>2</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E207" s="2">
+        <f t="shared" si="3"/>
+        <v>6080088897</v>
+      </c>
+      <c r="G207"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="2">
+        <v>2</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E208" s="2">
+        <f t="shared" si="3"/>
+        <v>6323768609</v>
+      </c>
+      <c r="G208"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="2">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E209" s="2">
+        <f t="shared" si="3"/>
+        <v>6329637848</v>
+      </c>
+      <c r="G209"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="2">
+        <v>2</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="D210" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="E210" s="19">
+        <f t="shared" si="3"/>
+        <v>6323768295</v>
+      </c>
+      <c r="G210"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C211" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G211"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G212"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G213"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G214"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G215"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G216"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G217"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G218"/>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G219"/>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G220"/>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G221"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G222"/>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G223"/>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G224"/>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G225"/>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G226"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G227"/>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G228"/>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G229"/>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G230"/>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G231"/>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G232"/>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G233"/>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G234"/>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G235"/>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G236"/>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G237"/>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G238"/>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G239"/>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G240"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G241"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G242"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G243"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G244"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G245"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G246"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G247"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G248"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G249"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G250"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G251"/>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G252"/>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G253"/>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G254"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G255"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G256"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G257"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G258"/>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G259"/>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G260"/>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G261"/>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G262"/>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G263"/>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G264"/>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G265"/>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G266"/>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G267"/>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G268"/>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G269"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G270"/>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G271"/>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G272"/>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G273"/>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G274"/>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G275"/>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G276"/>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G277"/>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G278"/>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G279"/>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G280"/>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G281"/>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G282"/>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G283"/>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G284"/>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G285"/>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G286"/>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G287"/>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G288"/>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G289"/>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G290"/>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G291"/>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G292"/>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G293"/>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G294"/>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G295"/>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G296"/>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G297"/>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G298"/>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G299"/>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G300"/>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G301"/>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G302"/>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G303"/>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G304"/>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G305"/>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G306"/>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G307"/>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G308"/>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G309"/>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G310"/>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G311"/>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G312"/>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G313"/>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G314"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G315"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G316"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G317"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G318"/>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G319"/>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G320"/>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G321"/>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G322"/>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G323"/>
+    </row>
+    <row r="324" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G324"/>
+    </row>
+    <row r="325" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G325"/>
+    </row>
+    <row r="326" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G326"/>
+    </row>
+    <row r="327" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G327"/>
+    </row>
+    <row r="328" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G328"/>
+    </row>
+    <row r="329" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G329"/>
+    </row>
+    <row r="330" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G330"/>
+    </row>
+    <row r="331" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G331"/>
+    </row>
+    <row r="332" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G332"/>
+    </row>
+    <row r="333" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G333"/>
+    </row>
+    <row r="334" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G334"/>
+    </row>
+    <row r="335" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G335"/>
+    </row>
+    <row r="336" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G336"/>
+    </row>
+    <row r="337" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G337"/>
+    </row>
+    <row r="338" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G338"/>
+    </row>
+    <row r="339" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G339"/>
+    </row>
+    <row r="340" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G340"/>
+    </row>
+    <row r="341" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G341"/>
+    </row>
+    <row r="342" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G342"/>
+    </row>
+    <row r="343" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G343"/>
+    </row>
+    <row r="344" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G344"/>
+    </row>
+    <row r="345" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G345"/>
+    </row>
+    <row r="346" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G346"/>
+    </row>
+    <row r="347" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G347"/>
+    </row>
+    <row r="348" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G348"/>
+    </row>
+    <row r="349" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G349"/>
+    </row>
+    <row r="350" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G350"/>
+    </row>
+    <row r="351" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G351"/>
+    </row>
+    <row r="352" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G352"/>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G353"/>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G354"/>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G355"/>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G356"/>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G357"/>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G358"/>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G359"/>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G360"/>
+    </row>
+    <row r="361" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G361"/>
+    </row>
+    <row r="362" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G362"/>
+    </row>
+    <row r="363" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G363"/>
+    </row>
+    <row r="364" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G364"/>
+    </row>
+    <row r="365" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G365"/>
+    </row>
+    <row r="366" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G366"/>
+    </row>
+    <row r="367" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G367"/>
+    </row>
+    <row r="368" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G368"/>
+    </row>
+    <row r="369" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G369"/>
+    </row>
+    <row r="370" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G370"/>
+    </row>
+    <row r="371" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G371"/>
+    </row>
+    <row r="372" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G372"/>
+    </row>
+    <row r="373" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G373"/>
+    </row>
+    <row r="374" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G374"/>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G375"/>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G376"/>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G377"/>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G378"/>
+    </row>
+    <row r="379" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G379"/>
+    </row>
+    <row r="380" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G380"/>
+    </row>
+    <row r="381" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G381"/>
+    </row>
+    <row r="382" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G382"/>
+    </row>
+    <row r="383" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G383"/>
+    </row>
+    <row r="384" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G384"/>
+    </row>
+    <row r="385" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G385"/>
+    </row>
+    <row r="386" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G386"/>
+    </row>
+    <row r="387" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G387"/>
+    </row>
+    <row r="388" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G388"/>
+    </row>
+    <row r="389" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G389"/>
+    </row>
+    <row r="390" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G390"/>
+    </row>
+    <row r="391" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G391"/>
+    </row>
+    <row r="392" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G392"/>
+    </row>
+    <row r="393" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G393"/>
+    </row>
+    <row r="394" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G394"/>
+    </row>
+    <row r="395" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G395"/>
+    </row>
+    <row r="396" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G396"/>
+    </row>
+    <row r="397" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G397"/>
+    </row>
+    <row r="398" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G398"/>
+    </row>
+    <row r="399" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G399"/>
+    </row>
+    <row r="400" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G400"/>
+    </row>
+    <row r="401" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G401"/>
+    </row>
+    <row r="402" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G402"/>
+    </row>
+    <row r="403" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G403"/>
+    </row>
+    <row r="404" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G404"/>
+    </row>
+    <row r="405" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G405"/>
+    </row>
+    <row r="406" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G406"/>
+    </row>
+    <row r="407" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G407"/>
+    </row>
+    <row r="408" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G408"/>
+    </row>
+    <row r="409" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G409"/>
+    </row>
+    <row r="410" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G410"/>
+    </row>
+    <row r="411" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G411"/>
+    </row>
+    <row r="412" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G412"/>
+    </row>
+    <row r="413" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G413"/>
+    </row>
+    <row r="414" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G414"/>
+    </row>
+    <row r="415" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G415"/>
+    </row>
+    <row r="416" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G416"/>
+    </row>
+    <row r="417" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G417"/>
+    </row>
+    <row r="418" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G418"/>
+    </row>
+    <row r="419" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G419"/>
+    </row>
+    <row r="420" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G420"/>
+    </row>
+    <row r="421" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G421"/>
+    </row>
+    <row r="422" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G422"/>
+    </row>
+    <row r="423" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G423"/>
+    </row>
+    <row r="424" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G424"/>
+    </row>
+    <row r="425" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G425"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H209" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}"/>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H72 G426:H1048576 H73:H425">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$G1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D210" r:id="rId1" xr:uid="{D61B0AAD-4A00-4BCF-9D2F-C5C3D5B77721}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C75BDC-AAC3-4C40-A566-3C20F86A6145}">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>99</v>
+        <v>518</v>
+      </c>
+      <c r="B1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>580829650</v>
+      </c>
+      <c r="B2">
+        <v>586101719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>580831228</v>
+      </c>
+      <c r="B3">
+        <v>534224039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>580828310</v>
+      </c>
+      <c r="B4">
+        <v>586494559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>598334403</v>
+      </c>
+      <c r="B5">
+        <v>580822286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>598321547</v>
+      </c>
+      <c r="B6">
+        <v>586099481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>598341216</v>
+      </c>
+      <c r="B7">
+        <v>580817394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>598332148</v>
+      </c>
+      <c r="B8">
+        <v>542047913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>598331820</v>
+      </c>
+      <c r="B9">
+        <v>586492243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>598341469</v>
+      </c>
+      <c r="B10">
+        <v>587208813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>586092004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>586089848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>586096805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>586499813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>586493006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>541706213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>580824061</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>587206096</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>586101966</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>586482125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>587206785</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>586498318</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>586495340</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1DC0D-F7BA-4434-BBCC-4FC927866248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C850E75-343C-4A6E-85F6-58F00BB807A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="427">
   <si>
     <t>Фейкер</t>
   </si>
@@ -379,1396 +379,970 @@
     <t>https://www.ozon.ru/seller/uyutnyy-dom-271916/</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-524317597</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6273335150.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-524313532</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6329636863.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-561341920</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6301093816.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-477228981</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6243666137.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-549978552</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6302714222.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-561354611</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6301106087.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-plyazh-586525214</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6323791577.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-495309064</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6254856658.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-524322247</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6273338457.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494776224</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6254388662.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514723015</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6267665347.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494804604</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6254397879.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580709818</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6318185442.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494781008</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6254392535.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-277388146</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6266984801.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-530186393</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6264539811.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-277416601</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6266964482.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6273318524.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-ptitsa-v-polete-592268629</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6327547464.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-549913068</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6302716130.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shapka-disha-494855663</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6264539810.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-zolotye-100-dollarov-586528705</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6329519387.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-plyazh-586524133</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6323789883.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-550015821</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6302713747.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-new-york-yankees-580124107</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6316590018.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494792612</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-0/6254378340.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-560738694</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-d/6284113417.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494760622</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6260758414.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580750002</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6318202715.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-277417045</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6266961341.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-521417987</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-5/6271707629.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-517029660</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6275219542.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-new-york-yankees-587202872</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6324256535.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-multfilmy-587544160</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6329514574.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-novinka-277391870</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6329655626.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-561328129</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6301056980.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-308643490</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-d/6212295037.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shapka-disha-494858817</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6264539663.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-497632434</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6264538418.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592278454</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6327551319.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-528249985</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6275304016.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514707235</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-d/6267657025.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-494806140</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6254403723.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-421883319</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6202076556.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-421874412</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6199756898.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-421880975</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6202075867.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-517092898</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6275219467.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-517105168</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6275219061.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-multfilmy-587541515</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6329516554.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580713901</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6318187274.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-516970598</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6275219854.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586085906</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6329607729.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6127462586.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-sport-580061434</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6316587392.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-528139915</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6284112623.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-new-york-yankees-587287521</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6324265365.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-280710334</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6266979415.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-308633355</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6218637910.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-594883993</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6329685478.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514700653</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6267654693.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580718801</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-1/6318188773.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516882596</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6275165143.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-549982140</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6302714012.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-513174988</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6084370254.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580709633</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6318184325.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-akula-592255583</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6327541738.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-592280019</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6327553134.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-495302307</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6272028603.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-280706721</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6275217945.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580162660</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6316599897.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-308642656</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6218638394.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494880994</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6264539510.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-497634587</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6264537945.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-549912483</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-0/6302716224.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-530181377</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shapka-disha-327603259</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6243647787.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580167788</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6316603145.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-plyazh-594872790</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-5/6329683685.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shapka-disha-327551261</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6214864879.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6332695932.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-277389014</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-u/6077747070.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-586053808</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6322234401.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514702797</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6267652799.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-277386115</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6266992936.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586080078</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6329613872.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-494641091</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6254276445.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-586087753</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6322235386.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-485991970</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6253903452.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shapka-s-podogrevom-disha-375028277</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6226683261.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-586384874</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6322239136.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580740126</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6318200658.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-495276369</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6254822451.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-akula-592267642</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6327546719.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516937200</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-1/6275220037.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494753841</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6254343091.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516261484</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6275223840.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516879307</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6275222051.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-549914420</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6302715484.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-571423726</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6256958283.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-ptitsa-v-polete-592274284</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6327548897.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592274238</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6327547933.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-485983318</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6264542196.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514737483</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6267675724.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514676317</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6267648354.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-sport-586061568</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6322238356.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shlyapa-disha-plyazh-594933664</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6329692529.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516825675</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6275222223.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-588985947</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6264538898.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494756846</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6264541518.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-495281530</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6264538535.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6310121586.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516815527</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6275222433.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-495252398</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-0/6254793168.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-341666322</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6221034412.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-280710276</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6269101472.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-495261170</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6254799218.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-los-angeles-dodgers-580157826</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6316596985.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516814005</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6275222498.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516252965</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6275223650.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shapka-disha-419942477</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6226400166.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/solomennaya-shlyapa-disha-562625018</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6302925367.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-296431527</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6081574011.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-plyazh-277421408</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6329672992.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586090626</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6329600121.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494881984</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6264539117.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592422927</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6327551116.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516247357</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6275230027.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-495301419</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6254831062.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-309503097</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6090874505.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516248458</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6275229449.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-549779101</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6302716311.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-485988598</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6253905644.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516257202</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6275223359.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-pitbul-594941302</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6329679074.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494747598</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-1/6254354869.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-549778026</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6302716426.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516936949</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6275220212.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516247192</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6275229895.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516928722</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6275220502.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516288254</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6275222774.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-new-york-yankees-596763459</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6331980138.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-plyazh-594873138</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6329681338.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514705330</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6267656046.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6278057380.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6278057963.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494886532</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6264539009.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516287871</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-1/6275223061.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-scorpio-skorpion-592278972</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6327551710.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-296699223</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6081573190.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516289767</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6275223261.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-akula-592266762</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6327545794.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-516927453</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6275220997.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-296197260</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6081177708.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-574356964</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6256960178.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-494890272</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6264538743.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-siyayushchie-strazy-586073724</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6329617230.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-514742600</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6267678814.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-299791251</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6084047464.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/shlyapa-disha-337584192</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6129044487.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-596934402</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-5/6332746277.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-novinka-597277029</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6332745976.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6273330413.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6332731353.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-novinka-597274890</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6332746120.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-596937218</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6332746666.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-596924874</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6332746843.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586491214</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6323768295.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-295060790</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/panama-disha-304071809</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-486006685</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6248209203.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580727377</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6318194863.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-disha-novinka-580159615</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-u/6316597890.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-586494559</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6323769468.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-521418496</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6271708011.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-514757594</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6267682399.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-534224039</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6291050023.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-volk-580829650</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-580822286</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6302715298.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-580817394</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6302715369.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-587208813</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-5/6322249109.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-586089848</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6322249555.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-541706213</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6284204636.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-580824061</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6310110947.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-volk-580831228</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-tigr-580828310</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598334403</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6332721848.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598321547</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6332712315.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598341216</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6332722868.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598332148</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6332717746.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598331820</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6332720427.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598341469</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598327663</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6332716375.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-580819360</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6302715233.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598314628</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6332708614.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598325075</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-u/6332713506.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-528137995</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6302719260.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6080086775.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-akula-580836027</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-loshadi-580835186</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-multfilmy-598339010</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-5/6332729825.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-disha-tigr-580830305</t>
-  </si>
-  <si>
     <t>Картинка</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-596241916</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6331821961.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596073491</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6330305012.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596044454</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6330266632.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596053534</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6330277041.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596017377</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-0/6330247152.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595980780</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6330225577.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596228408</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6330267506.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596049324</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6330272619.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-594650741</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6329598422.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595889192</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6330196368.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595907786</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6330217594.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595904320</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6330212670.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595953250</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6330222579.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596232920</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6331823193.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596230770</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6331820576.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596073097</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6330304418.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596040843</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6330265250.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596024423</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6330255424.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595985045</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6330226749.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596232474</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6331822527.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596229896</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6331819844.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596051674</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-9/6330275997.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596228491</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6330264521.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596228278</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6330273948.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596070260</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6330303826.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596068935</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6330303221.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596066892</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6330302751.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596065526</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6330300724.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596065005</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6330298160.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596064308</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6330294752.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596059480</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6330231179.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596048413</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6330270627.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596043848</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-d/6330266137.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596033981</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6330263692.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596006020</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6330233806.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-596001351</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6330230500.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595994626</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-f/6330228807.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595990495</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6330227863.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-595970654</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6330224168.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/seller/beysbolka-466162/</t>
   </si>
   <si>
     <t>Бейсболка</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361748</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6280235055.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552607856</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6292309750.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232508</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6288868870.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539052157</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/wc500/6283220030.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361764</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/wc500/6280235376.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552608384</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/wc500/6292310071.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-538923896</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/wc500/6283216280.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-538914170</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/wc500/6283208490.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563396</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6324937587.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-593107836</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/wc500/6329259840.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563784</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/wc500/6324935073.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-538920218</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/wc500/6283212808.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539390125</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/wc500/6283470016.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551929736</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/wc500/6292101603.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539388266</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/wc500/6283468658.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554042122</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/wc500/6293105156.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-538955815</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/wc500/6283219295.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539394701</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/wc500/6283472226.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-593162092</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6329266263.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552609554</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/wc500/6292310673.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-528087039</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/wc500/6274858845.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552618223</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/wc500/6292312165.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551996568</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6292145626.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563412</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/wc500/6324937355.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-538926077</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/wc500/6283215467.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552608737</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/wc500/6292310353.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539382682</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/wc500/6283468836.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539384940</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/wc500/6283467491.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-538949708</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/wc500/6283228380.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552006704</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/wc500/6292148180.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563386</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/wc500/6324938363.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539386527</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/wc500/6283467307.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-amster-a-536361749</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/wc500/6280234897.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563383</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/wc500/6324937884.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539372946</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/wc500/6283466915.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-570234100</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6305284647.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563382</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/wc500/6324937972.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551923693</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/wc500/6292096903.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232520</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/wc500/6288868982.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232507</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/wc500/6288868598.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552619229</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/wc500/6292312676.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563782</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/wc500/6324934103.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539384947</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/wc500/6283469414.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563398</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/wc500/6324935899.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361766</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/wc500/6280235120.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563387</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/wc500/6324957441.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591564776</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/wc500/6324931712.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-528087041</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6274858995.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539368410</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/wc500/6283466392.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539394681</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/wc500/6283473762.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563379</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/wc500/6324937545.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-539068791</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/wc500/6283209883.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-538919575</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/wc500/6283212486.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552608114</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/wc500/6292309921.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539410646</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6283467711.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-593117026</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/wc500/6329260524.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361755</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/wc500/6280235188.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-528087044</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/wc500/6274859841.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-538906340</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/wc500/6283202849.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232518</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/wc500/6288867945.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-528087036</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/wc500/6274859732.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554051304</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/wc500/6293127234.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361740</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/wc500/6280234596.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232516</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/wc500/6288869658.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-593110734</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/wc500/6329260391.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-557016758</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/wc500/6296339373.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033702</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/wc500/6291357855.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539396497</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/wc500/6283471865.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563378</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/wc500/6324946337.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552446237</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/wc500/6292245912.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033684</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/wc500/6291358043.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552618917</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6292312522.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-538928399</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/wc500/6283210099.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539395888</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/wc500/6283474045.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552446814</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6292246498.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539390249</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/wc500/6283471528.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552012820</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/wc500/6292148913.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-528087048</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/wc500/6274859909.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563374</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/wc500/6324945807.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539391815</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/wc500/6283471416.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232523</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/wc500/6288868397.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-594099047</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/wc500/6329272691.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361743</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6280235278.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232500</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/wc500/6288869104.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-593162041</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/wc500/6329265976.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552619754</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/wc500/6292312928.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552606761</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/wc500/6292309381.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-amster-a-557016754</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/wc500/6296339335.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-528087046</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/wc500/6274857939.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232513</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/wc500/6288869466.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-amster-a-528087040</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/wc500/6274859257.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033699</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/wc500/6291357347.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-538940354</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/wc500/6283221812.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551934256</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/wc500/6292108371.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033681</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/wc500/6291358800.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-593161207</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/wc500/6329265640.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-538916838</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/wc500/6283207515.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539374100</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/wc500/6283467050.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361742</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/wc500/6280233983.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361769</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/wc500/6280233436.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554067336</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/wc500/6293132708.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361768</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/wc500/6280234429.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361757</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6280233831.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232514</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551920927</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/wc500/6292090010.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-593162136</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/wc500/6329266419.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552607616</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/wc500/6292309593.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552016956</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/wc500/6292149801.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361737</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/wc500/6280234063.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552442754</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/wc500/6292241299.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-536361752</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6280234522.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552617738</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/wc500/6292312003.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-570234101</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/wc500/6305283766.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-570234104</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/wc500/6305284185.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554056746</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/wc500/6293119309.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232820</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/wc500/6288871965.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554063857</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/wc500/6293130025.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554066766</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/wc500/6293132373.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552619377</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/wc500/6292312757.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552609113</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6292310499.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-557016760</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/wc500/6296339624.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232858</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/wc500/6288872053.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-539383984</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6283469511.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033692</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/wc500/6291348904.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-570234204</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6305285079.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554065731</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/wc500/6293131783.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563391</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/wc500/6324946435.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554062903</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/wc500/6293127730.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033690</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/wc500/6291357242.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554064259</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/wc500/6293130446.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033700</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/wc500/6291430702.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-amster-a-557016746</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/wc500/6296338643.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232852</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6288872319.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-554050712</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/wc500/6293112318.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232856</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6288872391.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-570234092</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/wc500/6305283367.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552619539</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/wc500/6292312821.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232826</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/wc500/6288872181.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-552618457</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/wc500/6292312386.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232854</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/wc500/6288871485.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563375</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/wc500/6324955100.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-550232818</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/wc500/6288872473.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-570234144</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/wc500/6305086563.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-557016767</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/wc500/6296339176.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-557016748</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/wc500/6296338962.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-557016762</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/wc500/6296339470.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-557016764</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/wc500/6296339248.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-570234096</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/wc500/6302699611.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-570234086</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/wc500/6305086499.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-house-time-557016768</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/wc500/6296339063.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-551033694</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/wc500/6291348697.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/panama-570234140</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/wc500/6305086513.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606980489</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/wc500/6335219367.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606980484</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/wc500/6335219263.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606980482</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/wc500/6335218790.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606980479</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/wc500/6335219168.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606979616</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/wc500/6335159821.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606979613</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/wc500/6335159598.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606979612</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/wc500/6335158537.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-house-time-606979609</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/wc500/6335160281.jpg</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +1897,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3153,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>568</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2">
         <v>17628150</v>
@@ -3591,7 +3165,7 @@
         <v>80</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>567</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3685,11 +3259,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,372 +3289,1283 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>533</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>534</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>550</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>494</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>553</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>554</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>521</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>522</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>555</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>556</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>523</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>524</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>498</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>557</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>558</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>559</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>560</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>561</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>562</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>563</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>564</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>526</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>499</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>500</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>565</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>513</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>509</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>511</v>
+        <v>142</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>505</v>
+        <v>144</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>489</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>515</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>527</v>
+        <v>150</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>517</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>529</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>501</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>535</v>
+        <v>158</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>491</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>519</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>537</v>
+        <v>164</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>539</v>
+        <v>166</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>541</v>
+        <v>168</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>542</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>543</v>
+        <v>170</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>544</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>545</v>
+        <v>172</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>546</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>547</v>
+        <v>174</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>548</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>495</v>
+        <v>176</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>496</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>531</v>
+        <v>178</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>532</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>503</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>504</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>551</v>
+        <v>182</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>552</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>507</v>
+        <v>184</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>508</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4105,16 +4590,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C75BDC-AAC3-4C40-A566-3C20F86A6145}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B193" sqref="A2:B193"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,1543 +4607,1287 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>488</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>412</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>331</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>406</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>407</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>432</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>433</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>362</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="B66" t="s">
-        <v>373</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>376</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>401</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B73" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>379</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>390</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s">
-        <v>365</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
-        <v>411</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>434</v>
+        <v>296</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>436</v>
+        <v>306</v>
       </c>
       <c r="B101" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B109" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>327</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>333</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="B117" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B120" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="B121" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>347</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>349</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>211</v>
+        <v>353</v>
       </c>
       <c r="B125" t="s">
-        <v>212</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>357</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="B129" t="s">
-        <v>439</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="B130" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="B135" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="B136" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="B139" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B140" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="B141" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="B142" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="B143" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>311</v>
+        <v>393</v>
       </c>
       <c r="B145" t="s">
-        <v>312</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>397</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="B148" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B149" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="B150" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>285</v>
+        <v>411</v>
       </c>
       <c r="B154" t="s">
-        <v>286</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>140</v>
+        <v>413</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="B156" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="B157" t="s">
-        <v>236</v>
+        <v>418</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>182</v>
+        <v>419</v>
       </c>
       <c r="B158" t="s">
-        <v>183</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="B159" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>170</v>
-      </c>
-      <c r="B162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>213</v>
-      </c>
-      <c r="B163" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>440</v>
-      </c>
-      <c r="B165" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>442</v>
-      </c>
-      <c r="B166" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>105</v>
-      </c>
-      <c r="B167" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>444</v>
-      </c>
-      <c r="B168" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>446</v>
-      </c>
-      <c r="B169" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>447</v>
-      </c>
-      <c r="B170" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>449</v>
-      </c>
-      <c r="B171" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>451</v>
-      </c>
-      <c r="B172" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>453</v>
-      </c>
-      <c r="B173" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>455</v>
-      </c>
-      <c r="B174" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>457</v>
-      </c>
-      <c r="B175" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>459</v>
-      </c>
-      <c r="B176" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>460</v>
-      </c>
-      <c r="B177" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>461</v>
-      </c>
-      <c r="B178" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>463</v>
-      </c>
-      <c r="B179" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>465</v>
-      </c>
-      <c r="B180" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>467</v>
-      </c>
-      <c r="B181" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>469</v>
-      </c>
-      <c r="B182" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>471</v>
-      </c>
-      <c r="B183" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>472</v>
-      </c>
-      <c r="B184" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>474</v>
-      </c>
-      <c r="B185" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>476</v>
-      </c>
-      <c r="B186" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>478</v>
-      </c>
-      <c r="B187" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>480</v>
-      </c>
-      <c r="B188" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>430</v>
-      </c>
-      <c r="B189" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>483</v>
-      </c>
-      <c r="B190" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>484</v>
-      </c>
-      <c r="B191" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>485</v>
-      </c>
-      <c r="B192" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>487</v>
-      </c>
-      <c r="B193" t="s">
-        <v>260</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C850E75-343C-4A6E-85F6-58F00BB807A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF6BC5B-FC7E-4C0C-BB5B-8B7E7ADE4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1010">
   <si>
     <t>Фейкер</t>
   </si>
@@ -1343,6 +1343,1756 @@
   </si>
   <si>
     <t>https://cdn1.ozone.ru/s3/multimedia-t/wc500/6335160281.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/margo-371262/</t>
+  </si>
+  <si>
+    <t>MARGO</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/avrora-367648/</t>
+  </si>
+  <si>
+    <t>АВРОРА</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155748</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6331269288.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596561391</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6331861045.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595226054</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6329821566.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596156337</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6331269360.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155608</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6331269279.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155156</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6331269437.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591657</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6334496887.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478660</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6332289038.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478550</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6332289040.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473790</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6332289055.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473774</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6332289064.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473743</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6332289054.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470377</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6332289048.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470346</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6332289036.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470301</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6332289059.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470210</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6332289039.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599617982</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6334496864.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591300</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6334496868.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591277</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6334496863.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590665</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6303313843.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590060</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6334497123.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590043</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6303313832.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590020</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6334496871.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589729</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6334496888.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597566788</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6332325504.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597561345</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6332325497.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596551417</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6331861035.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596245341</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6331269386.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155291</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596246731</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155121</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6331269367.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155745</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6331269563.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470286</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6095900004.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470227</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6332289025.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596598559</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6331861036.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596561223</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6331861015.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596558554</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6331861027.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596554983</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6331861093.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596550467</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6331861013.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596549617</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6331861031.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596256627</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6331269366.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596249235</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596247935</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6331269348.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596549605</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6331861034.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597640888</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6332325503.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597561391</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6332325505.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597561368</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6332325495.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596561375</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6331861026.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596556526</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6331861008.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591689</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6334496869.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597635416</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6332325499.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596580080</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6331861029.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597640909</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6332325500.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597480671</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6332289017.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478677</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6332289060.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478636</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6332289050.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478622</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6332289047.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473673</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6332289069.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470332</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6332289030.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597469101</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6332289027.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599617382</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6334496879.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591712</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6334497137.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591699</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6334496878.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591671</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6334496872.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591333</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6334497127.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591322</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6334497121.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591309</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6334496875.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591062</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6334497135.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591053</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6334496866.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591048</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6095213556.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591041</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6334496865.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590662</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6334497128.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590036</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6334497120.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590027</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6334497119.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589964</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6095174776.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589746</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6334496890.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589741</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6334496891.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591663</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6334497126.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591662</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6334496876.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600678150</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6334914677.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600666662</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6334914689.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600659105</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6334914665.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600655676</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6334914725.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600656029</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6334914691.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596249023</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6299342080.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597640919</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6332325508.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600656003</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6334914724.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596561357</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6331861042.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596245352</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155289</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6331269380.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478539</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6332289056.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-575475150</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6313110517.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600656890</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6334914669.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600656038</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6334914739.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600673314</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6334914672.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600673308</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6334914726.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600655992</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6334914720.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599617931</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6334497122.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600679047</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6334914704.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600678161</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6334914694.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597490038</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6332289063.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616729</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6334497129.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599617965</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6334496877.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616541</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6334497132.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616364</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6334496880.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599599819</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6334496867.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599593331</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6334496882.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590052</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6334496873.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616710</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6334496889.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599617950</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6123243186.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596561424</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6331861048.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597561357</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6332325494.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597561017</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6332325501.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596585622</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6331861023.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596557411</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6331861006.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478524</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6332289019.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596552369</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6331861014.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595225474</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6329821567.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596580869</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6331861011.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596246154</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6331269419.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600656896</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6334914699.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-603418909</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6337283446.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-603420583</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6337283470.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-603419213</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6337283466.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595206112</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6313594577.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589861</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6334496883.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602227077</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6335296188.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595203694</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6313594686.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602228324</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6335296207.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478649</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6332289076.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602228476</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6335296217.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602228379</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6335296222.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602226981</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6335296244.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225784</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6335296227.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225783</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6335296242.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225507</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6335296180.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225470</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6335296216.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602228468</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6335296214.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602226082</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6335296228.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602226021</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6335296183.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225989</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6335296248.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225840</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6335296252.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225786</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6335296236.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225567</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6335296221.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225511</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6335296240.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225505</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6335296209.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225404</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6335296185.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225337</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6335296243.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595204578</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6313594651.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595203699</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6313594659.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600656334</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6334914687.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758766</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6341099218.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758755</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6341099233.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758450</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6341099214.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758444</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6341099215.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758438</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6341099210.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758433</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6341099234.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758424</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6341099222.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758418</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6341099236.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758277</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6341099205.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758273</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6341099211.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758194</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6341099212.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758044</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6341099232.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758034</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6341099207.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606757675</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6341099219.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606757671</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6341099225.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606757667</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6341099226.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606757658</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6341099206.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606757552</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6341099235.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606717782</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6341075313.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606717621</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6341075291.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606717612</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6341075302.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606717334</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6341075324.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606717118</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6341075323.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606716992</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6341075335.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606715732</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6341075293.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606715502</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6341075299.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606715499</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6341075297.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606715406</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6341075339.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606715403</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6341075300.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606715111</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6341075354.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606714901</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6341075283.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597635392</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6332325518.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597555689</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6332325507.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597489989</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6332289031.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478833</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6095174786.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597616999</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6332325493.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596246467</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596283647</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6331269395.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470315</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6094671658.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597468099</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6332289052.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595203930</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6313594672.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602228473</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6335296219.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-575475213</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6313110518.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591286</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6334497139.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599590655</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6334497133.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473723</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6332289037.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616550</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6334496881.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616546</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6128349455.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589866</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6095996821.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595203821</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6313594598.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478578</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6332289033.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155739</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602226983</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6335296208.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602226019</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6335296258.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225407</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6335296229.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470192</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6332289072.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607854368</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6341992242.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607854363</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6342059488.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607854357</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6341992268.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607854350</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6342059507.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607854345</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6342059470.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607854339</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6342059570.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607853951</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6342059512.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607853942</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6341992269.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607853934</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6342059471.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607853673</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6342059483.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607853666</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6341992258.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-607853657</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6342059475.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606759345</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6341099228.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758778</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6341099223.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758773</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6341099202.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-606758770</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6341099224.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596248288</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6331269322.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473657</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6332289051.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589966</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6334496870.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596156009</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595269940</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6329821570.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595225066</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6329821568.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596553917</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6331861020.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-575475388</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6313110516.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597561380</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6332325502.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597469097</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6332289029.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597616962</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6332325489.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596550519</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6331861021.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155614</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478667</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6094671662.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473707</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6332289035.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-575475536</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6313110515.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155742</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6331269318.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600656340</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6334914711.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600662413</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6334914684.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616722</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6168937837.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597640899</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6332325506.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597617014</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6332325498.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591680</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6334497138.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596553919</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6331861028.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596580915</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6331861032.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155623</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595224804</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6329821564.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596566848</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616716</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6334496886.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478514</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6095213482.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589734</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6334497125.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589962</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6334497130.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616960</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6334496884.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597473691</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-9/6332289045.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591030</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6334497124.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597470359</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6332289041.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-575475034</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6313110514.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597566772</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6332325496.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596249032</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6331575370.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595370741</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6329878184.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599616964</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6334496885.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597616984</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6332325491.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591358</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6334497136.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478978</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6332289078.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597561031</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6332325492.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596555773</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6331861009.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-575475201</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6313110520.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602229292</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6335296175.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596553325</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6331861022.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-603418907</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6337283452.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595370742</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6329878182.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596246146</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-575475404</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6313110519.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597490091</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6332289042.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155924</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6331269170.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478607</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6332289049.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596550494</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6331861017.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-595203945</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6313594596.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596248295</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596155618</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-603429467</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6337292761.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478592</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6332289044.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599589720</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6334497118.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596560668</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6331861012.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596561405</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6331861018.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597571006</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6332325509.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-596260015</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-572119452</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-5/6091481585.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-599591659</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6334497134.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-602225781</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6335296235.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597490074</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6332289046.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-597478563</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6332289026.jpg</t>
+  </si>
+  <si>
+    <t>Huangniuniu01</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/huangniuniu01-288686/</t>
+  </si>
+  <si>
+    <t>17783497
+17783500</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +3190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,6 +3241,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1894,10 +3650,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>94</v>
@@ -3077,7 +4834,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>96</v>
@@ -3094,7 +4851,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>98</v>
@@ -3111,7 +4868,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>104</v>
@@ -3128,7 +4885,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>57</v>
@@ -3145,7 +4902,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>57</v>
@@ -3162,10 +4919,61 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="2">
+        <v>17782714</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B58" s="2">
+        <v>17782956</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -3250,20 +5058,23 @@
     <hyperlink ref="E54" r:id="rId50" xr:uid="{546EA362-1CF0-450E-9C8F-FCDA9F907849}"/>
     <hyperlink ref="E55" r:id="rId51" xr:uid="{4D274C36-886B-4160-A73A-6B80ACCF7A3C}"/>
     <hyperlink ref="E56" r:id="rId52" xr:uid="{CD9E85C7-65E3-4102-8F77-E6B40A051ACD}"/>
+    <hyperlink ref="E57" r:id="rId53" xr:uid="{947A3EE4-9725-4535-80F9-576BD0540185}"/>
+    <hyperlink ref="E58" r:id="rId54" xr:uid="{9FCA9D3B-202E-47DB-8AF2-47FA73A85EDE}"/>
+    <hyperlink ref="E59" r:id="rId55" xr:uid="{431E43EB-B206-44F5-AC14-F48FACC2FA35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,1283 +5100,2408 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>729</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>731</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>733</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>739</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>743</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>118</v>
+        <v>751</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>753</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>121</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>755</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>763</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>126</v>
+        <v>863</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>865</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>867</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>131</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>869</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>735</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
+        <v>759</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>137</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>463</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>443</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>142</v>
+        <v>465</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>143</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>144</v>
+        <v>467</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>145</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>469</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>147</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>148</v>
+        <v>471</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>149</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>150</v>
+        <v>473</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>152</v>
+        <v>475</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>477</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>155</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>479</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>481</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>160</v>
+        <v>445</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>162</v>
+        <v>447</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>163</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>164</v>
+        <v>449</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>165</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>166</v>
+        <v>451</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>167</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>453</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>170</v>
+        <v>455</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>171</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>172</v>
+        <v>457</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>173</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>174</v>
+        <v>459</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>175</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>176</v>
+        <v>493</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>178</v>
+        <v>495</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>179</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>461</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>181</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>182</v>
+        <v>497</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>183</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
-        <v>184</v>
+        <v>433</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>185</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
-        <v>186</v>
+        <v>499</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>187</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>188</v>
+        <v>501</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>189</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>190</v>
+        <v>503</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>191</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>192</v>
+        <v>483</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>193</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>194</v>
+        <v>505</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>195</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>196</v>
+        <v>488</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>197</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
-        <v>198</v>
+        <v>485</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>200</v>
+        <v>437</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>202</v>
+        <v>431</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>203</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>204</v>
+        <v>491</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>206</v>
+        <v>439</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>207</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>208</v>
+        <v>487</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>209</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>210</v>
+        <v>441</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>211</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>213</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>214</v>
+        <v>435</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>215</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
-        <v>216</v>
+        <v>507</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>217</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
-        <v>218</v>
+        <v>509</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>219</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
-        <v>220</v>
+        <v>511</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>221</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
-        <v>222</v>
+        <v>512</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>223</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="2" t="s">
-        <v>224</v>
+        <v>514</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>225</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
-        <v>226</v>
+        <v>516</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>227</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
-        <v>228</v>
+        <v>518</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>229</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
-        <v>230</v>
+        <v>520</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>231</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>232</v>
+        <v>522</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>233</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>234</v>
+        <v>524</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>235</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>526</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>238</v>
+        <v>528</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>239</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>241</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
-        <v>242</v>
+        <v>532</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>243</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
-        <v>244</v>
+        <v>534</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>245</v>
+        <v>535</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
-        <v>246</v>
+        <v>536</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>247</v>
+        <v>537</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
-        <v>248</v>
+        <v>538</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>249</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>251</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
-        <v>252</v>
+        <v>542</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>253</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>254</v>
+        <v>544</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>255</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>256</v>
+        <v>546</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>257</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
-        <v>258</v>
+        <v>548</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>259</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>260</v>
+        <v>550</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>261</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
-        <v>262</v>
+        <v>552</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>263</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
-        <v>264</v>
+        <v>554</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>265</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
-        <v>266</v>
+        <v>556</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>267</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
-        <v>268</v>
+        <v>558</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>269</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>271</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>272</v>
+        <v>562</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>273</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>274</v>
+        <v>564</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>275</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="2" t="s">
-        <v>276</v>
+        <v>566</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>277</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
-        <v>278</v>
+        <v>568</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>279</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
-        <v>280</v>
+        <v>570</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>281</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
-        <v>282</v>
+        <v>572</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>283</v>
+        <v>573</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="2" t="s">
-        <v>284</v>
+        <v>574</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>285</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
-        <v>286</v>
+        <v>576</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>287</v>
+        <v>577</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>289</v>
+        <v>578</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="2" t="s">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>291</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
-        <v>292</v>
+        <v>582</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>293</v>
+        <v>583</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="2" t="s">
-        <v>294</v>
+        <v>584</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>295</v>
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="2" t="s">
-        <v>296</v>
+        <v>586</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>297</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>298</v>
+        <v>588</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>299</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>301</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
-        <v>302</v>
+        <v>592</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>303</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
-        <v>304</v>
+        <v>594</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>305</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
-        <v>306</v>
+        <v>596</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>307</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
-        <v>308</v>
+        <v>598</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>309</v>
+        <v>599</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>311</v>
+        <v>601</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
-        <v>312</v>
+        <v>602</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>313</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
-        <v>314</v>
+        <v>604</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>269</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="2" t="s">
-        <v>315</v>
+        <v>605</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>316</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
-        <v>317</v>
+        <v>607</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>318</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
-        <v>319</v>
+        <v>609</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>320</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="2" t="s">
-        <v>321</v>
+        <v>611</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>322</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="2" t="s">
-        <v>323</v>
+        <v>613</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>324</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="2" t="s">
-        <v>325</v>
+        <v>615</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>326</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
-        <v>327</v>
+        <v>617</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>328</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="2" t="s">
-        <v>329</v>
+        <v>619</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>330</v>
+        <v>620</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
-        <v>331</v>
+        <v>621</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>332</v>
+        <v>622</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
-        <v>333</v>
+        <v>623</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
-        <v>335</v>
+        <v>625</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>336</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>337</v>
+        <v>627</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>338</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>339</v>
+        <v>629</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>340</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
-        <v>341</v>
+        <v>631</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>342</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="2" t="s">
-        <v>343</v>
+        <v>633</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>344</v>
+        <v>634</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="2" t="s">
-        <v>345</v>
+        <v>635</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>346</v>
+        <v>636</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="2" t="s">
-        <v>347</v>
+        <v>637</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>348</v>
+        <v>638</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
-        <v>349</v>
+        <v>639</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>350</v>
+        <v>640</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
-        <v>351</v>
+        <v>641</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>352</v>
+        <v>642</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
-        <v>353</v>
+        <v>643</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>354</v>
+        <v>644</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="2" t="s">
-        <v>355</v>
+        <v>645</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>356</v>
+        <v>646</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="2" t="s">
-        <v>357</v>
+        <v>647</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="2" t="s">
-        <v>359</v>
+        <v>649</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>360</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="2" t="s">
-        <v>361</v>
+        <v>651</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>362</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="2" t="s">
-        <v>363</v>
+        <v>653</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>364</v>
+        <v>654</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="2" t="s">
-        <v>365</v>
+        <v>655</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>366</v>
+        <v>656</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="2" t="s">
-        <v>367</v>
+        <v>657</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>368</v>
+        <v>658</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="2" t="s">
-        <v>369</v>
+        <v>659</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>370</v>
+        <v>660</v>
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
-        <v>371</v>
+        <v>661</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>372</v>
+        <v>662</v>
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
-        <v>373</v>
+        <v>663</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>374</v>
+        <v>664</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
-        <v>375</v>
+        <v>665</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>376</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="2" t="s">
-        <v>377</v>
+        <v>667</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>378</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="2" t="s">
-        <v>379</v>
+        <v>669</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>380</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="2" t="s">
-        <v>381</v>
+        <v>671</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>382</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="2" t="s">
-        <v>383</v>
+        <v>673</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>384</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="2" t="s">
-        <v>385</v>
+        <v>675</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>386</v>
+        <v>676</v>
       </c>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="2" t="s">
-        <v>387</v>
+        <v>677</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>388</v>
+        <v>678</v>
       </c>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="2" t="s">
-        <v>389</v>
+        <v>679</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>390</v>
+        <v>680</v>
       </c>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="2" t="s">
-        <v>391</v>
+        <v>681</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>392</v>
+        <v>682</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="2" t="s">
-        <v>393</v>
+        <v>683</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>394</v>
+        <v>684</v>
       </c>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
-        <v>395</v>
+        <v>685</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>396</v>
+        <v>686</v>
       </c>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="2" t="s">
-        <v>397</v>
+        <v>687</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>398</v>
+        <v>688</v>
       </c>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="2" t="s">
-        <v>399</v>
+        <v>689</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>400</v>
+        <v>690</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="2" t="s">
-        <v>401</v>
+        <v>691</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>402</v>
+        <v>692</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="2" t="s">
-        <v>403</v>
+        <v>693</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>404</v>
+        <v>694</v>
       </c>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="2" t="s">
-        <v>405</v>
+        <v>695</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>406</v>
+        <v>696</v>
       </c>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="2" t="s">
-        <v>407</v>
+        <v>697</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>408</v>
+        <v>698</v>
       </c>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="2" t="s">
-        <v>409</v>
+        <v>699</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>410</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="2" t="s">
-        <v>411</v>
+        <v>701</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>412</v>
+        <v>702</v>
       </c>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="2" t="s">
-        <v>413</v>
+        <v>703</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>414</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="2" t="s">
-        <v>415</v>
+        <v>705</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>416</v>
+        <v>706</v>
       </c>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="2" t="s">
-        <v>417</v>
+        <v>707</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>418</v>
+        <v>708</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="2" t="s">
-        <v>419</v>
+        <v>709</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>420</v>
+        <v>710</v>
       </c>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="2" t="s">
-        <v>421</v>
+        <v>711</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>422</v>
+        <v>712</v>
       </c>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="2" t="s">
-        <v>423</v>
+        <v>713</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>424</v>
+        <v>714</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="2" t="s">
-        <v>425</v>
+        <v>715</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>426</v>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C170" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C172" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C173" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C174" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C175" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C176" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C178" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C184" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C185" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C186" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C188" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C189" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C190" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C191" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C192" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C193" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C196" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C197" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C198" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C199" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C200" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C201" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C202" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C203" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C204" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C205" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C207" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C208" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C216" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C218" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C221" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C222" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C223" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C224" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C225" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C226" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C227" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C229" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C230" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C231" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C232" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C233" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C234" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C235" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C236" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C237" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C238" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C239" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C240" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C241" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C242" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C243" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C244" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C245" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C246" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C247" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C248" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C249" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C250" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C251" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C252" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C253" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C254" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C255" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C256" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C257" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C258" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C259" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C260" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C261" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C262" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C263" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C264" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C265" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C266" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C267" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C268" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C269" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C270" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C271" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C272" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C273" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C274" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C275" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C276" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C277" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C278" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C279" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C280" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C281" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C282" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C283" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C284" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C285" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C286" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C287" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C288" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C289" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C290" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C291" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C292" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C293" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C294" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C295" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C296" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -4574,6 +7510,9 @@
       <sortCondition descending="1" ref="B1:B40"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D296">
+    <sortCondition ref="B2:B296"/>
+  </sortState>
   <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C1&lt;&gt;""</formula>
@@ -4592,7 +7531,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B161"/>
     </sheetView>
   </sheetViews>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9ED653-D259-41AB-8514-84572CF7515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D586250-A389-4721-86A2-39FF1FAAFE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
   <si>
     <t>Фейкер</t>
   </si>
@@ -1827,11 +1827,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,7 +2991,7 @@
         <v>17616688</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>13</v>
@@ -3008,7 +3008,7 @@
         <v>17616758</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>13</v>
@@ -3025,7 +3025,7 @@
         <v>17616832</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -3042,7 +3042,7 @@
         <v>17618913</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -3059,7 +3059,7 @@
         <v>17619616</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -3076,7 +3076,7 @@
         <v>17619641</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -3093,7 +3093,7 @@
         <v>17628150</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -3110,10 +3110,10 @@
         <v>17782714</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>107</v>
@@ -3127,10 +3127,10 @@
         <v>17782956</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>109</v>
@@ -3144,13 +3144,64 @@
         <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2">
+        <v>17813456</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2">
+        <v>17813535</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="2">
+        <v>17813484</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3238,9 +3289,10 @@
     <hyperlink ref="E57" r:id="rId53" xr:uid="{947A3EE4-9725-4535-80F9-576BD0540185}"/>
     <hyperlink ref="E58" r:id="rId54" xr:uid="{9FCA9D3B-202E-47DB-8AF2-47FA73A85EDE}"/>
     <hyperlink ref="E59" r:id="rId55" xr:uid="{431E43EB-B206-44F5-AC14-F48FACC2FA35}"/>
+    <hyperlink ref="E60" r:id="rId56" xr:uid="{C0B1282D-DA0B-4D3F-957D-69D065A2040E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -3461,7 +3513,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3488,7 +3540,7 @@
         <v>139</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(A2,C:C,1,0)</f>
+        <f t="shared" ref="B2:B15" si="0">VLOOKUP(A2,C:C,1,0)</f>
         <v>https://www.ozon.ru/product/beysbolka-588649509</v>
       </c>
       <c r="C2" t="s">
@@ -3500,7 +3552,7 @@
         <v>135</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-588663745</v>
       </c>
       <c r="C3" t="s">
@@ -3512,7 +3564,7 @@
         <v>118</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596044503</v>
       </c>
       <c r="C4" t="s">
@@ -3524,7 +3576,7 @@
         <v>141</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(A5,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596045798</v>
       </c>
       <c r="C5" t="s">
@@ -3536,7 +3588,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(A6,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596048358</v>
       </c>
       <c r="C6" t="s">
@@ -3548,7 +3600,7 @@
         <v>137</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(A7,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596049413</v>
       </c>
       <c r="C7" t="s">
@@ -3560,7 +3612,7 @@
         <v>114</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(A8,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596050575</v>
       </c>
       <c r="C8" t="s">
@@ -3572,7 +3624,7 @@
         <v>131</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(A9,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596050723</v>
       </c>
       <c r="C9" t="s">
@@ -3584,7 +3636,7 @@
         <v>133</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(A10,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596535943</v>
       </c>
       <c r="C10" t="s">
@@ -3596,7 +3648,7 @@
         <v>116</v>
       </c>
       <c r="B11" t="e">
-        <f>VLOOKUP(A11,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" t="s">
@@ -3608,7 +3660,7 @@
         <v>122</v>
       </c>
       <c r="B12" t="e">
-        <f>VLOOKUP(A12,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" t="s">
@@ -3620,7 +3672,7 @@
         <v>124</v>
       </c>
       <c r="B13" t="e">
-        <f>VLOOKUP(A13,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" t="s">
@@ -3632,7 +3684,7 @@
         <v>127</v>
       </c>
       <c r="B14" t="e">
-        <f>VLOOKUP(A14,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" t="s">
@@ -3644,7 +3696,7 @@
         <v>129</v>
       </c>
       <c r="B15" t="e">
-        <f>VLOOKUP(A15,C:C,1,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" t="s">

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D586250-A389-4721-86A2-39FF1FAAFE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9742CF9-7B8C-4890-B42F-68A3FCDD901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Проверка!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="185">
   <si>
     <t>Фейкер</t>
   </si>
@@ -411,90 +411,48 @@
     <t>https://www.ozon.ru/product/beysbolka-house-time-596050575</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6330275172.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-601133615</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6335219168.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-596044503</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6330266654.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-596048358</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6330270634.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-amster-a-596035005</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6330263959.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-601137169</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6335219263.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-596044197</t>
   </si>
   <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-601133793</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6335219367.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-601132263</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6335218790.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-596050723</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6330275433.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-596535943</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6330270102.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-588663745</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6324937587.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-596049413</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6330272503.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-588649509</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6324937545.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-house-time-596045798</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6330266780.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-588647179</t>
   </si>
   <si>
@@ -565,6 +523,102 @@
   </si>
   <si>
     <t>Отправлено</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/orehmarket-136055/</t>
+  </si>
+  <si>
+    <t>ОрехМаркет</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/luxury-baseball-caps-510450</t>
+  </si>
+  <si>
+    <t>Luxury baseball caps</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/loginov-truck-184493/</t>
+  </si>
+  <si>
+    <t>Loginov-truck</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/ryukzak-meijieluo-297282977</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-x/6064347405.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-sb-animal-594686045</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-d/6329620693.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-sb-animal-588996663</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-7/6325137103.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-sb-zhivotnye-584439664</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-q/6321159734.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-sb-animal-594667372</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-b/6329610215.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-sb-animal-588336999</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-s/6324732880.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/ryukzak-meiji-302472783</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-7/6064730563.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-sb-zhivotnye-584384525</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-0/6321161652.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/ryukzak-323091741</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-i/6104440230.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/ryukzak-323085924</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-h/6104428097.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/ryukzak-meiji-302473120</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-t/6065107181.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/ryukzak-meiji-302473579</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-9/6065027529.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/ryukzak-meiji-302478728</t>
+  </si>
+  <si>
+    <t>https://cdn0.ozone.ru/s3/multimedia-4/6065103844.jpg</t>
   </si>
 </sst>
 </file>
@@ -831,20 +885,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23005</xdr:rowOff>
+      <xdr:rowOff>22669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2243945</xdr:rowOff>
+      <xdr:rowOff>2510981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="223" name="Рисунок 222">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A39CEF0-FDF2-4584-BC34-9BE3B303E6A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F923140C-64FA-418E-AEA4-912D0ECAF3B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +920,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="213505"/>
-          <a:ext cx="1778000" cy="2220940"/>
+          <a:off x="149225" y="213169"/>
+          <a:ext cx="1778000" cy="2488312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,20 +935,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>25301</xdr:rowOff>
+      <xdr:rowOff>24342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1612999</xdr:rowOff>
+      <xdr:rowOff>2395009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="225" name="Рисунок 224">
+        <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235F0FD5-176E-4117-8C16-91FE889C46A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167221D1-DFC2-4B53-8E6B-791688141968}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,8 +970,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="2482751"/>
-          <a:ext cx="1778000" cy="1587698"/>
+          <a:off x="149225" y="2748492"/>
+          <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,20 +985,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>25379</xdr:rowOff>
+      <xdr:rowOff>24342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1908195</xdr:rowOff>
+      <xdr:rowOff>2395009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="227" name="Рисунок 226">
+        <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06396EB6-3A9D-45EC-A347-F6D267254A87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627DC14D-4E9A-4F15-B43C-EBA026607784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,8 +1020,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="4121129"/>
-          <a:ext cx="1778000" cy="1882816"/>
+          <a:off x="149225" y="5167842"/>
+          <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -981,20 +1035,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>21713</xdr:rowOff>
+      <xdr:rowOff>24341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1816611</xdr:rowOff>
+      <xdr:rowOff>2395008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="229" name="Рисунок 228">
+        <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E0C49C-EBA2-4961-BE1C-F88B36FC317C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599D845F-B8F1-4258-9252-721EA4DB2991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +1070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="6051038"/>
-          <a:ext cx="1778000" cy="1794898"/>
+          <a:off x="149225" y="7587191"/>
+          <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,20 +1085,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24806</xdr:rowOff>
+      <xdr:rowOff>24341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1880194</xdr:rowOff>
+      <xdr:rowOff>2395008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="231" name="Рисунок 230">
+        <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980D6028-2CE4-460F-8280-46147CDA41F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059893B1-AE76-436C-ABBD-2C2D81637F36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1066,8 +1120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="7892456"/>
-          <a:ext cx="1778000" cy="1855388"/>
+          <a:off x="149225" y="10006541"/>
+          <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,20 +1135,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25567</xdr:rowOff>
+      <xdr:rowOff>21937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2355683</xdr:rowOff>
+      <xdr:rowOff>2416464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="233" name="Рисунок 232">
+        <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07065A25-C902-4CD9-A1B9-CDEEC9D07685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E061121E-1E74-499C-94EC-050003C9DA6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,8 +1170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="9798217"/>
-          <a:ext cx="1778000" cy="2330116"/>
+          <a:off x="149225" y="12423487"/>
+          <a:ext cx="1778000" cy="2394527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1131,20 +1185,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>23339</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2281711</xdr:rowOff>
+      <xdr:rowOff>1803400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="235" name="Рисунок 234">
+        <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450C2244-78DA-46C9-9DF3-737F06E509A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696B4ACC-E9AB-4F8B-9CE1-A4C5E0BCFD57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1220,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="12177239"/>
-          <a:ext cx="1778000" cy="2258372"/>
+          <a:off x="149225" y="14865350"/>
+          <a:ext cx="1778000" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,20 +1235,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>23067</xdr:rowOff>
+      <xdr:rowOff>24341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2301032</xdr:rowOff>
+      <xdr:rowOff>2395008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="237" name="Рисунок 236">
+        <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDADCEFB-A02D-4100-ACA7-5575BB71E3AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B13D41B-C35F-4E0D-8FB1-2CC8DCE42449}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,8 +1270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="14482017"/>
-          <a:ext cx="1778000" cy="2277965"/>
+          <a:off x="149225" y="16693091"/>
+          <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1231,20 +1285,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>25229</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1794045</xdr:rowOff>
+      <xdr:rowOff>1803400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="239" name="Рисунок 238">
+        <xdr:cNvPr id="19" name="Рисунок 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14DBD02-F0D2-4D13-B89B-EE877191643B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FF95CF-9A0B-4774-854F-8397799C5CEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,8 +1320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="16808279"/>
-          <a:ext cx="1778000" cy="1768816"/>
+          <a:off x="149225" y="19113500"/>
+          <a:ext cx="1778000" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,20 +1335,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>22620</xdr:rowOff>
+      <xdr:rowOff>21896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1710929</xdr:rowOff>
+      <xdr:rowOff>1664028</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="241" name="Рисунок 240">
+        <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3747CC20-293A-43B1-A446-2C376F913D38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3CFF53-1FBF-401D-B0A8-8C5879ADAF90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,8 +1370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="18624945"/>
-          <a:ext cx="1778000" cy="1688309"/>
+          <a:off x="149225" y="20938796"/>
+          <a:ext cx="1778000" cy="1642132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,20 +1385,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>23568</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1948107</xdr:rowOff>
+      <xdr:rowOff>1803400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="243" name="Рисунок 242">
+        <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BBB341-758D-46F2-8E27-66575484CF93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7DD1DA-CA9B-4806-98D8-1C3A8915DC7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,8 +1420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="20359443"/>
-          <a:ext cx="1778000" cy="1924539"/>
+          <a:off x="149225" y="22628225"/>
+          <a:ext cx="1778000" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,20 +1435,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25509</xdr:rowOff>
+      <xdr:rowOff>24563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1879492</xdr:rowOff>
+      <xdr:rowOff>1775661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="245" name="Рисунок 244">
+        <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B3FB50-3D1C-47A0-A6B0-B377983C0CBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7BBF04-F7DA-40B8-883B-DDF1436C2556}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,8 +1470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="22333059"/>
-          <a:ext cx="1778000" cy="1853983"/>
+          <a:off x="149225" y="24456188"/>
+          <a:ext cx="1778000" cy="1751098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,20 +1485,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
+      <xdr:rowOff>22786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1939018</xdr:rowOff>
+      <xdr:rowOff>1625040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="247" name="Рисунок 246">
+        <xdr:cNvPr id="27" name="Рисунок 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FD1471-3CCD-4275-97CF-04D492B9A12E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B187E56-F0CA-40DC-8310-1577B9566FBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,58 +1520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="24235682"/>
-          <a:ext cx="1778000" cy="1915886"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1720248</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="249" name="Рисунок 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C9D225-00E1-4512-BD71-9F69899992A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="26197527"/>
-          <a:ext cx="1778000" cy="1697421"/>
+          <a:off x="149225" y="26254636"/>
+          <a:ext cx="1778000" cy="1602254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,11 +1831,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,6 +3206,74 @@
       </c>
       <c r="E62" s="3" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="2">
+        <v>18047347</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="2">
+        <v>18046451</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="2">
+        <v>18047516</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="2">
+        <v>18047833</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3299,11 +3371,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,167 +3400,156 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="178.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="199.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="145.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="150.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="181.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="183.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="136.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="155.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="154.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="137.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="18"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D40" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
-      <sortCondition descending="1" ref="B1:B40"/>
+  <autoFilter ref="A1:D97" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
+      <sortCondition descending="1" ref="C1:C97"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D296">
@@ -3529,82 +3590,82 @@
         <v>2</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B15" si="0">VLOOKUP(A2,C:C,1,0)</f>
         <v>https://www.ozon.ru/product/beysbolka-588649509</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-588663745</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596044503</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596045798</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596048358</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596049413</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,136 +3677,136 @@
         <v>https://www.ozon.ru/product/beysbolka-house-time-596050575</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596050723</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/product/beysbolka-house-time-596535943</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B13" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B14" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B15" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
@@ -3755,42 +3816,42 @@
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9742CF9-7B8C-4890-B42F-68A3FCDD901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59909FE-274F-4073-BE09-8EEC74C3BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Проверка!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="185">
   <si>
     <t>Фейкер</t>
   </si>
@@ -543,12 +543,6 @@
     <t>Loginov-truck</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/ryukzak-meijieluo-297282977</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-x/6064347405.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-sb-animal-594686045</t>
   </si>
   <si>
@@ -579,46 +573,52 @@
     <t>https://cdn0.ozone.ru/s3/multimedia-s/6324732880.jpg</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/ryukzak-meiji-302472783</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-7/6064730563.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-sb-zhivotnye-584384525</t>
   </si>
   <si>
     <t>https://cdn0.ozone.ru/s3/multimedia-0/6321161652.jpg</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/ryukzak-323091741</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-i/6104440230.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/ryukzak-323085924</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-h/6104428097.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/ryukzak-meiji-302473120</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-t/6065107181.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/ryukzak-meiji-302473579</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-9/6065027529.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/ryukzak-meiji-302478728</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-4/6065103844.jpg</t>
+    <t>Myshop</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/myshop-465873</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-623143176</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6355643786.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-623135236</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6355631998.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-tennisnaya-goorin-brothers-623150493</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6355637208.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-tennisnaya-goorin-brothers-623121484</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6355521670.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-539670213</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6283510640.jpg</t>
+  </si>
+  <si>
+    <t>Safro</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/safro-280653/</t>
   </si>
 </sst>
 </file>
@@ -885,20 +885,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>22669</xdr:rowOff>
+      <xdr:rowOff>24342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2510981</xdr:rowOff>
+      <xdr:rowOff>2395009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F923140C-64FA-418E-AEA4-912D0ECAF3B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEBFFE3-F359-4EEC-A1FE-BFE0E7ED12A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +920,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="213169"/>
-          <a:ext cx="1778000" cy="2488312"/>
+          <a:off x="149225" y="214842"/>
+          <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,10 +945,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
+        <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167221D1-DFC2-4B53-8E6B-791688141968}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1690788-ABAC-4E17-9DFD-40EAF4FAF51A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,7 +970,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="2748492"/>
+          <a:off x="149225" y="2634192"/>
           <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -995,10 +995,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
+        <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627DC14D-4E9A-4F15-B43C-EBA026607784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FB724D-071F-462B-9A0A-27D7510B2CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1020,7 +1020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="5167842"/>
+          <a:off x="149225" y="5053542"/>
           <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1045,10 +1045,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8">
+        <xdr:cNvPr id="16" name="Рисунок 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599D845F-B8F1-4258-9252-721EA4DB2991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8435192-4635-410A-922E-C326DE49F63B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="7587191"/>
+          <a:off x="149225" y="7472891"/>
           <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1085,20 +1085,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
+      <xdr:rowOff>21896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2395008</xdr:rowOff>
+      <xdr:rowOff>1664028</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10">
+        <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059893B1-AE76-436C-ABBD-2C2D81637F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E24764-31F2-4BD5-87D4-3CE16E1E7969}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,8 +1120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="10006541"/>
-          <a:ext cx="1778000" cy="2370667"/>
+          <a:off x="149225" y="12423446"/>
+          <a:ext cx="1778000" cy="1642132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1135,20 +1135,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21937</xdr:rowOff>
+      <xdr:rowOff>24563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2416464</xdr:rowOff>
+      <xdr:rowOff>1775661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12">
+        <xdr:cNvPr id="28" name="Рисунок 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E061121E-1E74-499C-94EC-050003C9DA6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262B3E7C-9F61-461D-9ECC-27A9AE7623CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,8 +1170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="12423487"/>
-          <a:ext cx="1778000" cy="2394527"/>
+          <a:off x="149225" y="14112038"/>
+          <a:ext cx="1778000" cy="1751098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1185,20 +1185,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>24341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1803400</xdr:rowOff>
+      <xdr:rowOff>2395008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14">
+        <xdr:cNvPr id="30" name="Рисунок 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696B4ACC-E9AB-4F8B-9CE1-A4C5E0BCFD57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA3CD0E-C381-4A5E-B600-ABB12846348C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,8 +1220,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="14865350"/>
-          <a:ext cx="1778000" cy="1778000"/>
+          <a:off x="149225" y="15912041"/>
+          <a:ext cx="1778000" cy="2370667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1235,20 +1235,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2395008</xdr:rowOff>
+      <xdr:rowOff>1803400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16">
+        <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B13D41B-C35F-4E0D-8FB1-2CC8DCE42449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0895E60B-9EE0-408B-8CB8-4DF4FBB8FEFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,8 +1270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="16693091"/>
-          <a:ext cx="1778000" cy="2370667"/>
+          <a:off x="149225" y="18332450"/>
+          <a:ext cx="1778000" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,20 +1285,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>22786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1803400</xdr:rowOff>
+      <xdr:rowOff>1625040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18">
+        <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FF95CF-9A0B-4774-854F-8397799C5CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83FAA02-A20B-43A6-8EB4-C2A1C83B0422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,8 +1320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="19113500"/>
-          <a:ext cx="1778000" cy="1778000"/>
+          <a:off x="149225" y="20158636"/>
+          <a:ext cx="1778000" cy="1602254"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,20 +1335,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1664028</xdr:rowOff>
+      <xdr:rowOff>1803400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Рисунок 20">
+        <xdr:cNvPr id="38" name="Рисунок 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3CFF53-1FBF-401D-B0A8-8C5879ADAF90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8411E974-10E6-4117-8E1A-F9CF62FFF098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,8 +1370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="20938796"/>
-          <a:ext cx="1778000" cy="1642132"/>
+          <a:off x="149225" y="24228425"/>
+          <a:ext cx="1778000" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1385,20 +1385,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>149225</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>22644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1803400</xdr:rowOff>
+      <xdr:rowOff>1444208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Рисунок 22">
+        <xdr:cNvPr id="50" name="Рисунок 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7DD1DA-CA9B-4806-98D8-1C3A8915DC7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFBAD68-BD52-4630-BCC2-A76A0D077E20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,108 +1420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="22628225"/>
-          <a:ext cx="1778000" cy="1778000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>24563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1775661</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Рисунок 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7BBF04-F7DA-40B8-883B-DDF1436C2556}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="24456188"/>
-          <a:ext cx="1778000" cy="1751098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1625040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Рисунок 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B187E56-F0CA-40DC-8310-1577B9566FBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="26254636"/>
-          <a:ext cx="1778000" cy="1602254"/>
+          <a:off x="149225" y="37579719"/>
+          <a:ext cx="1778000" cy="1421564"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,11 +1731,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,6 +3174,40 @@
       </c>
       <c r="E66" s="3" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="2">
+        <v>18091704</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="2">
+        <v>18091905</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3371,11 +3305,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:C14"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,15 +3334,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="199.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3416,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3444,40 +3378,40 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -3488,72 +3422,50 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="18"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
-      <sortCondition descending="1" ref="C1:C97"/>
+  <autoFilter ref="A1:D77" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
+      <sortCondition descending="1" ref="C1:C77"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D296">
-    <sortCondition ref="B2:B296"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D276">
+    <sortCondition ref="B2:B276"/>
   </sortState>
   <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="1" priority="3">

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59909FE-274F-4073-BE09-8EEC74C3BE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D727CCA8-CEAE-4AC5-9311-1F4D21061797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Проверка!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="189">
   <si>
     <t>Фейкер</t>
   </si>
@@ -543,82 +543,94 @@
     <t>Loginov-truck</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-sb-animal-594686045</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-d/6329620693.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-sb-animal-588996663</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-7/6325137103.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-sb-zhivotnye-584439664</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-q/6321159734.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-sb-animal-594667372</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-b/6329610215.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-sb-animal-588336999</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-s/6324732880.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-sb-zhivotnye-584384525</t>
-  </si>
-  <si>
-    <t>https://cdn0.ozone.ru/s3/multimedia-0/6321161652.jpg</t>
-  </si>
-  <si>
     <t>Myshop</t>
   </si>
   <si>
     <t>https://www.ozon.ru/seller/myshop-465873</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-623143176</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6355643786.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-623135236</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6355631998.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-tennisnaya-goorin-brothers-623150493</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6355637208.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-tennisnaya-goorin-brothers-623121484</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6355521670.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-539670213</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6283510640.jpg</t>
-  </si>
-  <si>
     <t>Safro</t>
   </si>
   <si>
     <t>https://www.ozon.ru/seller/safro-280653/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625338475</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6356598830.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625330064</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6356586789.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625338891</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6356594943.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625383339</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6356603987.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625335012</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6356588390.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625329601</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6356584432.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625337603</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6356591186.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625315566</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6356573192.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625315768</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6356571103.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-625339329</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6356602275.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-600715311</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6334950225.jpg</t>
+  </si>
+  <si>
+    <t>ИП Трушникова</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/ip-trushnikova-357628/</t>
+  </si>
+  <si>
+    <t>RocknRolla</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/rocknrolla-139062/</t>
   </si>
 </sst>
 </file>
@@ -876,561 +888,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>24342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2395009</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEBFFE3-F359-4EEC-A1FE-BFE0E7ED12A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="214842"/>
-          <a:ext cx="1778000" cy="2370667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>24342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2395009</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1690788-ABAC-4E17-9DFD-40EAF4FAF51A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="2634192"/>
-          <a:ext cx="1778000" cy="2370667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>24342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2395009</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FB724D-071F-462B-9A0A-27D7510B2CFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="5053542"/>
-          <a:ext cx="1778000" cy="2370667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2395008</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8435192-4635-410A-922E-C326DE49F63B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="7472891"/>
-          <a:ext cx="1778000" cy="2370667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1664028</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Рисунок 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E24764-31F2-4BD5-87D4-3CE16E1E7969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="12423446"/>
-          <a:ext cx="1778000" cy="1642132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>24563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1775661</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Рисунок 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262B3E7C-9F61-461D-9ECC-27A9AE7623CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="14112038"/>
-          <a:ext cx="1778000" cy="1751098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2395008</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA3CD0E-C381-4A5E-B600-ABB12846348C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="15912041"/>
-          <a:ext cx="1778000" cy="2370667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1803400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Рисунок 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0895E60B-9EE0-408B-8CB8-4DF4FBB8FEFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="18332450"/>
-          <a:ext cx="1778000" cy="1778000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1625040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Рисунок 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D83FAA02-A20B-43A6-8EB4-C2A1C83B0422}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="20158636"/>
-          <a:ext cx="1778000" cy="1602254"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1803400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Рисунок 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8411E974-10E6-4117-8E1A-F9CF62FFF098}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="24228425"/>
-          <a:ext cx="1778000" cy="1778000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22644</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1444208</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Рисунок 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFBAD68-BD52-4630-BCC2-A76A0D077E20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="37579719"/>
-          <a:ext cx="1778000" cy="1421564"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1731,11 +1188,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,7 +2635,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B67" s="2">
         <v>18091704</v>
@@ -3190,12 +2647,12 @@
         <v>5</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B68" s="2">
         <v>18091905</v>
@@ -3207,7 +2664,41 @@
         <v>5</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="2">
+        <v>18115615</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="2">
+        <v>18116237</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3296,19 +2787,20 @@
     <hyperlink ref="E58" r:id="rId54" xr:uid="{9FCA9D3B-202E-47DB-8AF2-47FA73A85EDE}"/>
     <hyperlink ref="E59" r:id="rId55" xr:uid="{431E43EB-B206-44F5-AC14-F48FACC2FA35}"/>
     <hyperlink ref="E60" r:id="rId56" xr:uid="{C0B1282D-DA0B-4D3F-957D-69D065A2040E}"/>
+    <hyperlink ref="E69" r:id="rId57" xr:uid="{CF2A36CC-E195-4A22-B437-84BAE6F83E8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
@@ -3334,138 +2826,105 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="133.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="190.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="18"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D77" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
-      <sortCondition descending="1" ref="C1:C77"/>
+  <autoFilter ref="A1:D50" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+      <sortCondition descending="1" ref="C1:C50"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D276">
-    <sortCondition ref="B2:B276"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D249">
+    <sortCondition ref="B2:B249"/>
   </sortState>
   <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="1" priority="3">
@@ -3477,7 +2936,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D727CCA8-CEAE-4AC5-9311-1F4D21061797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E5CC91-7468-48C1-8F24-53137924321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Проверка!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
   <si>
     <t>Фейкер</t>
   </si>
@@ -631,6 +631,66 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/rocknrolla-139062/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626782822</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6358997361.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626758730</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6358997350.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626749921</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6358997376.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626749576</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6358997381.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626749564</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6358997354.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626749211</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6358997351.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626748988</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6358997357.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-626749739</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6358997359.jpg</t>
+  </si>
+  <si>
+    <t>RocketShop</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/sizshop-345512/</t>
+  </si>
+  <si>
+    <t>fashionstore</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/prekrasnyy-225555/</t>
   </si>
 </sst>
 </file>
@@ -728,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,9 +839,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,11 +1245,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2558,7 @@
       <c r="A59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2573,10 +2630,10 @@
         <v>18047347</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>104</v>
@@ -2590,10 +2647,10 @@
         <v>18046451</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>153</v>
@@ -2607,7 +2664,7 @@
         <v>18047516</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
@@ -2624,10 +2681,10 @@
         <v>18047833</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>157</v>
@@ -2641,10 +2698,10 @@
         <v>18091704</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>160</v>
@@ -2658,10 +2715,10 @@
         <v>18091905</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>162</v>
@@ -2675,10 +2732,10 @@
         <v>18115615</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>186</v>
@@ -2699,6 +2756,74 @@
       </c>
       <c r="E70" s="3" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="2">
+        <v>18158400</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="2">
+        <v>18158580</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" s="2">
+        <v>18158327</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="2">
+        <v>18159887</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2797,11 +2922,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C12"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,104 +2952,218 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="18"/>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D50" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
-      <sortCondition descending="1" ref="C1:C50"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D249">
-    <sortCondition ref="B2:B249"/>
+  <autoFilter ref="A1:D20" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D157">
+    <sortCondition ref="B2:B157"/>
   </sortState>
   <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="1" priority="3">

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E5CC91-7468-48C1-8F24-53137924321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48E3135-4D19-4560-A15F-94422FB00C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$142</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Проверка!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="219">
   <si>
     <t>Фейкер</t>
   </si>
@@ -555,72 +555,6 @@
     <t>https://www.ozon.ru/seller/safro-280653/</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-625338475</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6356598830.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625330064</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6356586789.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625338891</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6356594943.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625383339</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6356603987.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625335012</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6356588390.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625329601</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6356584432.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625337603</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6356591186.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625315566</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6356573192.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625315768</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6356571103.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-625339329</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6356602275.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-600715311</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6334950225.jpg</t>
-  </si>
-  <si>
     <t>ИП Трушникова</t>
   </si>
   <si>
@@ -633,54 +567,6 @@
     <t>https://www.ozon.ru/seller/rocknrolla-139062/</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-626782822</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6358997361.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-626758730</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6358997350.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-626749921</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6358997376.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-626749576</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6358997381.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-626749564</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6358997354.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-626749211</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6358997351.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-626748988</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6358997357.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-626749739</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6358997359.jpg</t>
-  </si>
-  <si>
     <t>RocketShop</t>
   </si>
   <si>
@@ -691,6 +577,150 @@
   </si>
   <si>
     <t>https://www.ozon.ru/seller/prekrasnyy-225555/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/best-fast-385370/</t>
+  </si>
+  <si>
+    <t>BestFast</t>
+  </si>
+  <si>
+    <t>Закупка</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/nxqylw-202834/?</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-474042153</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6241504441.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-473145089</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6241534207.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-580838140</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6241531787.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-580838251</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6241526452.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-580837338</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6241538124.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-580837281</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6241533103.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-580838180</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6241523735.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-adw-580837882</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6241526757.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-604016644</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6337971575.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603621126</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6337822548.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603593548</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6337806144.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603897407</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6337914966.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603652956</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6337841176.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603935961</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6337926604.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603630512</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6337829136.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603648359</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6337834387.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603728064</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6337891970.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603605114</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6337814243.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-uniseks-603686551</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6337859474.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563382</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6324937972.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563412</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6324937355.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-591563383</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6324937884.jpg</t>
   </si>
 </sst>
 </file>
@@ -742,7 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,18 +833,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -841,6 +859,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1245,11 +1293,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1310,7 @@
     <col min="6" max="6" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1285,14 +1333,14 @@
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="15" t="str" cm="1">
+      <c r="I1" s="11" t="str" cm="1">
         <f t="array" ref="I1:I15">_xlfn.UNIQUE(J:J)</f>
         <v>Артикулы</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="L1" t="s">
@@ -1300,60 +1348,62 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="20">
         <v>16266065</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9">
-        <v>44671</v>
-      </c>
-      <c r="H2" s="13" t="str">
+      <c r="F2" s="22">
+        <v>44740</v>
+      </c>
+      <c r="H2" s="9" t="str">
         <f>IF(I2&gt;0,$L$1&amp;I2,"")</f>
         <v>https://www.ozon.ru/context/detail/id/563515485</v>
       </c>
       <c r="I2">
         <v>563515485</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="12">
         <v>563515485</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="20">
         <v>15874239</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="H3" s="13" t="str">
+      <c r="F3" s="23">
+        <v>44740</v>
+      </c>
+      <c r="H3" s="9" t="str">
         <f t="shared" ref="H3:H31" si="0">IF(I3&gt;0,$L$1&amp;I3,"")</f>
         <v>https://www.ozon.ru/context/detail/id/560866181</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <v>560866181</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="12">
         <v>560866181</v>
       </c>
     </row>
@@ -1374,16 +1424,16 @@
         <v>18</v>
       </c>
       <c r="F4" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H4" s="13" t="str">
+        <v>44740</v>
+      </c>
+      <c r="H4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562571505</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>562571505</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="12">
         <v>562571505</v>
       </c>
     </row>
@@ -1404,16 +1454,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H5" s="13" t="str">
+        <v>44740</v>
+      </c>
+      <c r="H5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563116649</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>563116649</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="12">
         <v>563116649</v>
       </c>
     </row>
@@ -1434,688 +1484,712 @@
         <v>22</v>
       </c>
       <c r="F6" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H6" s="13" t="str">
+        <v>44740</v>
+      </c>
+      <c r="H6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562768425</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <v>562768425</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="12">
         <v>562768425</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="16">
         <v>15877873</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H7" s="13" t="str">
+      <c r="F7" s="18">
+        <v>44740</v>
+      </c>
+      <c r="H7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/561849783</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <v>561849783</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="12">
         <v>561849783</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="20">
         <v>15877131</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="10">
-        <v>44636</v>
-      </c>
-      <c r="H8" s="13" t="str">
+      <c r="F8" s="6">
+        <v>44740</v>
+      </c>
+      <c r="H8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563119527</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="11">
         <v>563119527</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="12">
         <v>563119527</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="20">
         <v>15033292</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="9">
-        <v>44636</v>
-      </c>
-      <c r="H9" s="13" t="str">
+      <c r="F9" s="23">
+        <v>44740</v>
+      </c>
+      <c r="H9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563524042</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="11">
         <v>563524042</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="12">
         <v>563524042</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="20">
         <v>15030829</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="13" t="str">
+      <c r="C10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="H10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562546775</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="11">
         <v>562546775</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="12">
         <v>562546775</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="20">
         <v>14884659</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H11" s="13" t="str">
+        <v>44740</v>
+      </c>
+      <c r="H11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562682733</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="11">
         <v>562682733</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="12">
         <v>562682733</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="20">
         <v>14497676</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9">
-        <v>44636</v>
-      </c>
-      <c r="H12" s="13" t="str">
+      <c r="F12" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563123798</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="11">
         <v>563123798</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="12">
         <v>563123798</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="20">
         <v>14817973</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="13" t="str">
+      <c r="C13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563493534</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="11">
         <v>563493534</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="12">
         <v>563493534</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="16">
         <v>14775023</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H14" s="13" t="str">
+      <c r="F14" s="18">
+        <v>44740</v>
+      </c>
+      <c r="H14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/560769120</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="11">
         <v>560769120</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="12">
         <v>560769120</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="20">
         <v>14457214</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="10">
-        <v>44636</v>
-      </c>
-      <c r="H15" s="13" t="str">
+      <c r="F15" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="20">
         <v>14457792</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H16" s="13" t="str">
+        <v>44740</v>
+      </c>
+      <c r="H16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="16">
         <v>14642147</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="9">
-        <v>44636</v>
-      </c>
-      <c r="H17" s="13" t="str">
+      <c r="F17" s="18">
+        <v>44740</v>
+      </c>
+      <c r="H17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="20">
         <v>14499239</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H18" s="13" t="str">
+        <v>44740</v>
+      </c>
+      <c r="H18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="20">
         <v>14538249</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="str">
+      <c r="C19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="H19" s="9" t="str">
         <f>IF(I19&gt;0,$L$1&amp;I19,"")</f>
         <v/>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="16">
         <v>14418192</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="C20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H20" s="13" t="str">
+      <c r="F20" s="18">
+        <v>44740</v>
+      </c>
+      <c r="H20" s="9" t="str">
         <f>IF(I20&gt;0,$L$1&amp;I20,"")</f>
         <v/>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="20">
         <v>14421629</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H21" s="13" t="str">
+      <c r="F21" s="23">
+        <v>44740</v>
+      </c>
+      <c r="H21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="16">
         <v>14197911</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="9">
-        <v>44636</v>
-      </c>
-      <c r="H22" s="13" t="str">
+      <c r="F22" s="18">
+        <v>44740</v>
+      </c>
+      <c r="H22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="20">
         <v>13201458</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H23" s="13" t="str">
+        <v>44740</v>
+      </c>
+      <c r="H23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="16">
         <v>13734033</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H24" s="13" t="str">
+      <c r="F24" s="18">
+        <v>44740</v>
+      </c>
+      <c r="H24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="20">
         <v>13720624</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H25" s="13" t="str">
+      <c r="F25" s="22">
+        <v>44740</v>
+      </c>
+      <c r="H25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="20">
         <v>13641976</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="5">
-        <v>44636</v>
-      </c>
-      <c r="H26" s="13" t="str">
+      <c r="F26" s="22">
+        <v>44740</v>
+      </c>
+      <c r="H26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="20">
         <v>16305184</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="13" t="str">
+      <c r="F27" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="20">
         <v>16266517</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="C28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="13" t="str">
+      <c r="F28" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="16">
         <v>16305633</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="C29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="F29" s="18">
+        <v>44740</v>
+      </c>
+      <c r="H29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="20">
         <v>16308517</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="C30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="13" t="str">
+      <c r="F30" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="C31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="13" t="str">
+      <c r="F31" s="6">
+        <v>44740</v>
+      </c>
+      <c r="H31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="20">
         <v>16331083</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -2131,8 +2205,11 @@
       <c r="E33" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -2148,8 +2225,11 @@
       <c r="E34" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -2165,8 +2245,11 @@
       <c r="E35" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -2182,8 +2265,11 @@
       <c r="E36" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2199,8 +2285,11 @@
       <c r="E37" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -2216,8 +2305,11 @@
       <c r="E38" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -2233,8 +2325,11 @@
       <c r="E39" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -2250,8 +2345,11 @@
       <c r="E40" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -2267,8 +2365,11 @@
       <c r="E41" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -2284,42 +2385,51 @@
       <c r="E42" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="F42" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="16">
         <v>17187851</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="C43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="F43" s="18">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="16">
         <v>17188626</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="18">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
@@ -2333,24 +2443,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="16">
         <v>17294067</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="C46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="18">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -2366,8 +2479,11 @@
       <c r="E47" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
@@ -2383,8 +2499,11 @@
       <c r="E48" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2400,8 +2519,11 @@
       <c r="E49" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>93</v>
       </c>
@@ -2417,8 +2539,11 @@
       <c r="E50" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>95</v>
       </c>
@@ -2434,8 +2559,11 @@
       <c r="E51" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>97</v>
       </c>
@@ -2451,8 +2579,11 @@
       <c r="E52" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>103</v>
       </c>
@@ -2468,8 +2599,11 @@
       <c r="E53" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -2485,8 +2619,11 @@
       <c r="E54" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -2502,8 +2639,11 @@
       <c r="E55" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>106</v>
       </c>
@@ -2519,8 +2659,11 @@
       <c r="E56" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
@@ -2536,8 +2679,11 @@
       <c r="E57" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>110</v>
       </c>
@@ -2553,12 +2699,15 @@
       <c r="E58" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F58" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2570,8 +2719,11 @@
       <c r="E59" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2587,8 +2739,11 @@
       <c r="E60" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>103</v>
       </c>
@@ -2604,8 +2759,11 @@
       <c r="E61" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>106</v>
       </c>
@@ -2621,8 +2779,11 @@
       <c r="E62" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>103</v>
       </c>
@@ -2638,8 +2799,11 @@
       <c r="E63" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>154</v>
       </c>
@@ -2655,8 +2819,11 @@
       <c r="E64" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>156</v>
       </c>
@@ -2667,13 +2834,16 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>158</v>
       </c>
@@ -2689,8 +2859,11 @@
       <c r="E66" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>159</v>
       </c>
@@ -2706,8 +2879,11 @@
       <c r="E67" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>161</v>
       </c>
@@ -2723,10 +2899,13 @@
       <c r="E68" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B69" s="2">
         <v>18115615</v>
@@ -2738,12 +2917,15 @@
         <v>13</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="F69" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B70" s="2">
         <v>18116237</v>
@@ -2755,12 +2937,12 @@
         <v>5</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B71" s="2">
         <v>18158400</v>
@@ -2772,12 +2954,12 @@
         <v>5</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B72" s="2">
         <v>18158580</v>
@@ -2786,15 +2968,15 @@
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B73" s="2">
         <v>18158327</v>
@@ -2806,10 +2988,10 @@
         <v>5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>161</v>
       </c>
@@ -2824,6 +3006,214 @@
       </c>
       <c r="E74" s="3" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="2">
+        <v>18176478</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2">
+        <v>18176918</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="2">
+        <v>18177597</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="2">
+        <v>18178336</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="2">
+        <v>18178593</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="5">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="2">
+        <v>18178705</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="2">
+        <v>18178790</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="2">
+        <v>18179707</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="2">
+        <v>18179804</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="6">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="2">
+        <v>18180022</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" s="6">
+        <v>44740</v>
       </c>
     </row>
   </sheetData>
@@ -2913,32 +3303,36 @@
     <hyperlink ref="E59" r:id="rId55" xr:uid="{431E43EB-B206-44F5-AC14-F48FACC2FA35}"/>
     <hyperlink ref="E60" r:id="rId56" xr:uid="{C0B1282D-DA0B-4D3F-957D-69D065A2040E}"/>
     <hyperlink ref="E69" r:id="rId57" xr:uid="{CF2A36CC-E195-4A22-B437-84BAE6F83E8F}"/>
+    <hyperlink ref="E81" r:id="rId58" xr:uid="{192287A3-3246-4972-9AD3-6069DB3AF850}"/>
+    <hyperlink ref="E82" r:id="rId59" xr:uid="{0F30F236-E27E-4070-9B81-FC6BBDD9107F}"/>
+    <hyperlink ref="E83" r:id="rId60" xr:uid="{067992F5-1F64-4CE9-AE66-6D65F7F35262}"/>
+    <hyperlink ref="E84" r:id="rId61" xr:uid="{1DCA8A7D-183F-4E71-B79F-B3795234E6D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C20"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2956,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3033,10 +3427,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3044,10 +3438,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,10 +3460,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,10 +3471,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,10 +3482,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,10 +3504,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -3121,10 +3515,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -3132,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -3143,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -3154,16 +3548,53 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D20" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D157">
-    <sortCondition ref="B2:B157"/>
+  <autoFilter ref="A1:D142" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D142">
+      <sortCondition descending="1" ref="B1:B142"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D45">
+    <sortCondition ref="B2:B45"/>
   </sortState>
   <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="1" priority="3">
@@ -3194,14 +3625,14 @@
     <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48E3135-4D19-4560-A15F-94422FB00C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D05F7-D3A2-4C66-AC70-4883787CADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="219">
   <si>
     <t>Фейкер</t>
   </si>
@@ -1297,7 +1297,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,7 +2823,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>156</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>158</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>159</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>161</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>163</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>165</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>18116237</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -2939,8 +2939,11 @@
       <c r="E70" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>167</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>169</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>163</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>161</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>172</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>26</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>44</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>67</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>18178336</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -3096,7 +3099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>90</v>
       </c>
@@ -3218,7 +3221,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
-  <conditionalFormatting sqref="H1 J1 A1:F100">
+  <conditionalFormatting sqref="H1 J1 A1:F100 G70">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D05F7-D3A2-4C66-AC70-4883787CADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5697CC-32D2-4188-88CE-7B46CC952E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
-    <sheet name="Проверка" sheetId="3" r:id="rId3"/>
+    <sheet name="DataHandler" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DataHandler!$A$1:$D$270</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$A$1:$D$142</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Проверка!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="157">
   <si>
     <t>Фейкер</t>
   </si>
@@ -408,123 +406,6 @@
 17783500</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596050575</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-601133615</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596044503</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596048358</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-amster-a-596035005</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-601137169</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596044197</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-601133793</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-601132263</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596050723</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596535943</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-588663745</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596049413</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-588649509</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596045798</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-588647179</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-588656548</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596036264</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596041219</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-588647421</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596682094</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596035005</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596051598</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596683507</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596679460</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596689851</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596685164</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596540019</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596537357</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596535470</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596535323</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596051368</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596051052</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596044526</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596043123</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596039358</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-house-time-596027018</t>
-  </si>
-  <si>
-    <t>Найдено</t>
-  </si>
-  <si>
-    <t>Отправлено</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/seller/orehmarket-136055/</t>
   </si>
   <si>
@@ -591,143 +472,74 @@
     <t>https://www.ozon.ru/seller/nxqylw-202834/?</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-474042153</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6241504441.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-473145089</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6241534207.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-580838140</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6241531787.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-580838251</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6241526452.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-580837338</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6241538124.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-580837281</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6241533103.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-580838180</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6241523735.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-adw-580837882</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6241526757.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-604016644</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6337971575.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603621126</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6337822548.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603593548</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-0/6337806144.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603897407</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-u/6337914966.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603652956</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6337841176.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603935961</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-4/6337926604.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603630512</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6337829136.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603648359</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6337834387.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603728064</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6337891970.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603605114</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6337814243.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-uniseks-603686551</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6337859474.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-591563382</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6324937972.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-591563412</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6324937355.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-591563383</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-c/6324937884.jpg</t>
+    <t>Мир эмоций</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/moya-lapka-169432</t>
+  </si>
+  <si>
+    <t>PROIRITY GOODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - </t>
+  </si>
+  <si>
+    <t>Надеемся на быструю блокировку.</t>
+  </si>
+  <si>
+    <t>Shine&amp;See</t>
+  </si>
+  <si>
+    <t>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика '</t>
+  </si>
+  <si>
+    <t>Ссылка:</t>
+  </si>
+  <si>
+    <t>Продавец:</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633832614</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6364823952.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633928549</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6364833154.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633910098</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6364831559.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633906302</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6364841167.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633872958</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6364842207.jpg</t>
+  </si>
+  <si>
+    <t>SeeBear</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/seebear-514271/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,8 +574,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,8 +603,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -813,12 +658,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,6 +771,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1292,12 +1191,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L85"/>
+  <sheetPr codeName="Лист1">
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>104</v>
@@ -2805,7 +2706,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2">
         <v>18046451</v>
@@ -2817,7 +2718,7 @@
         <v>13</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="F64" s="5">
         <v>44740</v>
@@ -2825,7 +2726,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2">
         <v>18047516</v>
@@ -2834,10 +2735,10 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="F65" s="5">
         <v>44740</v>
@@ -2845,7 +2746,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2">
         <v>18047833</v>
@@ -2857,7 +2758,7 @@
         <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="F66" s="5">
         <v>44740</v>
@@ -2865,7 +2766,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2">
         <v>18091704</v>
@@ -2877,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F67" s="5">
         <v>44740</v>
@@ -2885,7 +2786,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2">
         <v>18091905</v>
@@ -2897,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F68" s="6">
         <v>44740</v>
@@ -2905,7 +2806,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2">
         <v>18115615</v>
@@ -2917,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="F69" s="5">
         <v>44740</v>
@@ -2925,7 +2826,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2">
         <v>18116237</v>
@@ -2937,32 +2838,32 @@
         <v>5</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2">
         <v>18158400</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2">
         <v>18158580</v>
@@ -2974,58 +2875,58 @@
         <v>80</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2">
         <v>18158327</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2">
         <v>18159887</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B75" s="2">
         <v>18176478</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3036,10 +2937,10 @@
         <v>18176918</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>16</v>
@@ -3053,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>25</v>
@@ -3070,13 +2971,13 @@
         <v>18177597</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="F78" s="6">
         <v>44740</v>
@@ -3107,7 +3008,7 @@
         <v>18178593</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
@@ -3127,7 +3028,7 @@
         <v>18178705</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>5</v>
@@ -3147,10 +3048,10 @@
         <v>18178790</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>98</v>
@@ -3167,10 +3068,10 @@
         <v>18179707</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>107</v>
@@ -3187,10 +3088,10 @@
         <v>18179804</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>109</v>
@@ -3201,27 +3102,91 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2">
         <v>18180022</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F85" s="6">
         <v>44740</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="2">
+        <v>18201872</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F86" s="5">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="2">
+        <v>18238569</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="2">
+        <v>18238382</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" s="2">
+        <v>18288645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
-  <conditionalFormatting sqref="H1 J1 A1:F100 G70">
+  <conditionalFormatting sqref="H1 J1 G70 A1:F100">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -3318,12 +3283,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:D23"/>
+  <sheetPr codeName="Лист2">
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C23"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,9 +3299,14 @@
     <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>102</v>
       </c>
@@ -3347,258 +3319,103 @@
       <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+      <c r="F1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F3" s="29" t="str" cm="1">
+        <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C888&amp;_xlpm.nl))&amp;K4)</f>
+        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'SeeBear'
+https://www.ozon.ru/seller/seebear-514271/
+МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - 
+https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633832614
+https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633928549
+https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633910098
+https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633906302
+https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633872958
+Надеемся на быструю блокировку.</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="K3" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>214</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D142" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D142">
-      <sortCondition descending="1" ref="B1:B142"/>
+  <autoFilter ref="A1:D270" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D270">
+      <sortCondition descending="1" ref="C1:C270"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D45">
-    <sortCondition ref="B2:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+    <sortCondition ref="B2:B40"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="F3:I3"/>
+  </mergeCells>
   <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C1&lt;&gt;""</formula>
@@ -3610,300 +3427,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C75BDC-AAC3-4C40-A566-3C20F86A6145}">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B15" si="0">VLOOKUP(A2,C:C,1,0)</f>
-        <v>https://www.ozon.ru/product/beysbolka-588649509</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-588663745</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-house-time-596044503</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-house-time-596045798</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-house-time-596048358</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-house-time-596049413</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-house-time-596050575</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-house-time-596050723</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.ozon.ru/product/beysbolka-house-time-596535943</v>
-      </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C33" xr:uid="{04C75BDC-AAC3-4C40-A566-3C20F86A6145}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
-      <sortCondition ref="B1:B33"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5697CC-32D2-4188-88CE-7B46CC952E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49758956-AB40-4540-9C60-E5C5E86D2676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
     <sheet name="DataHandler" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DataHandler!$A$1:$D$270</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="255">
   <si>
     <t>Фейкер</t>
   </si>
@@ -472,9 +473,6 @@
     <t>https://www.ozon.ru/seller/nxqylw-202834/?</t>
   </si>
   <si>
-    <t>Мир эмоций</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/seller/moya-lapka-169432</t>
   </si>
   <si>
@@ -499,40 +497,337 @@
     <t>Продавец:</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633832614</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6364823952.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633928549</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6364833154.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633910098</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6364831559.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633906302</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6364841167.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633872958</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6364842207.jpg</t>
-  </si>
-  <si>
     <t>SeeBear</t>
   </si>
   <si>
     <t>https://www.ozon.ru/seller/seebear-514271/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/shine-see-168733/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/priority-goods-25286/</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603258014</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6337679531.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603271435</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6337682036.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284780</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6337689676.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270541</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-j/6337681711.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603231996</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6337677829.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603205657</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6337676357.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603183749</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337676560.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603232648</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6337678021.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263551</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6337680337.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285552</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6337689900.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603254520</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6337679370.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263134</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6337678763.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273096</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-3/6337683099.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603176867</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6337675691.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603266423</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6337681811.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603286797</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-x/6337689609.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603248729</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-y/6337677946.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284868</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6337689781.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603259056</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6337680246.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270834</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-w/6337681508.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284465</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-l/6337689453.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256350</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337676488.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273293</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337683616.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272800</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-2/6337683710.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603280299</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-k/6337684916.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256716</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6337679713.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603251620</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-q/6337679414.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603265604</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6337681751.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272510</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-m/6337682326.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285623</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337689376.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284605</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-6/6337689546.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603196610</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-s/6337676428.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272905</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6337682796.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603224526</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6337676922.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273113</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6337682873.jpg</t>
+  </si>
+  <si>
+    <t>Моя лапка</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606589119</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571842</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572399</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606595252</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606589252</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569585</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571515</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606589142</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572408</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572262</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569392</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571832</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571519</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571837</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572108</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572105</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606598264</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606598285</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571849</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572103</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572263</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569894</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571825</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571853</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606587771</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572102</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572404</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606593976</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606592381</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569595</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569940</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569932</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569603</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606570958</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606590926</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572412</t>
   </si>
 </sst>
 </file>
@@ -1191,14 +1486,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
-  <sheetPr codeName="Лист1">
+  <sheetPr codeName="Лист1" filterMode="1">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1543,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1573,7 @@
         <v>563515485</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1308,7 +1603,7 @@
         <v>560866181</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +1633,7 @@
         <v>562571505</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1663,7 @@
         <v>563116649</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1693,7 @@
         <v>562768425</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +1723,7 @@
         <v>561849783</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
@@ -1458,7 +1753,7 @@
         <v>563119527</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -1488,7 +1783,7 @@
         <v>563524042</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
@@ -1514,7 +1809,7 @@
         <v>562546775</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1869,7 @@
         <v>563123798</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
@@ -1600,7 +1895,7 @@
         <v>563493534</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
@@ -1630,7 +1925,7 @@
         <v>560769120</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
@@ -1658,7 +1953,7 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
@@ -1684,7 +1979,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -1736,7 +2031,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1758,7 +2053,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>42</v>
       </c>
@@ -1784,7 +2079,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>44</v>
       </c>
@@ -1810,7 +2105,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>46</v>
       </c>
@@ -1836,7 +2131,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>49</v>
       </c>
@@ -1862,7 +2157,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +2183,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1914,7 +2209,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
@@ -1940,7 +2235,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +2261,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2385,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -2110,7 +2405,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -2130,7 +2425,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -2150,7 +2445,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -2170,7 +2465,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2210,7 +2505,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -2230,7 +2525,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -2250,7 +2545,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -2270,7 +2565,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -2290,7 +2585,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>81</v>
       </c>
@@ -2310,7 +2605,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>83</v>
       </c>
@@ -2344,7 +2639,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>87</v>
       </c>
@@ -2364,7 +2659,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -2384,7 +2679,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
@@ -2404,7 +2699,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2424,7 +2719,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>93</v>
       </c>
@@ -2444,7 +2739,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>95</v>
       </c>
@@ -2564,7 +2859,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
@@ -2584,7 +2879,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>110</v>
       </c>
@@ -2604,7 +2899,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>111</v>
       </c>
@@ -2624,7 +2919,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2644,7 +2939,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>103</v>
       </c>
@@ -2664,7 +2959,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>106</v>
       </c>
@@ -2704,7 +2999,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>115</v>
       </c>
@@ -2724,7 +3019,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>117</v>
       </c>
@@ -2744,7 +3039,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>119</v>
       </c>
@@ -2764,7 +3059,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>120</v>
       </c>
@@ -2784,7 +3079,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>122</v>
       </c>
@@ -2804,7 +3099,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>124</v>
       </c>
@@ -2861,7 +3156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>130</v>
       </c>
@@ -2872,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>131</v>
@@ -2895,7 +3190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
@@ -2929,7 +3224,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -2949,7 +3244,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>26</v>
       </c>
@@ -2963,7 +3258,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>44</v>
       </c>
@@ -3040,7 +3335,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>97</v>
       </c>
@@ -3071,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>107</v>
@@ -3080,7 +3375,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>110</v>
       </c>
@@ -3111,7 +3406,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>123</v>
@@ -3120,7 +3415,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>119</v>
       </c>
@@ -3142,7 +3437,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="B87" s="2">
         <v>18238569</v>
@@ -3154,12 +3449,12 @@
         <v>80</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2">
         <v>18238382</v>
@@ -3170,22 +3465,53 @@
       <c r="D88" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2">
         <v>18288645</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>122</v>
       </c>
+      <c r="B90" s="2">
+        <v>18288719</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
+  <autoFilter ref="A1:F90" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="-"/>
+        <filter val="Нет"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="H1 J1 G70 A1:F100">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>$A1&lt;&gt;""</formula>
@@ -3286,11 +3612,11 @@
   <sheetPr codeName="Лист2">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,89 +3646,355 @@
         <v>100</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="H1" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F3" s="29" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C888&amp;_xlpm.nl))&amp;K4)</f>
         <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'SeeBear'
 https://www.ozon.ru/seller/seebear-514271/
 МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - 
-https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633832614
-https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633928549
-https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633910098
-https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633906302
-https://www.ozon.ru/product/beysbolka-formennaya-goorin-brothers-633872958
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603258014
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603271435
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284780
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270541
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603231996
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603205657
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603183749
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603232648
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263551
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285552
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603254520
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263134
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273096
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603176867
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603266423
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603286797
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603248729
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284868
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603259056
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270834
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284465
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256350
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273293
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272800
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603280299
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256716
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603251620
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603265604
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272510
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285623
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284605
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603196610
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272905
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603224526
+https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273113
 Надеемся на быструю блокировку.</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
       <c r="I3" s="31"/>
       <c r="K3" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D270" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
@@ -3427,4 +4019,737 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06928D47-8BC3-41CB-8EEA-E1F05F5E30AC}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="str">
+        <f>RIGHT(A1,9)</f>
+        <v>603258014</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="str">
+        <f>RIGHT(C1,9)</f>
+        <v>606589119</v>
+      </c>
+      <c r="E1" t="e">
+        <f>VLOOKUP(D1,B:B,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B35" si="0">RIGHT(A2,9)</f>
+        <v>603271435</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D36" si="1">RIGHT(C2,9)</f>
+        <v>606571842</v>
+      </c>
+      <c r="E2" t="e">
+        <f t="shared" ref="E2:E36" si="2">VLOOKUP(D2,B:B,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>603284780</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>606572399</v>
+      </c>
+      <c r="E3" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>603270541</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>606595252</v>
+      </c>
+      <c r="E4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>603231996</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>606589252</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>603205657</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>606569585</v>
+      </c>
+      <c r="E6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>603183749</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>606571515</v>
+      </c>
+      <c r="E7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>603232648</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>606589142</v>
+      </c>
+      <c r="E8" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>603263551</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>606572408</v>
+      </c>
+      <c r="E9" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>603285552</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>606572262</v>
+      </c>
+      <c r="E10" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>603254520</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>606569392</v>
+      </c>
+      <c r="E11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>603263134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>606571832</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>603273096</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>606571519</v>
+      </c>
+      <c r="E13" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>603176867</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>606571837</v>
+      </c>
+      <c r="E14" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>603266423</v>
+      </c>
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>606572108</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>603286797</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>606572105</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>603248729</v>
+      </c>
+      <c r="C17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>606598264</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>603284868</v>
+      </c>
+      <c r="C18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>606598285</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>603259056</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>606571849</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>603270834</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>606572103</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>603284465</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>606572263</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>603256350</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>606569894</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>603273293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>606571825</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>603272800</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>606571853</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>603280299</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>606587771</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>603256716</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>606572102</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>603251620</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>606572404</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>603265604</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>606593976</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>603272510</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>606592381</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>603285623</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>606569595</v>
+      </c>
+      <c r="E30" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>603284605</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>606569940</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>603196610</v>
+      </c>
+      <c r="C32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>606569932</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>603272905</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>606569603</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>603224526</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>606570958</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>603273113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>606590926</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>606572412</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49758956-AB40-4540-9C60-E5C5E86D2676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD4FB3-ED7A-4444-8752-1D13103F5334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="230">
   <si>
     <t>Фейкер</t>
   </si>
@@ -512,213 +512,108 @@
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603258014</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6337679531.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603271435</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6337682036.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284780</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6337689676.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270541</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-j/6337681711.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603231996</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6337677829.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603205657</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6337676357.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603183749</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337676560.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603232648</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-1/6337678021.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263551</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-d/6337680337.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285552</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-0/6337689900.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603254520</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6337679370.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263134</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6337678763.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273096</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-3/6337683099.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603176867</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6337675691.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603266423</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-b/6337681811.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603286797</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-x/6337689609.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603248729</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-y/6337677946.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284868</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6337689781.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603259056</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-u/6337680246.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270834</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-w/6337681508.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284465</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-l/6337689453.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256350</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337676488.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273293</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337683616.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272800</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-2/6337683710.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603280299</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-k/6337684916.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256716</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-1/6337679713.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603251620</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-q/6337679414.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603265604</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6337681751.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272510</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-m/6337682326.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285623</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6337689376.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284605</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-6/6337689546.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603196610</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-s/6337676428.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272905</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6337682796.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603224526</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6337676922.jpg</t>
-  </si>
-  <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273113</t>
   </si>
   <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6337682873.jpg</t>
-  </si>
-  <si>
     <t>Моя лапка</t>
   </si>
   <si>
@@ -828,6 +723,36 @@
   </si>
   <si>
     <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572412</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-636485814</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6364833154.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-636460260</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-v/6364841167.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-636452488</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6364842207.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-636500524</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-o/6364823952.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-formennaya-636368377</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6364831559.jpg</t>
   </si>
 </sst>
 </file>
@@ -1486,14 +1411,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
-  <sheetPr codeName="Лист1" filterMode="1">
+  <sheetPr codeName="Лист1">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
@@ -1573,7 +1498,7 @@
         <v>563515485</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1528,7 @@
         <v>560866181</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1633,7 +1558,7 @@
         <v>562571505</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1588,7 @@
         <v>563116649</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1693,7 +1618,7 @@
         <v>562768425</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -1723,7 +1648,7 @@
         <v>561849783</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
@@ -1753,7 +1678,7 @@
         <v>563119527</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +1708,7 @@
         <v>563524042</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1734,7 @@
         <v>562546775</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +1794,7 @@
         <v>563123798</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1820,7 @@
         <v>563493534</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
@@ -1925,7 +1850,7 @@
         <v>560769120</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
@@ -1953,7 +1878,7 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>36</v>
       </c>
@@ -1979,7 +1904,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -2031,7 +1956,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
@@ -2053,7 +1978,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>42</v>
       </c>
@@ -2079,7 +2004,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>44</v>
       </c>
@@ -2105,7 +2030,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>46</v>
       </c>
@@ -2131,7 +2056,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>49</v>
       </c>
@@ -2157,7 +2082,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
@@ -2183,7 +2108,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
@@ -2209,7 +2134,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
@@ -2235,7 +2160,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2186,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2310,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -2405,7 +2330,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -2425,7 +2350,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -2445,7 +2370,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -2465,7 +2390,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2505,7 +2430,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
@@ -2525,7 +2450,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -2545,7 +2470,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
@@ -2565,7 +2490,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -2585,7 +2510,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>81</v>
       </c>
@@ -2605,7 +2530,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>83</v>
       </c>
@@ -2639,7 +2564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>87</v>
       </c>
@@ -2659,7 +2584,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -2679,7 +2604,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
@@ -2699,7 +2624,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2719,7 +2644,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>93</v>
       </c>
@@ -2739,7 +2664,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>95</v>
       </c>
@@ -2859,7 +2784,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
@@ -2879,7 +2804,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>110</v>
       </c>
@@ -2899,7 +2824,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>111</v>
       </c>
@@ -2919,7 +2844,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2939,7 +2864,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>103</v>
       </c>
@@ -2959,7 +2884,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>106</v>
       </c>
@@ -2999,7 +2924,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>115</v>
       </c>
@@ -3019,7 +2944,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>117</v>
       </c>
@@ -3039,7 +2964,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>119</v>
       </c>
@@ -3059,7 +2984,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>120</v>
       </c>
@@ -3079,7 +3004,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>122</v>
       </c>
@@ -3099,7 +3024,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>124</v>
       </c>
@@ -3156,7 +3081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>130</v>
       </c>
@@ -3190,7 +3115,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
@@ -3224,7 +3149,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -3244,7 +3169,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>26</v>
       </c>
@@ -3258,7 +3183,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>44</v>
       </c>
@@ -3335,7 +3260,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>97</v>
       </c>
@@ -3375,7 +3300,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>110</v>
       </c>
@@ -3415,7 +3340,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>119</v>
       </c>
@@ -3437,7 +3362,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B87" s="2">
         <v>18238569</v>
@@ -3469,7 +3394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
@@ -3486,7 +3411,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>122</v>
       </c>
@@ -3503,15 +3428,36 @@
         <v>123</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="2">
+        <v>18288759</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="2">
+        <v>18378763</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F90" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="-"/>
-        <filter val="Нет"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F90" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
   <conditionalFormatting sqref="H1 J1 G70 A1:F100">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>$A1&lt;&gt;""</formula>
@@ -3612,11 +3558,11 @@
   <sheetPr codeName="Лист2">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C36"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,10 +3606,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>141</v>
@@ -3671,51 +3617,21 @@
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="F3" s="29" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C888&amp;_xlpm.nl))&amp;K4)</f>
         <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'SeeBear'
 https://www.ozon.ru/seller/seebear-514271/
 МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - 
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603258014
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603271435
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284780
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270541
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603231996
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603205657
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603183749
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603232648
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263551
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285552
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603254520
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263134
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273096
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603176867
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603266423
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603286797
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603248729
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284868
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603259056
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270834
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284465
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256350
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273293
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272800
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603280299
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256716
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603251620
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603265604
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272510
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285623
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284605
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603196610
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272905
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603224526
-https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273113
+https://www.ozon.ru/product/beysbolka-formennaya-636485814
+https://www.ozon.ru/product/beysbolka-formennaya-636460260
+https://www.ozon.ru/product/beysbolka-formennaya-636452488
+https://www.ozon.ru/product/beysbolka-formennaya-636500524
+https://www.ozon.ru/product/beysbolka-formennaya-636368377
 Надеемся на быструю блокировку.</v>
       </c>
       <c r="G3" s="30"/>
@@ -3727,10 +3643,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>139</v>
@@ -3738,263 +3654,27 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>217</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D270" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
@@ -4045,7 +3725,7 @@
         <v>603258014</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D1" t="str">
         <f>RIGHT(C1,9)</f>
@@ -4058,14 +3738,14 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B35" si="0">RIGHT(A2,9)</f>
         <v>603271435</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D36" si="1">RIGHT(C2,9)</f>
@@ -4078,14 +3758,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>603284780</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="1"/>
@@ -4098,14 +3778,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>603270541</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="1"/>
@@ -4118,14 +3798,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>603231996</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="1"/>
@@ -4138,14 +3818,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>603205657</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="1"/>
@@ -4158,14 +3838,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>603183749</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="1"/>
@@ -4178,14 +3858,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>603232648</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="1"/>
@@ -4198,14 +3878,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>603263551</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
@@ -4218,14 +3898,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>603285552</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
@@ -4238,14 +3918,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>603254520</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
@@ -4258,14 +3938,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>603263134</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
@@ -4278,14 +3958,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>603273096</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -4298,14 +3978,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>603176867</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -4318,14 +3998,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>603266423</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
@@ -4338,14 +4018,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>603286797</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
@@ -4358,14 +4038,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>603248729</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
@@ -4378,14 +4058,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>603284868</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -4398,14 +4078,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>603259056</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -4418,14 +4098,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>603270834</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -4438,14 +4118,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>603284465</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
@@ -4458,14 +4138,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>603256350</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
@@ -4478,14 +4158,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>603273293</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
@@ -4498,14 +4178,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>603272800</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
@@ -4518,14 +4198,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>603280299</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
@@ -4538,14 +4218,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>603256716</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
@@ -4558,14 +4238,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>603251620</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
@@ -4578,14 +4258,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>603265604</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
@@ -4598,14 +4278,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>603272510</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
@@ -4618,14 +4298,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>603285623</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
@@ -4638,14 +4318,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>603284605</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
@@ -4658,14 +4338,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>603196610</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
@@ -4678,14 +4358,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>603272905</v>
       </c>
       <c r="C33" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
@@ -4698,14 +4378,14 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>603224526</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
@@ -4718,14 +4398,14 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>603273113</v>
       </c>
       <c r="C35" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
@@ -4738,7 +4418,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD4FB3-ED7A-4444-8752-1D13103F5334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1B00B-AD7A-4393-8E67-D93D45E05F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fakers" sheetId="1" r:id="rId1"/>
     <sheet name="DataHandler" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DataHandler!$A$1:$D$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DataHandler!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fakers!$A$1:$F$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="169">
   <si>
     <t>Фейкер</t>
   </si>
@@ -509,250 +508,67 @@
     <t>https://www.ozon.ru/seller/priority-goods-25286/</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603258014</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603271435</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284780</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270541</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603231996</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603205657</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603183749</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603232648</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263551</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285552</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603254520</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603263134</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273096</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603176867</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603266423</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603286797</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603248729</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284868</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603259056</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603270834</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284465</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256350</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273293</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272800</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603280299</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603256716</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603251620</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603265604</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272510</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603285623</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603284605</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603196610</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603272905</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603224526</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-603273113</t>
-  </si>
-  <si>
     <t>Моя лапка</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606589119</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571842</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572399</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606595252</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606589252</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569585</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571515</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606589142</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572408</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572262</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569392</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571832</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571519</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571837</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572108</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572105</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606598264</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606598285</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571849</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572103</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572263</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569894</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571825</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606571853</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606587771</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572102</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572404</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606593976</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606592381</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569595</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569940</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569932</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606569603</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606570958</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606590926</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-priority-case-606572412</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-636485814</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6364833154.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-636460260</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-v/6364841167.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-636452488</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6364842207.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-636500524</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-o/6364823952.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-formennaya-636368377</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6364831559.jpg</t>
+    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-597053969</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-d/6332118337.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942287</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6332054087.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-tiger-576967505</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-z/6315247535.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-tiger-576948132</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-g/6315242656.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-596958081</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-i/6332062218.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-volk-583166909</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6315822557.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-volk-583181332</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-p/6315816685.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-volk-583177943</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-0/6315829620.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-597046104</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-n/6332111543.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942380</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6332037197.jpg</t>
   </si>
 </sst>
 </file>
@@ -1414,11 +1230,11 @@
   <sheetPr codeName="Лист1">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,7 +3178,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2">
         <v>18238569</v>
@@ -3454,6 +3270,28 @@
       </c>
       <c r="E92" s="3" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="2">
+        <v>18385098</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="2">
+        <v>18485217</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3558,11 +3396,11 @@
   <sheetPr codeName="Лист2">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:I3"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,43 +3433,54 @@
         <v>143</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>142</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="F3" s="29" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C888&amp;_xlpm.nl))&amp;K4)</f>
-        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'SeeBear'
-https://www.ozon.ru/seller/seebear-514271/
+        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'Marinasha'
+https://www.ozon.ru/seller/marinasha-304806/
 МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - 
-https://www.ozon.ru/product/beysbolka-formennaya-636485814
-https://www.ozon.ru/product/beysbolka-formennaya-636460260
-https://www.ozon.ru/product/beysbolka-formennaya-636452488
-https://www.ozon.ru/product/beysbolka-formennaya-636500524
-https://www.ozon.ru/product/beysbolka-formennaya-636368377
+https://www.ozon.ru/product/beysbolka-golovnye-ubory-597053969
+https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942287
+https://www.ozon.ru/product/beysbolka-tiger-576967505
+https://www.ozon.ru/product/beysbolka-tiger-576948132
+https://www.ozon.ru/product/beysbolka-golovnye-ubory-596958081
+https://www.ozon.ru/product/beysbolka-volk-583166909
+https://www.ozon.ru/product/beysbolka-volk-583181332
+https://www.ozon.ru/product/beysbolka-volk-583177943
+https://www.ozon.ru/product/beysbolka-golovnye-ubory-597046104
+https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942380
 Надеемся на быструю блокировку.</v>
       </c>
       <c r="G3" s="30"/>
@@ -3642,44 +3491,104 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="K8" s="28"/>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D270" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D270">
-      <sortCondition descending="1" ref="C1:C270"/>
+  <autoFilter ref="A1:D1" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+      <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
@@ -3699,737 +3608,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06928D47-8BC3-41CB-8EEA-E1F05F5E30AC}">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="72.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="str">
-        <f>RIGHT(A1,9)</f>
-        <v>603258014</v>
-      </c>
-      <c r="C1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" t="str">
-        <f>RIGHT(C1,9)</f>
-        <v>606589119</v>
-      </c>
-      <c r="E1" t="e">
-        <f>VLOOKUP(D1,B:B,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B35" si="0">RIGHT(A2,9)</f>
-        <v>603271435</v>
-      </c>
-      <c r="C2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D36" si="1">RIGHT(C2,9)</f>
-        <v>606571842</v>
-      </c>
-      <c r="E2" t="e">
-        <f t="shared" ref="E2:E36" si="2">VLOOKUP(D2,B:B,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>603284780</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>606572399</v>
-      </c>
-      <c r="E3" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>603270541</v>
-      </c>
-      <c r="C4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>606595252</v>
-      </c>
-      <c r="E4" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>603231996</v>
-      </c>
-      <c r="C5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>606589252</v>
-      </c>
-      <c r="E5" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>603205657</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>606569585</v>
-      </c>
-      <c r="E6" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>603183749</v>
-      </c>
-      <c r="C7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>606571515</v>
-      </c>
-      <c r="E7" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>603232648</v>
-      </c>
-      <c r="C8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>606589142</v>
-      </c>
-      <c r="E8" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>603263551</v>
-      </c>
-      <c r="C9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>606572408</v>
-      </c>
-      <c r="E9" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>603285552</v>
-      </c>
-      <c r="C10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>606572262</v>
-      </c>
-      <c r="E10" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>603254520</v>
-      </c>
-      <c r="C11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>606569392</v>
-      </c>
-      <c r="E11" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>603263134</v>
-      </c>
-      <c r="C12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>606571832</v>
-      </c>
-      <c r="E12" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>603273096</v>
-      </c>
-      <c r="C13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>606571519</v>
-      </c>
-      <c r="E13" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>603176867</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>606571837</v>
-      </c>
-      <c r="E14" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>603266423</v>
-      </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>606572108</v>
-      </c>
-      <c r="E15" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>603286797</v>
-      </c>
-      <c r="C16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>606572105</v>
-      </c>
-      <c r="E16" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>603248729</v>
-      </c>
-      <c r="C17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>606598264</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>603284868</v>
-      </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>606598285</v>
-      </c>
-      <c r="E18" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>603259056</v>
-      </c>
-      <c r="C19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>606571849</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>603270834</v>
-      </c>
-      <c r="C20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>606572103</v>
-      </c>
-      <c r="E20" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>603284465</v>
-      </c>
-      <c r="C21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>606572263</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>603256350</v>
-      </c>
-      <c r="C22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>606569894</v>
-      </c>
-      <c r="E22" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>603273293</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>606571825</v>
-      </c>
-      <c r="E23" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>603272800</v>
-      </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>606571853</v>
-      </c>
-      <c r="E24" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>603280299</v>
-      </c>
-      <c r="C25" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>606587771</v>
-      </c>
-      <c r="E25" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>603256716</v>
-      </c>
-      <c r="C26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>606572102</v>
-      </c>
-      <c r="E26" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>603251620</v>
-      </c>
-      <c r="C27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>606572404</v>
-      </c>
-      <c r="E27" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>603265604</v>
-      </c>
-      <c r="C28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>606593976</v>
-      </c>
-      <c r="E28" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>603272510</v>
-      </c>
-      <c r="C29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>606592381</v>
-      </c>
-      <c r="E29" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>603285623</v>
-      </c>
-      <c r="C30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>606569595</v>
-      </c>
-      <c r="E30" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>603284605</v>
-      </c>
-      <c r="C31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>606569940</v>
-      </c>
-      <c r="E31" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>603196610</v>
-      </c>
-      <c r="C32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>606569932</v>
-      </c>
-      <c r="E32" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>603272905</v>
-      </c>
-      <c r="C33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>606569603</v>
-      </c>
-      <c r="E33" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>603224526</v>
-      </c>
-      <c r="C34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>606570958</v>
-      </c>
-      <c r="E34" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>603273113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>606590926</v>
-      </c>
-      <c r="E35" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>606572412</v>
-      </c>
-      <c r="E36" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1B00B-AD7A-4393-8E67-D93D45E05F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214C2C8E-6810-4F0D-A912-C742AC08A9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="155">
   <si>
     <t>Фейкер</t>
   </si>
@@ -511,64 +511,22 @@
     <t>Моя лапка</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-597053969</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-d/6332118337.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942287</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6332054087.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-tiger-576967505</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-z/6315247535.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-tiger-576948132</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-g/6315242656.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-596958081</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-i/6332062218.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-volk-583166909</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6315822557.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-volk-583181332</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-p/6315816685.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-volk-583177943</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-0/6315829620.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-597046104</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-n/6332111543.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942380</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6332037197.jpg</t>
+    <t>https://www.ozon.ru/product/beysbolka-boutique-italyanskaya-moda-zhurnal-602057669</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-a/6335761642.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-654241336</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-t/6376968269.jpg</t>
+  </si>
+  <si>
+    <t>Grand Logistics</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/grand-logistics-286494/</t>
   </si>
 </sst>
 </file>
@@ -3396,11 +3354,11 @@
   <sheetPr codeName="Лист2">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,13 +3391,13 @@
         <v>143</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>142</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3468,19 +3426,11 @@
       </c>
       <c r="F3" s="29" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C888&amp;_xlpm.nl))&amp;K4)</f>
-        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'Marinasha'
-https://www.ozon.ru/seller/marinasha-304806/
+        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'Grand Logistics'
+https://www.ozon.ru/seller/grand-logistics-286494/
 МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - 
-https://www.ozon.ru/product/beysbolka-golovnye-ubory-597053969
-https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942287
-https://www.ozon.ru/product/beysbolka-tiger-576967505
-https://www.ozon.ru/product/beysbolka-tiger-576948132
-https://www.ozon.ru/product/beysbolka-golovnye-ubory-596958081
-https://www.ozon.ru/product/beysbolka-volk-583166909
-https://www.ozon.ru/product/beysbolka-volk-583181332
-https://www.ozon.ru/product/beysbolka-volk-583177943
-https://www.ozon.ru/product/beysbolka-golovnye-ubory-597046104
-https://www.ozon.ru/product/beysbolka-golovnye-ubory-596942380
+https://www.ozon.ru/product/beysbolka-boutique-italyanskaya-moda-zhurnal-602057669
+https://www.ozon.ru/product/beysbolka-654241336
 Надеемся на быструю блокировку.</v>
       </c>
       <c r="G3" s="30"/>
@@ -3491,103 +3441,25 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="K4" s="28" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>168</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214C2C8E-6810-4F0D-A912-C742AC08A9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8CD9E-DDAC-4724-81A1-51373508C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
   <si>
     <t>Фейкер</t>
   </si>
@@ -511,22 +511,115 @@
     <t>Моя лапка</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-boutique-italyanskaya-moda-zhurnal-602057669</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-a/6335761642.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-654241336</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-t/6376968269.jpg</t>
-  </si>
-  <si>
-    <t>Grand Logistics</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/seller/grand-logistics-286494/</t>
+    <t>https://www.ozon.ru/seller/torgovyy-dom-solveks-67730</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/favorit-club-16074</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/nxqylw-202834</t>
+  </si>
+  <si>
+    <t>Gagero</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/gagero-316835</t>
+  </si>
+  <si>
+    <t>Mika-Shop</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/mika-shop-196685</t>
+  </si>
+  <si>
+    <t>Chenxing Trading</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/chenxing-trading-194977</t>
+  </si>
+  <si>
+    <t>XX дисконтный магазин</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/xx-diskontnyy-magazin-251772</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/parish-366137</t>
+  </si>
+  <si>
+    <t>Parish</t>
+  </si>
+  <si>
+    <t>Almira</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/liuguoqiang-218029</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626633569</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-e/6357497978.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631112</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-7/6357496099.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634776</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631211</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-h/6357493625.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626638012</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-r/6357501555.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636563</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-original-634781425</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-8/6365597216.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626632016</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636709</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626629400</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626635758</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631364</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626630292</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634463</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626628390</t>
+  </si>
+  <si>
+    <t>Tiptop</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/tiptop-512191/</t>
   </si>
 </sst>
 </file>
@@ -694,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,9 +808,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -748,20 +838,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +852,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -788,7 +869,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -816,16 +897,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1188,11 +1259,11 @@
   <sheetPr codeName="Лист1">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1276,7 @@
     <col min="6" max="6" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,11 +1302,11 @@
       <c r="H1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="11" t="str" cm="1">
+      <c r="I1" s="10" t="str" cm="1">
         <f t="array" ref="I1:I15">_xlfn.UNIQUE(J:J)</f>
         <v>Артикулы</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L1" t="s">
@@ -1243,62 +1314,62 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="2">
         <v>16266065</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22">
-        <v>44740</v>
-      </c>
-      <c r="H2" s="9" t="str">
+      <c r="F2" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H2" s="8" t="str">
         <f>IF(I2&gt;0,$L$1&amp;I2,"")</f>
         <v>https://www.ozon.ru/context/detail/id/563515485</v>
       </c>
       <c r="I2">
         <v>563515485</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>563515485</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="2">
         <v>15874239</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="23">
-        <v>44740</v>
-      </c>
-      <c r="H3" s="9" t="str">
+      <c r="F3" s="6">
+        <v>44740</v>
+      </c>
+      <c r="H3" s="8" t="str">
         <f t="shared" ref="H3:H31" si="0">IF(I3&gt;0,$L$1&amp;I3,"")</f>
         <v>https://www.ozon.ru/context/detail/id/560866181</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>560866181</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>560866181</v>
       </c>
     </row>
@@ -1321,14 +1392,14 @@
       <c r="F4" s="5">
         <v>44740</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562571505</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>562571505</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>562571505</v>
       </c>
     </row>
@@ -1351,14 +1422,14 @@
       <c r="F5" s="5">
         <v>44740</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563116649</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>563116649</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>563116649</v>
       </c>
     </row>
@@ -1381,703 +1452,697 @@
       <c r="F6" s="5">
         <v>44740</v>
       </c>
-      <c r="H6" s="9" t="str">
+      <c r="H6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562768425</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>562768425</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>562768425</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>15877873</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="18">
-        <v>44740</v>
-      </c>
-      <c r="H7" s="9" t="str">
+      <c r="F7" s="17">
+        <v>44740</v>
+      </c>
+      <c r="H7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/561849783</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>561849783</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>561849783</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="2">
         <v>15877131</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="6">
         <v>44740</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563119527</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>563119527</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>563119527</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="2">
         <v>15033292</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23">
-        <v>44740</v>
-      </c>
-      <c r="H9" s="9" t="str">
+      <c r="F9" s="6">
+        <v>44740</v>
+      </c>
+      <c r="H9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563524042</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>563524042</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>563524042</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="2">
         <v>15030829</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="H10" s="9" t="str">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562546775</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>562546775</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>562546775</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="2">
         <v>14884659</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="5">
         <v>44740</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/562682733</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>562682733</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>562682733</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="2">
         <v>14497676</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="5">
         <v>44740</v>
       </c>
-      <c r="H12" s="9" t="str">
+      <c r="H12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563123798</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>563123798</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>563123798</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="2">
         <v>14817973</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="H13" s="9" t="str">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/563493534</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>563493534</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>563493534</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>14775023</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="C14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="18">
-        <v>44740</v>
-      </c>
-      <c r="H14" s="9" t="str">
+      <c r="F14" s="17">
+        <v>44740</v>
+      </c>
+      <c r="H14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.ozon.ru/context/detail/id/560769120</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>560769120</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>560769120</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="2">
         <v>14457214</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="5">
         <v>44740</v>
       </c>
-      <c r="H15" s="9" t="str">
+      <c r="H15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="2">
         <v>14457792</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="5">
         <v>44740</v>
       </c>
-      <c r="H16" s="9" t="str">
+      <c r="H16" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>14642147</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="C17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="18">
-        <v>44740</v>
-      </c>
-      <c r="H17" s="9" t="str">
+      <c r="F17" s="17">
+        <v>44740</v>
+      </c>
+      <c r="H17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="2">
         <v>14499239</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="5">
         <v>44740</v>
       </c>
-      <c r="H18" s="9" t="str">
+      <c r="H18" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="2">
         <v>14538249</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="H19" s="9" t="str">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="8" t="str">
         <f>IF(I19&gt;0,$L$1&amp;I19,"")</f>
         <v/>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>14418192</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="C20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="18">
-        <v>44740</v>
-      </c>
-      <c r="H20" s="9" t="str">
+      <c r="F20" s="17">
+        <v>44740</v>
+      </c>
+      <c r="H20" s="8" t="str">
         <f>IF(I20&gt;0,$L$1&amp;I20,"")</f>
         <v/>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="2">
         <v>14421629</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="23">
-        <v>44740</v>
-      </c>
-      <c r="H21" s="9" t="str">
+      <c r="F21" s="6">
+        <v>44740</v>
+      </c>
+      <c r="H21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>14197911</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="C22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="18">
-        <v>44740</v>
-      </c>
-      <c r="H22" s="9" t="str">
+      <c r="F22" s="17">
+        <v>44740</v>
+      </c>
+      <c r="H22" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="2">
         <v>13201458</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="5">
         <v>44740</v>
       </c>
-      <c r="H23" s="9" t="str">
+      <c r="H23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>13734033</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="C24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="18">
-        <v>44740</v>
-      </c>
-      <c r="H24" s="9" t="str">
+      <c r="F24" s="17">
+        <v>44740</v>
+      </c>
+      <c r="H24" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="2">
         <v>13720624</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="22">
-        <v>44740</v>
-      </c>
-      <c r="H25" s="9" t="str">
+      <c r="F25" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="2">
         <v>13641976</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="22">
-        <v>44740</v>
-      </c>
-      <c r="H26" s="9" t="str">
+      <c r="F26" s="5">
+        <v>44740</v>
+      </c>
+      <c r="H26" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="2">
         <v>16305184</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="5">
         <v>44740</v>
       </c>
-      <c r="H27" s="9" t="str">
+      <c r="H27" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="2">
         <v>16266517</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="5">
         <v>44740</v>
       </c>
-      <c r="H28" s="9" t="str">
+      <c r="H28" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>16305633</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="18">
-        <v>44740</v>
-      </c>
-      <c r="H29" s="9" t="str">
+      <c r="F29" s="17">
+        <v>44740</v>
+      </c>
+      <c r="H29" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="2">
         <v>16308517</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="5">
         <v>44740</v>
       </c>
-      <c r="H30" s="9" t="str">
+      <c r="H30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="6">
         <v>44740</v>
       </c>
-      <c r="H31" s="9" t="str">
+      <c r="H31" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="2">
         <v>16331083</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="18" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="5">
@@ -2285,42 +2350,42 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="15">
         <v>17187851</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="17" t="s">
+      <c r="C43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="17">
         <v>44740</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="15">
         <v>17188626</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="17" t="s">
+      <c r="C44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="17">
         <v>44740</v>
       </c>
     </row>
@@ -2339,22 +2404,22 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <v>17294067</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="17" t="s">
+      <c r="C46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="17">
         <v>44740</v>
       </c>
     </row>
@@ -2602,7 +2667,7 @@
       <c r="A59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2834,7 +2899,7 @@
       <c r="E70" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="19" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2947,7 +3012,7 @@
       <c r="A77" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="19" t="s">
         <v>134</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -3252,26 +3317,166 @@
         <v>88</v>
       </c>
     </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="2">
+        <v>19296893</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="2">
+        <v>19297135</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="2">
+        <v>19297669</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="2">
+        <v>19298074</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="2">
+        <v>19298186</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="2">
+        <v>19298448</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="2">
+        <v>19298703</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" s="2">
+        <v>19298842</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" s="2">
+        <v>19298920</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="2">
+        <v>19328181</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="2">
+        <v>19328336</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="2">
+        <v>19328497</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="2">
+        <v>19328620</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F90" xr:uid="{1197BD2E-502D-47A0-A68C-07226AA3551B}"/>
-  <conditionalFormatting sqref="H1 J1 G70 A1:F100">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="A1:F251">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A100">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="A1:A251">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D100">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Да">
+  <conditionalFormatting sqref="C1:D251">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Да">
       <formula>NOT(ISERROR(SEARCH("Да",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Нет">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Нет">
       <formula>NOT(ISERROR(SEARCH("Нет",C1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{5F2A1991-F17F-44BA-8205-4788E0A13915}">
@@ -3343,9 +3548,10 @@
     <hyperlink ref="E82" r:id="rId59" xr:uid="{0F30F236-E27E-4070-9B81-FC6BBDD9107F}"/>
     <hyperlink ref="E83" r:id="rId60" xr:uid="{067992F5-1F64-4CE9-AE66-6D65F7F35262}"/>
     <hyperlink ref="E84" r:id="rId61" xr:uid="{1DCA8A7D-183F-4E71-B79F-B3795234E6D8}"/>
+    <hyperlink ref="E100" r:id="rId62" xr:uid="{F2795927-823C-43C0-A10A-5B5068E8D4FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -3354,7 +3560,7 @@
   <sheetPr codeName="Лист2">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3374,8 +3580,8 @@
     <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3387,84 +3593,185 @@
       <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>154</v>
+      <c r="I1" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="29" t="str" cm="1">
-        <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C888&amp;_xlpm.nl))&amp;K4)</f>
-        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'Grand Logistics'
-https://www.ozon.ru/seller/grand-logistics-286494/
+        <v>167</v>
+      </c>
+      <c r="F3" s="25" t="str" cm="1">
+        <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C886&amp;_xlpm.nl))&amp;K4)</f>
+        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'Tiptop'
+https://www.ozon.ru/seller/tiptop-512191/
 МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - 
-https://www.ozon.ru/product/beysbolka-boutique-italyanskaya-moda-zhurnal-602057669
-https://www.ozon.ru/product/beysbolka-654241336
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626633569
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631112
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634776
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631211
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626638012
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636563
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-original-634781425
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626632016
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636709
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626629400
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626635758
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631364
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626630292
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634463
+https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626628390
 Надеемся на быструю блокировку.</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="K3" s="28" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="K3" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" s="28" t="s">
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K5" s="28"/>
+      <c r="C5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="28"/>
+      <c r="C6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="28"/>
+      <c r="C7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="28"/>
+      <c r="C8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D327">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
-    <sortCondition ref="B2:B40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
+    <sortCondition ref="B2:B39"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="F3:I3"/>

--- a/Excel/FakerTickets.xlsx
+++ b/Excel/FakerTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8CD9E-DDAC-4724-81A1-51373508C9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93DBC3-27AE-4A8A-B509-C631D26355C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11E619BA-09E3-4ADA-8A2B-93B5B1052CD8}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="178">
   <si>
     <t>Фейкер</t>
   </si>
@@ -556,70 +556,46 @@
     <t>https://www.ozon.ru/seller/liuguoqiang-218029</t>
   </si>
   <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626633569</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-e/6357497978.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631112</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-7/6357496099.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634776</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631211</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-h/6357493625.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626638012</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-r/6357501555.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636563</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-original-634781425</t>
-  </si>
-  <si>
-    <t>https://cdn1.ozone.ru/s3/multimedia-8/6365597216.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626632016</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636709</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626629400</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626635758</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631364</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626630292</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634463</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626628390</t>
-  </si>
-  <si>
-    <t>Tiptop</t>
-  </si>
-  <si>
-    <t>https://www.ozon.ru/seller/tiptop-512191/</t>
+    <t>https://www.ozon.ru/product/04-klubnichnyy-tsvet-zhenskaya-pomada-mody-684366206</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-b/6241441499.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/toppik-pudra-zagustitel-standart-black-chernyy-27-5-gr-657684957</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-4/6377654152.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/detskaya-butylka-protiv-osechki-ppsu-imitatsiya-materi-moloka-si-braun-300ml-688306070</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-1/6183100321.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/novye-osenne-zimnie-uteplennye-flisovye-kombinezony-670719906</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-u/6380659926.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/shlyapa-691154352</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-f/6295448847.jpg</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/sheynyy-platok-694794777</t>
+  </si>
+  <si>
+    <t>https://cdn1.ozone.ru/s3/multimedia-c/6148077768.jpg</t>
+  </si>
+  <si>
+    <t>Sally Hal</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/seller/sally-hal-316888/</t>
   </si>
 </sst>
 </file>
@@ -787,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,6 +839,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,8 +1241,8 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,6 +3270,12 @@
       <c r="B92" s="2">
         <v>18378763</v>
       </c>
+      <c r="C92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E92" s="3" t="s">
         <v>145</v>
       </c>
@@ -3302,6 +3287,12 @@
       <c r="B93" s="2">
         <v>18385098</v>
       </c>
+      <c r="C93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E93" s="3" t="s">
         <v>146</v>
       </c>
@@ -3313,6 +3304,12 @@
       <c r="B94" s="2">
         <v>18485217</v>
       </c>
+      <c r="C94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E94" s="3" t="s">
         <v>88</v>
       </c>
@@ -3324,6 +3321,12 @@
       <c r="B95" s="2">
         <v>19296893</v>
       </c>
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E95" s="3" t="s">
         <v>89</v>
       </c>
@@ -3335,6 +3338,9 @@
       <c r="B96" s="2">
         <v>19297135</v>
       </c>
+      <c r="C96" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E96" s="3" t="s">
         <v>149</v>
       </c>
@@ -3346,6 +3352,9 @@
       <c r="B97" s="2">
         <v>19297669</v>
       </c>
+      <c r="C97" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E97" s="3" t="s">
         <v>57</v>
       </c>
@@ -3357,6 +3366,9 @@
       <c r="B98" s="2">
         <v>19298074</v>
       </c>
+      <c r="C98" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E98" s="3" t="s">
         <v>136</v>
       </c>
@@ -3368,6 +3380,9 @@
       <c r="B99" s="2">
         <v>19298186</v>
       </c>
+      <c r="C99" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E99" s="3" t="s">
         <v>150</v>
       </c>
@@ -3379,6 +3394,9 @@
       <c r="B100" s="2">
         <v>19298448</v>
       </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E100" s="4" t="s">
         <v>151</v>
       </c>
@@ -3390,6 +3408,9 @@
       <c r="B101" s="2">
         <v>19298703</v>
       </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E101" s="3" t="s">
         <v>153</v>
       </c>
@@ -3401,6 +3422,9 @@
       <c r="B102" s="2">
         <v>19298842</v>
       </c>
+      <c r="C102" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E102" s="3" t="s">
         <v>155</v>
       </c>
@@ -3412,6 +3436,9 @@
       <c r="B103" s="2">
         <v>19298920</v>
       </c>
+      <c r="C103" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E103" s="3" t="s">
         <v>157</v>
       </c>
@@ -3423,6 +3450,9 @@
       <c r="B104" s="2">
         <v>19328181</v>
       </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E104" s="3" t="s">
         <v>159</v>
       </c>
@@ -3434,6 +3464,9 @@
       <c r="B105" s="2">
         <v>19328336</v>
       </c>
+      <c r="C105" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E105" s="3" t="s">
         <v>153</v>
       </c>
@@ -3445,6 +3478,9 @@
       <c r="B106" s="2">
         <v>19328497</v>
       </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E106" s="3" t="s">
         <v>160</v>
       </c>
@@ -3455,6 +3491,9 @@
       </c>
       <c r="B107" s="2">
         <v>19328620</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>163</v>
@@ -3560,19 +3599,19 @@
   <sheetPr codeName="Лист2">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:I3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
@@ -3587,30 +3626,33 @@
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>100</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>143</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>142</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E2" s="20" t="s">
@@ -3618,32 +3660,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F3" s="25" t="str" cm="1">
         <f t="array" ref="F3">_xlfn.LET(_xlpm.nl,CHAR(10),E2&amp;G1&amp;"'"&amp;_xlpm.nl&amp;I1&amp;_xlpm.nl&amp;_xlpm.nl&amp;K3&amp;_xlpm.nl&amp;_xlfn.CONCAT(_xlfn.UNIQUE(DataHandler!C2:C886&amp;_xlpm.nl))&amp;K4)</f>
-        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'Tiptop'
-https://www.ozon.ru/seller/tiptop-512191/
+        <v>Добрый день! Хотим сообщить о нарушении продажи товаров поставщика 'Sally Hal'
+https://www.ozon.ru/seller/sally-hal-316888/
 МЫ ЕДИНСТВЕННЫЕ дистрибуторы бренда GOORIN на территории РФ и никто другой не имеет права продавать данный товар без нашего согласия. Документы на бренды подгружены и одобрены. Мы постоянно проверяем каталог и выявляем нарушителей. Далее блокируем их через ваш отдел. На всех товарах видно изображение логотипа GOORIN в виде замка - 
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626633569
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631112
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634776
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631211
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626638012
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636563
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-original-634781425
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626632016
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626636709
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626629400
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626635758
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626631364
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626630292
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626634463
-https://www.ozon.ru/product/beysbolka-dlya-rybalki-i-ohoty-goorin-bros-626628390
+https://www.ozon.ru/product/04-klubnichnyy-tsvet-zhenskaya-pomada-mody-684366206
+https://www.ozon.ru/product/toppik-pudra-zagustitel-standart-black-chernyy-27-5-gr-657684957
+https://www.ozon.ru/product/detskaya-butylka-protiv-osechki-ppsu-imitatsiya-materi-moloka-si-braun-300ml-688306070
+https://www.ozon.ru/product/novye-osenne-zimnie-uteplennye-flisovye-kombinezony-670719906
+https://www.ozon.ru/product/shlyapa-691154352
+https://www.ozon.ru/product/sheynyy-platok-694794777
 Надеемся на быструю блокировку.</v>
       </c>
       <c r="G3" s="26"/>
@@ -3654,119 +3690,61 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>165</v>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>165</v>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>170</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{40BD0112-4DA4-46CA-AE15-C6519D5A752D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D327">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
